--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E57B5A-2B55-4D64-BCF8-BC2922274CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56134118-23FE-4ED9-A546-5E1812536E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -225,12 +225,205 @@
         </r>
       </text>
     </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{493E969E-FBB6-4C5E-A903-678C44AD1CCE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Medical Condition</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{5D38DAC7-A9D6-48C2-A967-F142C5BFFDF8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work not joined</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{679DFC09-DE41-4D3A-8825-73E3E82F0EE0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mobile and internet Issue
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{AAA070CB-7D39-4149-BBFF-6DFB4BFCFA0D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No any response for message</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{D92C1A72-AFCA-47A6-B5F5-B58B7DD7542A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No any response for message</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{EFB8F4BC-9D58-42F1-9112-E023582961D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{88640E83-7583-4957-AB3D-E04D6C1DA246}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No any response for message</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{8970D558-C160-4BAF-89A7-49A93976CE78}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Personal work</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -391,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -414,11 +607,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,6 +667,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -776,9 +1003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -786,11 +1013,13 @@
     <col min="1" max="1" width="20.09765625" customWidth="1"/>
     <col min="2" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="37.3984375" customWidth="1"/>
-    <col min="5" max="11" width="30.5" customWidth="1"/>
+    <col min="5" max="7" width="30.5" customWidth="1"/>
+    <col min="8" max="8" width="30.5" style="4" customWidth="1"/>
+    <col min="9" max="11" width="30.5" customWidth="1"/>
     <col min="12" max="26" width="32.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,13 +1071,13 @@
       <c r="Q1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="16" t="s">
         <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -907,13 +1136,13 @@
       <c r="Q2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="13">
         <v>16</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="14">
         <v>7</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="15">
         <v>9</v>
       </c>
     </row>
@@ -945,7 +1174,7 @@
       <c r="I3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -983,24 +1212,63 @@
       <c r="A4" s="5">
         <v>45141</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="10">
+        <v>16</v>
+      </c>
+      <c r="S4" s="12">
+        <v>8</v>
+      </c>
+      <c r="T4" s="11">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
@@ -1012,7 +1280,6 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1036,7 +1303,6 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1062,7 +1328,6 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1085,7 +1350,6 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1108,7 +1372,6 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1131,7 +1394,6 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1153,7 +1415,6 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1175,7 +1436,6 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1197,7 +1457,6 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1219,7 +1478,6 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1241,7 +1499,6 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1283,7 +1540,6 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1306,7 +1562,6 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1329,7 +1584,6 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1352,7 +1606,6 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1373,7 +1626,6 @@
       <c r="B22" s="4"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -1396,7 +1648,6 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1419,7 +1670,6 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -1442,7 +1692,6 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -1466,7 +1715,6 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -1490,7 +1738,6 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -1514,7 +1761,6 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -1538,7 +1784,6 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -1562,7 +1807,6 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1586,7 +1830,6 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -1610,7 +1853,6 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -1634,7 +1876,6 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -1658,7 +1899,6 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -1682,7 +1922,6 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -1706,7 +1945,6 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -1730,7 +1968,6 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -1754,7 +1991,6 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -1778,7 +2014,6 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -1802,7 +2037,6 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -1826,7 +2060,6 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -1850,7 +2083,6 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -1874,7 +2106,6 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -1898,7 +2129,6 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -1922,7 +2152,6 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -1946,7 +2175,6 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -1970,7 +2198,6 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -1994,7 +2221,6 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -2018,7 +2244,6 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -2042,7 +2267,6 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -2066,7 +2290,6 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -2090,7 +2313,6 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -2114,7 +2336,6 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -2138,7 +2359,6 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -2162,7 +2382,6 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -2186,7 +2405,6 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -2210,7 +2428,6 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -2234,7 +2451,6 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -2258,7 +2474,6 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -2282,7 +2497,6 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -2306,7 +2520,6 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -2330,7 +2543,6 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -2354,7 +2566,6 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -2378,7 +2589,6 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -2402,7 +2612,6 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -2426,7 +2635,6 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
@@ -2450,7 +2658,6 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -2474,7 +2681,6 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -2498,7 +2704,6 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -2522,7 +2727,6 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -2546,7 +2750,6 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -2570,7 +2773,6 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -2594,7 +2796,6 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -2618,7 +2819,6 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -2642,7 +2842,6 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -2666,7 +2865,6 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -2690,7 +2888,6 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -2714,7 +2911,6 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -2738,7 +2934,6 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -2762,7 +2957,6 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -2786,7 +2980,6 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -2810,7 +3003,6 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -2834,7 +3026,6 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -2858,7 +3049,6 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -2882,7 +3072,6 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -2906,7 +3095,6 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -2930,7 +3118,6 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -2954,7 +3141,6 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -2978,7 +3164,6 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -3002,7 +3187,6 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -3026,7 +3210,6 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -3050,7 +3233,6 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -3074,7 +3256,6 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -3098,7 +3279,6 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -3122,7 +3302,6 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -3146,7 +3325,6 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -3170,7 +3348,6 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -3194,7 +3371,6 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -3218,7 +3394,6 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
@@ -3242,7 +3417,6 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
@@ -3266,7 +3440,6 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
@@ -3290,7 +3463,6 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
@@ -3314,7 +3486,6 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
@@ -3338,7 +3509,6 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -3362,7 +3532,6 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
@@ -3386,7 +3555,6 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -3410,7 +3578,6 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
@@ -3434,7 +3601,6 @@
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
@@ -3458,7 +3624,6 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
@@ -3482,7 +3647,6 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
@@ -3506,7 +3670,6 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
@@ -3530,7 +3693,6 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
@@ -3554,7 +3716,6 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
@@ -3578,7 +3739,6 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
@@ -3602,7 +3762,6 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
@@ -3626,7 +3785,6 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
@@ -3650,7 +3808,6 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
@@ -3674,7 +3831,6 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
@@ -3698,7 +3854,6 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
@@ -3722,7 +3877,6 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
@@ -3746,7 +3900,6 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
@@ -3770,7 +3923,6 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
@@ -3794,7 +3946,6 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
@@ -3816,7 +3967,6 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
@@ -3838,7 +3988,6 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
@@ -3860,7 +4009,6 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
@@ -3882,7 +4030,6 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
@@ -3904,7 +4051,6 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
@@ -3926,7 +4072,6 @@
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
@@ -3948,7 +4093,6 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
@@ -3970,7 +4114,6 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
@@ -3992,7 +4135,6 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
@@ -4014,7 +4156,6 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
@@ -4036,7 +4177,6 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
@@ -4058,7 +4198,6 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
@@ -4080,7 +4219,6 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
@@ -4102,7 +4240,6 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
@@ -4124,7 +4261,6 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
@@ -4146,7 +4282,6 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
@@ -4168,7 +4303,6 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
@@ -4190,7 +4324,6 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
@@ -4212,7 +4345,6 @@
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
@@ -4234,7 +4366,6 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
@@ -4256,7 +4387,6 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
@@ -4278,7 +4408,6 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
@@ -4300,7 +4429,6 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
@@ -4322,7 +4450,6 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
@@ -4344,7 +4471,6 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
@@ -4366,7 +4492,6 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
@@ -4388,7 +4513,6 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
@@ -4410,7 +4534,6 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
@@ -4432,7 +4555,6 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
@@ -4454,7 +4576,6 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
@@ -4476,7 +4597,6 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
@@ -4498,7 +4618,6 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
@@ -4520,7 +4639,6 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
@@ -4542,7 +4660,6 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
@@ -4564,7 +4681,6 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
@@ -4586,7 +4702,6 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
@@ -4608,7 +4723,6 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
@@ -4630,7 +4744,6 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
@@ -4652,7 +4765,6 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
@@ -4674,7 +4786,6 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
@@ -4696,7 +4807,6 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
@@ -4718,7 +4828,6 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
@@ -4740,7 +4849,6 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
@@ -4762,7 +4870,6 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
@@ -4784,7 +4891,6 @@
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
@@ -4806,7 +4912,6 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
@@ -4828,7 +4933,6 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
@@ -4850,7 +4954,6 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
@@ -4872,7 +4975,6 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
@@ -4894,7 +4996,6 @@
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
@@ -4916,7 +5017,6 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
@@ -4938,7 +5038,6 @@
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
@@ -4960,7 +5059,6 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
@@ -4982,7 +5080,6 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
@@ -5004,7 +5101,6 @@
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
@@ -5026,7 +5122,6 @@
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
@@ -5048,7 +5143,6 @@
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
-      <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
@@ -5070,7 +5164,6 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
@@ -5092,7 +5185,6 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
-      <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
@@ -5114,7 +5206,6 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
@@ -5136,7 +5227,6 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
-      <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
@@ -5158,7 +5248,6 @@
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
-      <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
@@ -5180,7 +5269,6 @@
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
-      <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
@@ -5202,7 +5290,6 @@
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
-      <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
@@ -5224,7 +5311,6 @@
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
-      <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
@@ -5246,7 +5332,6 @@
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
-      <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
@@ -5268,7 +5353,6 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
-      <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
@@ -5290,7 +5374,6 @@
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
-      <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
@@ -5312,7 +5395,6 @@
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
-      <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
@@ -5334,7 +5416,6 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
-      <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
@@ -5356,7 +5437,6 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
-      <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
@@ -5378,7 +5458,6 @@
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
-      <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
@@ -5400,7 +5479,6 @@
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
-      <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
       <c r="K196" s="4"/>
@@ -5422,7 +5500,6 @@
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
-      <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
       <c r="K197" s="4"/>
@@ -5444,7 +5521,6 @@
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
-      <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
@@ -5466,7 +5542,6 @@
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
-      <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
@@ -5488,7 +5563,6 @@
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
-      <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
@@ -5510,7 +5584,6 @@
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
-      <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
@@ -5532,7 +5605,6 @@
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
-      <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
@@ -5554,7 +5626,6 @@
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
-      <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
@@ -5576,7 +5647,6 @@
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
-      <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
@@ -5598,7 +5668,6 @@
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
-      <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
@@ -5620,7 +5689,6 @@
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
-      <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
@@ -5642,7 +5710,6 @@
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
-      <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
@@ -5664,7 +5731,6 @@
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
-      <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
@@ -5686,7 +5752,6 @@
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
-      <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
@@ -5708,7 +5773,6 @@
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
-      <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
@@ -5730,7 +5794,6 @@
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
-      <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
@@ -5752,7 +5815,6 @@
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
-      <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
@@ -5774,7 +5836,6 @@
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
-      <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
@@ -5796,7 +5857,6 @@
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
-      <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
@@ -5818,7 +5878,6 @@
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
-      <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
@@ -5840,7 +5899,6 @@
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
-      <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
@@ -5862,7 +5920,6 @@
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
-      <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
@@ -5884,7 +5941,6 @@
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
-      <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
@@ -5906,7 +5962,6 @@
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
-      <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
@@ -5928,7 +5983,6 @@
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
-      <c r="H220" s="4"/>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
@@ -5950,7 +6004,6 @@
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
-      <c r="H221" s="4"/>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
@@ -5972,7 +6025,6 @@
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
-      <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
@@ -5994,7 +6046,6 @@
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
-      <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
       <c r="K223" s="4"/>
@@ -6016,7 +6067,6 @@
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
-      <c r="H224" s="4"/>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
@@ -6038,7 +6088,6 @@
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
-      <c r="H225" s="4"/>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
@@ -6060,7 +6109,6 @@
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
-      <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
@@ -6082,7 +6130,6 @@
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
-      <c r="H227" s="4"/>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
@@ -6104,7 +6151,6 @@
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
-      <c r="H228" s="4"/>
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
@@ -6126,7 +6172,6 @@
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
-      <c r="H229" s="4"/>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
@@ -6148,7 +6193,6 @@
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
-      <c r="H230" s="4"/>
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
@@ -6170,7 +6214,6 @@
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
-      <c r="H231" s="4"/>
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
@@ -6192,7 +6235,6 @@
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
-      <c r="H232" s="4"/>
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
@@ -6214,7 +6256,6 @@
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
-      <c r="H233" s="4"/>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
       <c r="K233" s="4"/>
@@ -6236,7 +6277,6 @@
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
-      <c r="H234" s="4"/>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
@@ -6258,7 +6298,6 @@
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
-      <c r="H235" s="4"/>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
@@ -6280,7 +6319,6 @@
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
-      <c r="H236" s="4"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
@@ -6302,7 +6340,6 @@
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
-      <c r="H237" s="4"/>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
@@ -6324,7 +6361,6 @@
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
-      <c r="H238" s="4"/>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
@@ -6346,7 +6382,6 @@
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
-      <c r="H239" s="4"/>
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
@@ -6368,7 +6403,6 @@
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
-      <c r="H240" s="4"/>
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
@@ -6390,7 +6424,6 @@
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
-      <c r="H241" s="4"/>
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
@@ -6412,7 +6445,6 @@
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
-      <c r="H242" s="4"/>
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
@@ -6434,7 +6466,6 @@
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
-      <c r="H243" s="4"/>
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
@@ -6456,7 +6487,6 @@
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
-      <c r="H244" s="4"/>
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
@@ -6478,7 +6508,6 @@
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
-      <c r="H245" s="4"/>
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
       <c r="K245" s="4"/>
@@ -6500,7 +6529,6 @@
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
-      <c r="H246" s="4"/>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
@@ -6522,7 +6550,6 @@
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
-      <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
@@ -6544,7 +6571,6 @@
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
-      <c r="H248" s="4"/>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
       <c r="K248" s="4"/>
@@ -6566,7 +6592,6 @@
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
-      <c r="H249" s="4"/>
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
       <c r="K249" s="4"/>
@@ -6588,7 +6613,6 @@
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
-      <c r="H250" s="4"/>
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
       <c r="K250" s="4"/>
@@ -6610,7 +6634,6 @@
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
-      <c r="H251" s="4"/>
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
       <c r="K251" s="4"/>
@@ -6632,7 +6655,6 @@
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
-      <c r="H252" s="4"/>
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
       <c r="K252" s="4"/>
@@ -6654,7 +6676,6 @@
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
-      <c r="H253" s="4"/>
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
       <c r="K253" s="4"/>
@@ -6676,7 +6697,6 @@
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
-      <c r="H254" s="4"/>
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
       <c r="K254" s="4"/>
@@ -6698,7 +6718,6 @@
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
-      <c r="H255" s="4"/>
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
       <c r="K255" s="4"/>
@@ -6720,7 +6739,6 @@
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
-      <c r="H256" s="4"/>
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
       <c r="K256" s="4"/>
@@ -6742,7 +6760,6 @@
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
-      <c r="H257" s="4"/>
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
       <c r="K257" s="4"/>
@@ -6764,7 +6781,6 @@
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
-      <c r="H258" s="4"/>
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
       <c r="K258" s="4"/>
@@ -6786,7 +6802,6 @@
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
-      <c r="H259" s="4"/>
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
       <c r="K259" s="4"/>
@@ -6808,7 +6823,6 @@
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
-      <c r="H260" s="4"/>
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
       <c r="K260" s="4"/>
@@ -6830,7 +6844,6 @@
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
-      <c r="H261" s="4"/>
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
       <c r="K261" s="4"/>
@@ -6852,7 +6865,6 @@
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
-      <c r="H262" s="4"/>
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
       <c r="K262" s="4"/>
@@ -6874,7 +6886,6 @@
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
-      <c r="H263" s="4"/>
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
       <c r="K263" s="4"/>
@@ -6896,7 +6907,6 @@
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
-      <c r="H264" s="4"/>
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
       <c r="K264" s="4"/>
@@ -6918,7 +6928,6 @@
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
-      <c r="H265" s="4"/>
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
       <c r="K265" s="4"/>
@@ -6940,7 +6949,6 @@
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
-      <c r="H266" s="4"/>
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
       <c r="K266" s="4"/>
@@ -6962,7 +6970,6 @@
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
-      <c r="H267" s="4"/>
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
       <c r="K267" s="4"/>
@@ -6984,7 +6991,6 @@
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
-      <c r="H268" s="4"/>
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
       <c r="K268" s="4"/>
@@ -7006,7 +7012,6 @@
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
-      <c r="H269" s="4"/>
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
       <c r="K269" s="4"/>
@@ -7028,7 +7033,6 @@
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
-      <c r="H270" s="4"/>
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
       <c r="K270" s="4"/>
@@ -7050,7 +7054,6 @@
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
-      <c r="H271" s="4"/>
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
       <c r="K271" s="4"/>
@@ -7072,7 +7075,6 @@
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
-      <c r="H272" s="4"/>
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
       <c r="K272" s="4"/>
@@ -7094,7 +7096,6 @@
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
-      <c r="H273" s="4"/>
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
       <c r="K273" s="4"/>
@@ -7116,7 +7117,6 @@
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
-      <c r="H274" s="4"/>
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
       <c r="K274" s="4"/>
@@ -7138,7 +7138,6 @@
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
-      <c r="H275" s="4"/>
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
       <c r="K275" s="4"/>
@@ -7160,7 +7159,6 @@
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
-      <c r="H276" s="4"/>
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
       <c r="K276" s="4"/>
@@ -7182,7 +7180,6 @@
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
-      <c r="H277" s="4"/>
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
       <c r="K277" s="4"/>
@@ -7204,7 +7201,6 @@
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
-      <c r="H278" s="4"/>
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
       <c r="K278" s="4"/>
@@ -7226,7 +7222,6 @@
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
-      <c r="H279" s="4"/>
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
       <c r="K279" s="4"/>
@@ -7248,7 +7243,6 @@
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
-      <c r="H280" s="4"/>
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
       <c r="K280" s="4"/>
@@ -7270,7 +7264,6 @@
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
-      <c r="H281" s="4"/>
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
       <c r="K281" s="4"/>
@@ -7292,7 +7285,6 @@
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
-      <c r="H282" s="4"/>
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
       <c r="K282" s="4"/>
@@ -7314,7 +7306,6 @@
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
-      <c r="H283" s="4"/>
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
       <c r="K283" s="4"/>
@@ -7336,7 +7327,6 @@
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
-      <c r="H284" s="4"/>
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
       <c r="K284" s="4"/>
@@ -7358,7 +7348,6 @@
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
-      <c r="H285" s="4"/>
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
       <c r="K285" s="4"/>
@@ -7380,7 +7369,6 @@
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
-      <c r="H286" s="4"/>
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
       <c r="K286" s="4"/>
@@ -7402,7 +7390,6 @@
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
-      <c r="H287" s="4"/>
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
       <c r="K287" s="4"/>
@@ -7424,7 +7411,6 @@
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
-      <c r="H288" s="4"/>
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
       <c r="K288" s="4"/>
@@ -7446,7 +7432,6 @@
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
-      <c r="H289" s="4"/>
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
       <c r="K289" s="4"/>
@@ -7468,7 +7453,6 @@
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
-      <c r="H290" s="4"/>
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
       <c r="K290" s="4"/>
@@ -7490,7 +7474,6 @@
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
-      <c r="H291" s="4"/>
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
       <c r="K291" s="4"/>
@@ -7512,7 +7495,6 @@
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
-      <c r="H292" s="4"/>
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
       <c r="K292" s="4"/>
@@ -7534,7 +7516,6 @@
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
-      <c r="H293" s="4"/>
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
       <c r="K293" s="4"/>
@@ -7556,7 +7537,6 @@
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
-      <c r="H294" s="4"/>
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
       <c r="K294" s="4"/>
@@ -7578,7 +7558,6 @@
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
-      <c r="H295" s="4"/>
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
       <c r="K295" s="4"/>
@@ -7600,7 +7579,6 @@
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
-      <c r="H296" s="4"/>
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
       <c r="K296" s="4"/>
@@ -7622,7 +7600,6 @@
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
-      <c r="H297" s="4"/>
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
       <c r="K297" s="4"/>
@@ -7644,7 +7621,6 @@
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
-      <c r="H298" s="4"/>
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
       <c r="K298" s="4"/>
@@ -7666,7 +7642,6 @@
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
-      <c r="H299" s="4"/>
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
       <c r="K299" s="4"/>
@@ -7688,7 +7663,6 @@
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
-      <c r="H300" s="4"/>
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
       <c r="K300" s="4"/>
@@ -7710,7 +7684,6 @@
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
-      <c r="H301" s="4"/>
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
       <c r="K301" s="4"/>
@@ -7732,7 +7705,6 @@
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
-      <c r="H302" s="4"/>
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
       <c r="K302" s="4"/>
@@ -7754,7 +7726,6 @@
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
-      <c r="H303" s="4"/>
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
       <c r="K303" s="4"/>
@@ -7776,7 +7747,6 @@
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
-      <c r="H304" s="4"/>
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
       <c r="K304" s="4"/>
@@ -7798,7 +7768,6 @@
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
-      <c r="H305" s="4"/>
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
       <c r="K305" s="4"/>
@@ -7820,7 +7789,6 @@
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
-      <c r="H306" s="4"/>
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
       <c r="K306" s="4"/>
@@ -7842,7 +7810,6 @@
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
-      <c r="H307" s="4"/>
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
       <c r="K307" s="4"/>
@@ -7864,7 +7831,6 @@
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
-      <c r="H308" s="4"/>
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
       <c r="K308" s="4"/>
@@ -7886,7 +7852,6 @@
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
-      <c r="H309" s="4"/>
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
       <c r="K309" s="4"/>
@@ -7908,7 +7873,6 @@
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
-      <c r="H310" s="4"/>
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
       <c r="K310" s="4"/>
@@ -7930,7 +7894,6 @@
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
-      <c r="H311" s="4"/>
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
       <c r="K311" s="4"/>
@@ -7952,7 +7915,6 @@
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
-      <c r="H312" s="4"/>
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
       <c r="K312" s="4"/>
@@ -7974,7 +7936,6 @@
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
-      <c r="H313" s="4"/>
       <c r="I313" s="4"/>
       <c r="J313" s="4"/>
       <c r="K313" s="4"/>
@@ -7996,7 +7957,6 @@
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
-      <c r="H314" s="4"/>
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
       <c r="K314" s="4"/>
@@ -8018,7 +7978,6 @@
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
-      <c r="H315" s="4"/>
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
       <c r="K315" s="4"/>
@@ -8040,7 +7999,6 @@
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
-      <c r="H316" s="4"/>
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
       <c r="K316" s="4"/>
@@ -8062,7 +8020,6 @@
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
-      <c r="H317" s="4"/>
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
       <c r="K317" s="4"/>
@@ -8084,7 +8041,6 @@
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
-      <c r="H318" s="4"/>
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
       <c r="K318" s="4"/>
@@ -8106,7 +8062,6 @@
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
-      <c r="H319" s="4"/>
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
       <c r="K319" s="4"/>
@@ -8128,7 +8083,6 @@
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
-      <c r="H320" s="4"/>
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
       <c r="K320" s="4"/>
@@ -8150,7 +8104,6 @@
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
-      <c r="H321" s="4"/>
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
       <c r="K321" s="4"/>
@@ -8172,7 +8125,6 @@
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
-      <c r="H322" s="4"/>
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
       <c r="K322" s="4"/>
@@ -8194,7 +8146,6 @@
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
-      <c r="H323" s="4"/>
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
       <c r="K323" s="4"/>
@@ -8216,7 +8167,6 @@
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
-      <c r="H324" s="4"/>
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
       <c r="K324" s="4"/>
@@ -8238,7 +8188,6 @@
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
-      <c r="H325" s="4"/>
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
       <c r="K325" s="4"/>
@@ -8260,7 +8209,6 @@
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
-      <c r="H326" s="4"/>
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
       <c r="K326" s="4"/>
@@ -8282,7 +8230,6 @@
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
       <c r="G327" s="4"/>
-      <c r="H327" s="4"/>
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
       <c r="K327" s="4"/>
@@ -8304,7 +8251,6 @@
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
-      <c r="H328" s="4"/>
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
       <c r="K328" s="4"/>
@@ -8326,7 +8272,6 @@
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
-      <c r="H329" s="4"/>
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
       <c r="K329" s="4"/>
@@ -8348,7 +8293,6 @@
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
-      <c r="H330" s="4"/>
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
       <c r="K330" s="4"/>
@@ -8370,7 +8314,6 @@
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
-      <c r="H331" s="4"/>
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
       <c r="K331" s="4"/>
@@ -8392,7 +8335,6 @@
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
-      <c r="H332" s="4"/>
       <c r="I332" s="4"/>
       <c r="J332" s="4"/>
       <c r="K332" s="4"/>
@@ -8414,7 +8356,6 @@
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
-      <c r="H333" s="4"/>
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
       <c r="K333" s="4"/>
@@ -8436,7 +8377,6 @@
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
-      <c r="H334" s="4"/>
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
       <c r="K334" s="4"/>
@@ -8458,7 +8398,6 @@
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
-      <c r="H335" s="4"/>
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
       <c r="K335" s="4"/>
@@ -8480,7 +8419,6 @@
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
-      <c r="H336" s="4"/>
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
       <c r="K336" s="4"/>
@@ -8502,7 +8440,6 @@
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
-      <c r="H337" s="4"/>
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
       <c r="K337" s="4"/>
@@ -8524,7 +8461,6 @@
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
-      <c r="H338" s="4"/>
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
       <c r="K338" s="4"/>
@@ -8546,7 +8482,6 @@
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
-      <c r="H339" s="4"/>
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
       <c r="K339" s="4"/>
@@ -8568,7 +8503,6 @@
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
-      <c r="H340" s="4"/>
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
       <c r="K340" s="4"/>
@@ -8590,7 +8524,6 @@
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
-      <c r="H341" s="4"/>
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
       <c r="K341" s="4"/>
@@ -8612,7 +8545,6 @@
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
-      <c r="H342" s="4"/>
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
       <c r="K342" s="4"/>
@@ -8634,7 +8566,6 @@
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
-      <c r="H343" s="4"/>
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
       <c r="K343" s="4"/>
@@ -8656,7 +8587,6 @@
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
-      <c r="H344" s="4"/>
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
       <c r="K344" s="4"/>
@@ -8678,7 +8608,6 @@
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
-      <c r="H345" s="4"/>
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
       <c r="K345" s="4"/>
@@ -8700,7 +8629,6 @@
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
-      <c r="H346" s="4"/>
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
       <c r="K346" s="4"/>
@@ -8722,7 +8650,6 @@
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
       <c r="G347" s="4"/>
-      <c r="H347" s="4"/>
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
       <c r="K347" s="4"/>
@@ -8744,7 +8671,6 @@
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
       <c r="G348" s="4"/>
-      <c r="H348" s="4"/>
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
       <c r="K348" s="4"/>
@@ -8766,7 +8692,6 @@
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
       <c r="G349" s="4"/>
-      <c r="H349" s="4"/>
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
       <c r="K349" s="4"/>
@@ -8788,7 +8713,6 @@
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
-      <c r="H350" s="4"/>
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
       <c r="K350" s="4"/>
@@ -8810,7 +8734,6 @@
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
       <c r="G351" s="4"/>
-      <c r="H351" s="4"/>
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
       <c r="K351" s="4"/>
@@ -8832,7 +8755,6 @@
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
-      <c r="H352" s="4"/>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
       <c r="K352" s="4"/>
@@ -8854,7 +8776,6 @@
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
       <c r="G353" s="4"/>
-      <c r="H353" s="4"/>
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
       <c r="K353" s="4"/>
@@ -8876,7 +8797,6 @@
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
-      <c r="H354" s="4"/>
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
       <c r="K354" s="4"/>
@@ -8898,7 +8818,6 @@
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
-      <c r="H355" s="4"/>
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
       <c r="K355" s="4"/>
@@ -8920,7 +8839,6 @@
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
-      <c r="H356" s="4"/>
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
       <c r="K356" s="4"/>
@@ -8942,7 +8860,6 @@
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
       <c r="G357" s="4"/>
-      <c r="H357" s="4"/>
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
       <c r="K357" s="4"/>
@@ -8964,7 +8881,6 @@
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
-      <c r="H358" s="4"/>
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
       <c r="K358" s="4"/>
@@ -8986,7 +8902,6 @@
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
       <c r="G359" s="4"/>
-      <c r="H359" s="4"/>
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
       <c r="K359" s="4"/>
@@ -9008,7 +8923,6 @@
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
-      <c r="H360" s="4"/>
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
       <c r="K360" s="4"/>
@@ -9030,7 +8944,6 @@
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
       <c r="G361" s="4"/>
-      <c r="H361" s="4"/>
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
       <c r="K361" s="4"/>
@@ -9052,7 +8965,6 @@
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
-      <c r="H362" s="4"/>
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
       <c r="K362" s="4"/>
@@ -9074,7 +8986,6 @@
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
-      <c r="H363" s="4"/>
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
       <c r="K363" s="4"/>
@@ -9096,7 +9007,6 @@
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
-      <c r="H364" s="4"/>
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
       <c r="K364" s="4"/>
@@ -9118,7 +9028,6 @@
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
-      <c r="H365" s="4"/>
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
       <c r="K365" s="4"/>
@@ -9140,7 +9049,6 @@
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
-      <c r="H366" s="4"/>
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
       <c r="K366" s="4"/>
@@ -9162,7 +9070,6 @@
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
-      <c r="H367" s="4"/>
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
       <c r="K367" s="4"/>
@@ -9184,7 +9091,6 @@
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
-      <c r="H368" s="4"/>
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
       <c r="K368" s="4"/>
@@ -9206,7 +9112,6 @@
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
-      <c r="H369" s="4"/>
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
       <c r="K369" s="4"/>
@@ -9228,7 +9133,6 @@
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
-      <c r="H370" s="4"/>
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
       <c r="K370" s="4"/>
@@ -9250,7 +9154,6 @@
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
-      <c r="H371" s="4"/>
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
       <c r="K371" s="4"/>
@@ -9272,7 +9175,6 @@
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
-      <c r="H372" s="4"/>
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
       <c r="K372" s="4"/>
@@ -9294,7 +9196,6 @@
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
-      <c r="H373" s="4"/>
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
       <c r="K373" s="4"/>
@@ -9316,7 +9217,6 @@
       <c r="E374" s="4"/>
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
-      <c r="H374" s="4"/>
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
       <c r="K374" s="4"/>
@@ -9338,7 +9238,6 @@
       <c r="E375" s="4"/>
       <c r="F375" s="4"/>
       <c r="G375" s="4"/>
-      <c r="H375" s="4"/>
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
       <c r="K375" s="4"/>
@@ -9360,7 +9259,6 @@
       <c r="E376" s="4"/>
       <c r="F376" s="4"/>
       <c r="G376" s="4"/>
-      <c r="H376" s="4"/>
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
       <c r="K376" s="4"/>
@@ -9382,7 +9280,6 @@
       <c r="E377" s="4"/>
       <c r="F377" s="4"/>
       <c r="G377" s="4"/>
-      <c r="H377" s="4"/>
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
       <c r="K377" s="4"/>
@@ -9404,7 +9301,6 @@
       <c r="E378" s="4"/>
       <c r="F378" s="4"/>
       <c r="G378" s="4"/>
-      <c r="H378" s="4"/>
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
       <c r="K378" s="4"/>
@@ -9426,7 +9322,6 @@
       <c r="E379" s="4"/>
       <c r="F379" s="4"/>
       <c r="G379" s="4"/>
-      <c r="H379" s="4"/>
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
       <c r="K379" s="4"/>
@@ -9448,7 +9343,6 @@
       <c r="E380" s="4"/>
       <c r="F380" s="4"/>
       <c r="G380" s="4"/>
-      <c r="H380" s="4"/>
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
       <c r="K380" s="4"/>
@@ -9470,7 +9364,6 @@
       <c r="E381" s="4"/>
       <c r="F381" s="4"/>
       <c r="G381" s="4"/>
-      <c r="H381" s="4"/>
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
       <c r="K381" s="4"/>
@@ -9492,7 +9385,6 @@
       <c r="E382" s="4"/>
       <c r="F382" s="4"/>
       <c r="G382" s="4"/>
-      <c r="H382" s="4"/>
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
       <c r="K382" s="4"/>
@@ -9514,7 +9406,6 @@
       <c r="E383" s="4"/>
       <c r="F383" s="4"/>
       <c r="G383" s="4"/>
-      <c r="H383" s="4"/>
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
       <c r="K383" s="4"/>
@@ -9536,7 +9427,6 @@
       <c r="E384" s="4"/>
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
-      <c r="H384" s="4"/>
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
       <c r="K384" s="4"/>
@@ -9558,7 +9448,6 @@
       <c r="E385" s="4"/>
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
-      <c r="H385" s="4"/>
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
       <c r="K385" s="4"/>
@@ -9580,7 +9469,6 @@
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
-      <c r="H386" s="4"/>
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
       <c r="K386" s="4"/>
@@ -9602,7 +9490,6 @@
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
-      <c r="H387" s="4"/>
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
       <c r="K387" s="4"/>
@@ -9624,7 +9511,6 @@
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
-      <c r="H388" s="4"/>
       <c r="I388" s="4"/>
       <c r="J388" s="4"/>
       <c r="K388" s="4"/>
@@ -9646,7 +9532,6 @@
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
       <c r="G389" s="4"/>
-      <c r="H389" s="4"/>
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
       <c r="K389" s="4"/>
@@ -9668,7 +9553,6 @@
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
-      <c r="H390" s="4"/>
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
       <c r="K390" s="4"/>
@@ -9690,7 +9574,6 @@
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
-      <c r="H391" s="4"/>
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
       <c r="K391" s="4"/>
@@ -9712,7 +9595,6 @@
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
-      <c r="H392" s="4"/>
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
       <c r="K392" s="4"/>
@@ -9734,7 +9616,6 @@
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
-      <c r="H393" s="4"/>
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
       <c r="K393" s="4"/>
@@ -9756,7 +9637,6 @@
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
-      <c r="H394" s="4"/>
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
       <c r="K394" s="4"/>
@@ -9778,7 +9658,6 @@
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
-      <c r="H395" s="4"/>
       <c r="I395" s="4"/>
       <c r="J395" s="4"/>
       <c r="K395" s="4"/>
@@ -9800,7 +9679,6 @@
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
-      <c r="H396" s="4"/>
       <c r="I396" s="4"/>
       <c r="J396" s="4"/>
       <c r="K396" s="4"/>
@@ -9822,7 +9700,6 @@
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
-      <c r="H397" s="4"/>
       <c r="I397" s="4"/>
       <c r="J397" s="4"/>
       <c r="K397" s="4"/>
@@ -9844,7 +9721,6 @@
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
-      <c r="H398" s="4"/>
       <c r="I398" s="4"/>
       <c r="J398" s="4"/>
       <c r="K398" s="4"/>
@@ -9866,7 +9742,6 @@
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
-      <c r="H399" s="4"/>
       <c r="I399" s="4"/>
       <c r="J399" s="4"/>
       <c r="K399" s="4"/>
@@ -9888,7 +9763,6 @@
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
-      <c r="H400" s="4"/>
       <c r="I400" s="4"/>
       <c r="J400" s="4"/>
       <c r="K400" s="4"/>
@@ -9910,7 +9784,6 @@
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
-      <c r="H401" s="4"/>
       <c r="I401" s="4"/>
       <c r="J401" s="4"/>
       <c r="K401" s="4"/>
@@ -9932,7 +9805,6 @@
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
-      <c r="H402" s="4"/>
       <c r="I402" s="4"/>
       <c r="J402" s="4"/>
       <c r="K402" s="4"/>
@@ -9954,7 +9826,6 @@
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
-      <c r="H403" s="4"/>
       <c r="I403" s="4"/>
       <c r="J403" s="4"/>
       <c r="K403" s="4"/>
@@ -9976,7 +9847,6 @@
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
-      <c r="H404" s="4"/>
       <c r="I404" s="4"/>
       <c r="J404" s="4"/>
       <c r="K404" s="4"/>
@@ -9998,7 +9868,6 @@
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
-      <c r="H405" s="4"/>
       <c r="I405" s="4"/>
       <c r="J405" s="4"/>
       <c r="K405" s="4"/>
@@ -10020,7 +9889,6 @@
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
-      <c r="H406" s="4"/>
       <c r="I406" s="4"/>
       <c r="J406" s="4"/>
       <c r="K406" s="4"/>
@@ -10042,7 +9910,6 @@
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
-      <c r="H407" s="4"/>
       <c r="I407" s="4"/>
       <c r="J407" s="4"/>
       <c r="K407" s="4"/>
@@ -10064,7 +9931,6 @@
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
-      <c r="H408" s="4"/>
       <c r="I408" s="4"/>
       <c r="J408" s="4"/>
       <c r="K408" s="4"/>
@@ -10086,7 +9952,6 @@
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
-      <c r="H409" s="4"/>
       <c r="I409" s="4"/>
       <c r="J409" s="4"/>
       <c r="K409" s="4"/>
@@ -10108,7 +9973,6 @@
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
-      <c r="H410" s="4"/>
       <c r="I410" s="4"/>
       <c r="J410" s="4"/>
       <c r="K410" s="4"/>
@@ -10130,7 +9994,6 @@
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
-      <c r="H411" s="4"/>
       <c r="I411" s="4"/>
       <c r="J411" s="4"/>
       <c r="K411" s="4"/>
@@ -10152,7 +10015,6 @@
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
-      <c r="H412" s="4"/>
       <c r="I412" s="4"/>
       <c r="J412" s="4"/>
       <c r="K412" s="4"/>
@@ -10174,7 +10036,6 @@
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
-      <c r="H413" s="4"/>
       <c r="I413" s="4"/>
       <c r="J413" s="4"/>
       <c r="K413" s="4"/>
@@ -10196,7 +10057,6 @@
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
-      <c r="H414" s="4"/>
       <c r="I414" s="4"/>
       <c r="J414" s="4"/>
       <c r="K414" s="4"/>
@@ -10218,7 +10078,6 @@
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
-      <c r="H415" s="4"/>
       <c r="I415" s="4"/>
       <c r="J415" s="4"/>
       <c r="K415" s="4"/>
@@ -10240,7 +10099,6 @@
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
-      <c r="H416" s="4"/>
       <c r="I416" s="4"/>
       <c r="J416" s="4"/>
       <c r="K416" s="4"/>
@@ -10262,7 +10120,6 @@
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
-      <c r="H417" s="4"/>
       <c r="I417" s="4"/>
       <c r="J417" s="4"/>
       <c r="K417" s="4"/>
@@ -10284,7 +10141,6 @@
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
-      <c r="H418" s="4"/>
       <c r="I418" s="4"/>
       <c r="J418" s="4"/>
       <c r="K418" s="4"/>
@@ -10306,7 +10162,6 @@
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
-      <c r="H419" s="4"/>
       <c r="I419" s="4"/>
       <c r="J419" s="4"/>
       <c r="K419" s="4"/>
@@ -10328,7 +10183,6 @@
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
-      <c r="H420" s="4"/>
       <c r="I420" s="4"/>
       <c r="J420" s="4"/>
       <c r="K420" s="4"/>
@@ -10350,7 +10204,6 @@
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
-      <c r="H421" s="4"/>
       <c r="I421" s="4"/>
       <c r="J421" s="4"/>
       <c r="K421" s="4"/>
@@ -10372,7 +10225,6 @@
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
-      <c r="H422" s="4"/>
       <c r="I422" s="4"/>
       <c r="J422" s="4"/>
       <c r="K422" s="4"/>
@@ -10394,7 +10246,6 @@
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
-      <c r="H423" s="4"/>
       <c r="I423" s="4"/>
       <c r="J423" s="4"/>
       <c r="K423" s="4"/>
@@ -10416,7 +10267,6 @@
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
-      <c r="H424" s="4"/>
       <c r="I424" s="4"/>
       <c r="J424" s="4"/>
       <c r="K424" s="4"/>
@@ -10438,7 +10288,6 @@
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
-      <c r="H425" s="4"/>
       <c r="I425" s="4"/>
       <c r="J425" s="4"/>
       <c r="K425" s="4"/>
@@ -10460,7 +10309,6 @@
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
-      <c r="H426" s="4"/>
       <c r="I426" s="4"/>
       <c r="J426" s="4"/>
       <c r="K426" s="4"/>
@@ -10482,7 +10330,6 @@
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
-      <c r="H427" s="4"/>
       <c r="I427" s="4"/>
       <c r="J427" s="4"/>
       <c r="K427" s="4"/>
@@ -10504,7 +10351,6 @@
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
-      <c r="H428" s="4"/>
       <c r="I428" s="4"/>
       <c r="J428" s="4"/>
       <c r="K428" s="4"/>
@@ -10526,7 +10372,6 @@
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
-      <c r="H429" s="4"/>
       <c r="I429" s="4"/>
       <c r="J429" s="4"/>
       <c r="K429" s="4"/>
@@ -10548,7 +10393,6 @@
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
-      <c r="H430" s="4"/>
       <c r="I430" s="4"/>
       <c r="J430" s="4"/>
       <c r="K430" s="4"/>
@@ -10570,7 +10414,6 @@
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
-      <c r="H431" s="4"/>
       <c r="I431" s="4"/>
       <c r="J431" s="4"/>
       <c r="K431" s="4"/>
@@ -10592,7 +10435,6 @@
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
-      <c r="H432" s="4"/>
       <c r="I432" s="4"/>
       <c r="J432" s="4"/>
       <c r="K432" s="4"/>
@@ -10614,7 +10456,6 @@
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
-      <c r="H433" s="4"/>
       <c r="I433" s="4"/>
       <c r="J433" s="4"/>
       <c r="K433" s="4"/>
@@ -10636,7 +10477,6 @@
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
-      <c r="H434" s="4"/>
       <c r="I434" s="4"/>
       <c r="J434" s="4"/>
       <c r="K434" s="4"/>
@@ -10658,7 +10498,6 @@
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
       <c r="G435" s="4"/>
-      <c r="H435" s="4"/>
       <c r="I435" s="4"/>
       <c r="J435" s="4"/>
       <c r="K435" s="4"/>
@@ -10680,7 +10519,6 @@
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
-      <c r="H436" s="4"/>
       <c r="I436" s="4"/>
       <c r="J436" s="4"/>
       <c r="K436" s="4"/>
@@ -10702,7 +10540,6 @@
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
       <c r="G437" s="4"/>
-      <c r="H437" s="4"/>
       <c r="I437" s="4"/>
       <c r="J437" s="4"/>
       <c r="K437" s="4"/>
@@ -10724,7 +10561,6 @@
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
-      <c r="H438" s="4"/>
       <c r="I438" s="4"/>
       <c r="J438" s="4"/>
       <c r="K438" s="4"/>
@@ -10746,7 +10582,6 @@
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
-      <c r="H439" s="4"/>
       <c r="I439" s="4"/>
       <c r="J439" s="4"/>
       <c r="K439" s="4"/>
@@ -10768,7 +10603,6 @@
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
       <c r="G440" s="4"/>
-      <c r="H440" s="4"/>
       <c r="I440" s="4"/>
       <c r="J440" s="4"/>
       <c r="K440" s="4"/>
@@ -10790,7 +10624,6 @@
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
       <c r="G441" s="4"/>
-      <c r="H441" s="4"/>
       <c r="I441" s="4"/>
       <c r="J441" s="4"/>
       <c r="K441" s="4"/>
@@ -10812,7 +10645,6 @@
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
       <c r="G442" s="4"/>
-      <c r="H442" s="4"/>
       <c r="I442" s="4"/>
       <c r="J442" s="4"/>
       <c r="K442" s="4"/>
@@ -10834,7 +10666,6 @@
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
       <c r="G443" s="4"/>
-      <c r="H443" s="4"/>
       <c r="I443" s="4"/>
       <c r="J443" s="4"/>
       <c r="K443" s="4"/>
@@ -10856,7 +10687,6 @@
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
       <c r="G444" s="4"/>
-      <c r="H444" s="4"/>
       <c r="I444" s="4"/>
       <c r="J444" s="4"/>
       <c r="K444" s="4"/>
@@ -10878,7 +10708,6 @@
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
       <c r="G445" s="4"/>
-      <c r="H445" s="4"/>
       <c r="I445" s="4"/>
       <c r="J445" s="4"/>
       <c r="K445" s="4"/>
@@ -10900,7 +10729,6 @@
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
       <c r="G446" s="4"/>
-      <c r="H446" s="4"/>
       <c r="I446" s="4"/>
       <c r="J446" s="4"/>
       <c r="K446" s="4"/>
@@ -10922,7 +10750,6 @@
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
       <c r="G447" s="4"/>
-      <c r="H447" s="4"/>
       <c r="I447" s="4"/>
       <c r="J447" s="4"/>
       <c r="K447" s="4"/>
@@ -10944,7 +10771,6 @@
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
       <c r="G448" s="4"/>
-      <c r="H448" s="4"/>
       <c r="I448" s="4"/>
       <c r="J448" s="4"/>
       <c r="K448" s="4"/>
@@ -10966,7 +10792,6 @@
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
       <c r="G449" s="4"/>
-      <c r="H449" s="4"/>
       <c r="I449" s="4"/>
       <c r="J449" s="4"/>
       <c r="K449" s="4"/>
@@ -10988,7 +10813,6 @@
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
       <c r="G450" s="4"/>
-      <c r="H450" s="4"/>
       <c r="I450" s="4"/>
       <c r="J450" s="4"/>
       <c r="K450" s="4"/>
@@ -11010,7 +10834,6 @@
       <c r="E451" s="4"/>
       <c r="F451" s="4"/>
       <c r="G451" s="4"/>
-      <c r="H451" s="4"/>
       <c r="I451" s="4"/>
       <c r="J451" s="4"/>
       <c r="K451" s="4"/>
@@ -11032,7 +10855,6 @@
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
       <c r="G452" s="4"/>
-      <c r="H452" s="4"/>
       <c r="I452" s="4"/>
       <c r="J452" s="4"/>
       <c r="K452" s="4"/>
@@ -11054,7 +10876,6 @@
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
       <c r="G453" s="4"/>
-      <c r="H453" s="4"/>
       <c r="I453" s="4"/>
       <c r="J453" s="4"/>
       <c r="K453" s="4"/>
@@ -11076,7 +10897,6 @@
       <c r="E454" s="4"/>
       <c r="F454" s="4"/>
       <c r="G454" s="4"/>
-      <c r="H454" s="4"/>
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
       <c r="K454" s="4"/>
@@ -11098,7 +10918,6 @@
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
       <c r="G455" s="4"/>
-      <c r="H455" s="4"/>
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
       <c r="K455" s="4"/>
@@ -11120,7 +10939,6 @@
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
       <c r="G456" s="4"/>
-      <c r="H456" s="4"/>
       <c r="I456" s="4"/>
       <c r="J456" s="4"/>
       <c r="K456" s="4"/>
@@ -11142,7 +10960,6 @@
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
       <c r="G457" s="4"/>
-      <c r="H457" s="4"/>
       <c r="I457" s="4"/>
       <c r="J457" s="4"/>
       <c r="K457" s="4"/>
@@ -11164,7 +10981,6 @@
       <c r="E458" s="4"/>
       <c r="F458" s="4"/>
       <c r="G458" s="4"/>
-      <c r="H458" s="4"/>
       <c r="I458" s="4"/>
       <c r="J458" s="4"/>
       <c r="K458" s="4"/>
@@ -11186,7 +11002,6 @@
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
       <c r="G459" s="4"/>
-      <c r="H459" s="4"/>
       <c r="I459" s="4"/>
       <c r="J459" s="4"/>
       <c r="K459" s="4"/>
@@ -11208,7 +11023,6 @@
       <c r="E460" s="4"/>
       <c r="F460" s="4"/>
       <c r="G460" s="4"/>
-      <c r="H460" s="4"/>
       <c r="I460" s="4"/>
       <c r="J460" s="4"/>
       <c r="K460" s="4"/>
@@ -11230,7 +11044,6 @@
       <c r="E461" s="4"/>
       <c r="F461" s="4"/>
       <c r="G461" s="4"/>
-      <c r="H461" s="4"/>
       <c r="I461" s="4"/>
       <c r="J461" s="4"/>
       <c r="K461" s="4"/>
@@ -11252,7 +11065,6 @@
       <c r="E462" s="4"/>
       <c r="F462" s="4"/>
       <c r="G462" s="4"/>
-      <c r="H462" s="4"/>
       <c r="I462" s="4"/>
       <c r="J462" s="4"/>
       <c r="K462" s="4"/>
@@ -11274,7 +11086,6 @@
       <c r="E463" s="4"/>
       <c r="F463" s="4"/>
       <c r="G463" s="4"/>
-      <c r="H463" s="4"/>
       <c r="I463" s="4"/>
       <c r="J463" s="4"/>
       <c r="K463" s="4"/>
@@ -11296,7 +11107,6 @@
       <c r="E464" s="4"/>
       <c r="F464" s="4"/>
       <c r="G464" s="4"/>
-      <c r="H464" s="4"/>
       <c r="I464" s="4"/>
       <c r="J464" s="4"/>
       <c r="K464" s="4"/>
@@ -11318,7 +11128,6 @@
       <c r="E465" s="4"/>
       <c r="F465" s="4"/>
       <c r="G465" s="4"/>
-      <c r="H465" s="4"/>
       <c r="I465" s="4"/>
       <c r="J465" s="4"/>
       <c r="K465" s="4"/>
@@ -11340,7 +11149,6 @@
       <c r="E466" s="4"/>
       <c r="F466" s="4"/>
       <c r="G466" s="4"/>
-      <c r="H466" s="4"/>
       <c r="I466" s="4"/>
       <c r="J466" s="4"/>
       <c r="K466" s="4"/>
@@ -11362,7 +11170,6 @@
       <c r="E467" s="4"/>
       <c r="F467" s="4"/>
       <c r="G467" s="4"/>
-      <c r="H467" s="4"/>
       <c r="I467" s="4"/>
       <c r="J467" s="4"/>
       <c r="K467" s="4"/>
@@ -11384,7 +11191,6 @@
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
       <c r="G468" s="4"/>
-      <c r="H468" s="4"/>
       <c r="I468" s="4"/>
       <c r="J468" s="4"/>
       <c r="K468" s="4"/>
@@ -11406,7 +11212,6 @@
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
       <c r="G469" s="4"/>
-      <c r="H469" s="4"/>
       <c r="I469" s="4"/>
       <c r="J469" s="4"/>
       <c r="K469" s="4"/>
@@ -11428,7 +11233,6 @@
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
       <c r="G470" s="4"/>
-      <c r="H470" s="4"/>
       <c r="I470" s="4"/>
       <c r="J470" s="4"/>
       <c r="K470" s="4"/>
@@ -11450,7 +11254,6 @@
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
       <c r="G471" s="4"/>
-      <c r="H471" s="4"/>
       <c r="I471" s="4"/>
       <c r="J471" s="4"/>
       <c r="K471" s="4"/>
@@ -11472,7 +11275,6 @@
       <c r="E472" s="4"/>
       <c r="F472" s="4"/>
       <c r="G472" s="4"/>
-      <c r="H472" s="4"/>
       <c r="I472" s="4"/>
       <c r="J472" s="4"/>
       <c r="K472" s="4"/>
@@ -11494,7 +11296,6 @@
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
       <c r="G473" s="4"/>
-      <c r="H473" s="4"/>
       <c r="I473" s="4"/>
       <c r="J473" s="4"/>
       <c r="K473" s="4"/>
@@ -11516,7 +11317,6 @@
       <c r="E474" s="4"/>
       <c r="F474" s="4"/>
       <c r="G474" s="4"/>
-      <c r="H474" s="4"/>
       <c r="I474" s="4"/>
       <c r="J474" s="4"/>
       <c r="K474" s="4"/>
@@ -11538,7 +11338,6 @@
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
       <c r="G475" s="4"/>
-      <c r="H475" s="4"/>
       <c r="I475" s="4"/>
       <c r="J475" s="4"/>
       <c r="K475" s="4"/>
@@ -11560,7 +11359,6 @@
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
       <c r="G476" s="4"/>
-      <c r="H476" s="4"/>
       <c r="I476" s="4"/>
       <c r="J476" s="4"/>
       <c r="K476" s="4"/>
@@ -11582,7 +11380,6 @@
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
-      <c r="H477" s="4"/>
       <c r="I477" s="4"/>
       <c r="J477" s="4"/>
       <c r="K477" s="4"/>
@@ -11604,7 +11401,6 @@
       <c r="E478" s="4"/>
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
-      <c r="H478" s="4"/>
       <c r="I478" s="4"/>
       <c r="J478" s="4"/>
       <c r="K478" s="4"/>
@@ -11626,7 +11422,6 @@
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
       <c r="G479" s="4"/>
-      <c r="H479" s="4"/>
       <c r="I479" s="4"/>
       <c r="J479" s="4"/>
       <c r="K479" s="4"/>
@@ -11648,7 +11443,6 @@
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
       <c r="G480" s="4"/>
-      <c r="H480" s="4"/>
       <c r="I480" s="4"/>
       <c r="J480" s="4"/>
       <c r="K480" s="4"/>
@@ -11670,7 +11464,6 @@
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
       <c r="G481" s="4"/>
-      <c r="H481" s="4"/>
       <c r="I481" s="4"/>
       <c r="J481" s="4"/>
       <c r="K481" s="4"/>
@@ -11692,7 +11485,6 @@
       <c r="E482" s="4"/>
       <c r="F482" s="4"/>
       <c r="G482" s="4"/>
-      <c r="H482" s="4"/>
       <c r="I482" s="4"/>
       <c r="J482" s="4"/>
       <c r="K482" s="4"/>
@@ -11714,7 +11506,6 @@
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
       <c r="G483" s="4"/>
-      <c r="H483" s="4"/>
       <c r="I483" s="4"/>
       <c r="J483" s="4"/>
       <c r="K483" s="4"/>
@@ -11736,7 +11527,6 @@
       <c r="E484" s="4"/>
       <c r="F484" s="4"/>
       <c r="G484" s="4"/>
-      <c r="H484" s="4"/>
       <c r="I484" s="4"/>
       <c r="J484" s="4"/>
       <c r="K484" s="4"/>
@@ -11758,7 +11548,6 @@
       <c r="E485" s="4"/>
       <c r="F485" s="4"/>
       <c r="G485" s="4"/>
-      <c r="H485" s="4"/>
       <c r="I485" s="4"/>
       <c r="J485" s="4"/>
       <c r="K485" s="4"/>
@@ -11780,7 +11569,6 @@
       <c r="E486" s="4"/>
       <c r="F486" s="4"/>
       <c r="G486" s="4"/>
-      <c r="H486" s="4"/>
       <c r="I486" s="4"/>
       <c r="J486" s="4"/>
       <c r="K486" s="4"/>
@@ -11802,7 +11590,6 @@
       <c r="E487" s="4"/>
       <c r="F487" s="4"/>
       <c r="G487" s="4"/>
-      <c r="H487" s="4"/>
       <c r="I487" s="4"/>
       <c r="J487" s="4"/>
       <c r="K487" s="4"/>
@@ -11824,7 +11611,6 @@
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
       <c r="G488" s="4"/>
-      <c r="H488" s="4"/>
       <c r="I488" s="4"/>
       <c r="J488" s="4"/>
       <c r="K488" s="4"/>
@@ -11846,7 +11632,6 @@
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
       <c r="G489" s="4"/>
-      <c r="H489" s="4"/>
       <c r="I489" s="4"/>
       <c r="J489" s="4"/>
       <c r="K489" s="4"/>
@@ -11868,7 +11653,6 @@
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
       <c r="G490" s="4"/>
-      <c r="H490" s="4"/>
       <c r="I490" s="4"/>
       <c r="J490" s="4"/>
       <c r="K490" s="4"/>
@@ -11890,7 +11674,6 @@
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
       <c r="G491" s="4"/>
-      <c r="H491" s="4"/>
       <c r="I491" s="4"/>
       <c r="J491" s="4"/>
       <c r="K491" s="4"/>
@@ -11912,7 +11695,6 @@
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
       <c r="G492" s="4"/>
-      <c r="H492" s="4"/>
       <c r="I492" s="4"/>
       <c r="J492" s="4"/>
       <c r="K492" s="4"/>
@@ -11934,7 +11716,6 @@
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
       <c r="G493" s="4"/>
-      <c r="H493" s="4"/>
       <c r="I493" s="4"/>
       <c r="J493" s="4"/>
       <c r="K493" s="4"/>
@@ -11956,7 +11737,6 @@
       <c r="E494" s="4"/>
       <c r="F494" s="4"/>
       <c r="G494" s="4"/>
-      <c r="H494" s="4"/>
       <c r="I494" s="4"/>
       <c r="J494" s="4"/>
       <c r="K494" s="4"/>
@@ -11978,7 +11758,6 @@
       <c r="E495" s="4"/>
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
-      <c r="H495" s="4"/>
       <c r="I495" s="4"/>
       <c r="J495" s="4"/>
       <c r="K495" s="4"/>
@@ -12000,7 +11779,6 @@
       <c r="E496" s="4"/>
       <c r="F496" s="4"/>
       <c r="G496" s="4"/>
-      <c r="H496" s="4"/>
       <c r="I496" s="4"/>
       <c r="J496" s="4"/>
       <c r="K496" s="4"/>
@@ -12022,7 +11800,6 @@
       <c r="E497" s="4"/>
       <c r="F497" s="4"/>
       <c r="G497" s="4"/>
-      <c r="H497" s="4"/>
       <c r="I497" s="4"/>
       <c r="J497" s="4"/>
       <c r="K497" s="4"/>
@@ -12044,7 +11821,6 @@
       <c r="E498" s="4"/>
       <c r="F498" s="4"/>
       <c r="G498" s="4"/>
-      <c r="H498" s="4"/>
       <c r="I498" s="4"/>
       <c r="J498" s="4"/>
       <c r="K498" s="4"/>
@@ -12066,7 +11842,6 @@
       <c r="E499" s="4"/>
       <c r="F499" s="4"/>
       <c r="G499" s="4"/>
-      <c r="H499" s="4"/>
       <c r="I499" s="4"/>
       <c r="J499" s="4"/>
       <c r="K499" s="4"/>
@@ -12088,7 +11863,6 @@
       <c r="E500" s="4"/>
       <c r="F500" s="4"/>
       <c r="G500" s="4"/>
-      <c r="H500" s="4"/>
       <c r="I500" s="4"/>
       <c r="J500" s="4"/>
       <c r="K500" s="4"/>
@@ -12110,7 +11884,6 @@
       <c r="E501" s="4"/>
       <c r="F501" s="4"/>
       <c r="G501" s="4"/>
-      <c r="H501" s="4"/>
       <c r="I501" s="4"/>
       <c r="J501" s="4"/>
       <c r="K501" s="4"/>
@@ -12132,7 +11905,6 @@
       <c r="E502" s="4"/>
       <c r="F502" s="4"/>
       <c r="G502" s="4"/>
-      <c r="H502" s="4"/>
       <c r="I502" s="4"/>
       <c r="J502" s="4"/>
       <c r="K502" s="4"/>
@@ -12154,7 +11926,6 @@
       <c r="E503" s="4"/>
       <c r="F503" s="4"/>
       <c r="G503" s="4"/>
-      <c r="H503" s="4"/>
       <c r="I503" s="4"/>
       <c r="J503" s="4"/>
       <c r="K503" s="4"/>
@@ -12176,7 +11947,6 @@
       <c r="E504" s="4"/>
       <c r="F504" s="4"/>
       <c r="G504" s="4"/>
-      <c r="H504" s="4"/>
       <c r="I504" s="4"/>
       <c r="J504" s="4"/>
       <c r="K504" s="4"/>
@@ -12198,7 +11968,6 @@
       <c r="E505" s="4"/>
       <c r="F505" s="4"/>
       <c r="G505" s="4"/>
-      <c r="H505" s="4"/>
       <c r="I505" s="4"/>
       <c r="J505" s="4"/>
       <c r="K505" s="4"/>
@@ -12220,7 +11989,6 @@
       <c r="E506" s="4"/>
       <c r="F506" s="4"/>
       <c r="G506" s="4"/>
-      <c r="H506" s="4"/>
       <c r="I506" s="4"/>
       <c r="J506" s="4"/>
       <c r="K506" s="4"/>
@@ -12242,7 +12010,6 @@
       <c r="E507" s="4"/>
       <c r="F507" s="4"/>
       <c r="G507" s="4"/>
-      <c r="H507" s="4"/>
       <c r="I507" s="4"/>
       <c r="J507" s="4"/>
       <c r="K507" s="4"/>
@@ -12264,7 +12031,6 @@
       <c r="E508" s="4"/>
       <c r="F508" s="4"/>
       <c r="G508" s="4"/>
-      <c r="H508" s="4"/>
       <c r="I508" s="4"/>
       <c r="J508" s="4"/>
       <c r="K508" s="4"/>
@@ -12286,7 +12052,6 @@
       <c r="E509" s="4"/>
       <c r="F509" s="4"/>
       <c r="G509" s="4"/>
-      <c r="H509" s="4"/>
       <c r="I509" s="4"/>
       <c r="J509" s="4"/>
       <c r="K509" s="4"/>
@@ -12308,7 +12073,6 @@
       <c r="E510" s="4"/>
       <c r="F510" s="4"/>
       <c r="G510" s="4"/>
-      <c r="H510" s="4"/>
       <c r="I510" s="4"/>
       <c r="J510" s="4"/>
       <c r="K510" s="4"/>
@@ -12330,7 +12094,6 @@
       <c r="E511" s="4"/>
       <c r="F511" s="4"/>
       <c r="G511" s="4"/>
-      <c r="H511" s="4"/>
       <c r="I511" s="4"/>
       <c r="J511" s="4"/>
       <c r="K511" s="4"/>
@@ -12352,7 +12115,6 @@
       <c r="E512" s="4"/>
       <c r="F512" s="4"/>
       <c r="G512" s="4"/>
-      <c r="H512" s="4"/>
       <c r="I512" s="4"/>
       <c r="J512" s="4"/>
       <c r="K512" s="4"/>
@@ -12374,7 +12136,6 @@
       <c r="E513" s="4"/>
       <c r="F513" s="4"/>
       <c r="G513" s="4"/>
-      <c r="H513" s="4"/>
       <c r="I513" s="4"/>
       <c r="J513" s="4"/>
       <c r="K513" s="4"/>
@@ -12396,7 +12157,6 @@
       <c r="E514" s="4"/>
       <c r="F514" s="4"/>
       <c r="G514" s="4"/>
-      <c r="H514" s="4"/>
       <c r="I514" s="4"/>
       <c r="J514" s="4"/>
       <c r="K514" s="4"/>
@@ -12418,7 +12178,6 @@
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
       <c r="G515" s="4"/>
-      <c r="H515" s="4"/>
       <c r="I515" s="4"/>
       <c r="J515" s="4"/>
       <c r="K515" s="4"/>
@@ -12440,7 +12199,6 @@
       <c r="E516" s="4"/>
       <c r="F516" s="4"/>
       <c r="G516" s="4"/>
-      <c r="H516" s="4"/>
       <c r="I516" s="4"/>
       <c r="J516" s="4"/>
       <c r="K516" s="4"/>
@@ -12462,7 +12220,6 @@
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
       <c r="G517" s="4"/>
-      <c r="H517" s="4"/>
       <c r="I517" s="4"/>
       <c r="J517" s="4"/>
       <c r="K517" s="4"/>
@@ -12484,7 +12241,6 @@
       <c r="E518" s="4"/>
       <c r="F518" s="4"/>
       <c r="G518" s="4"/>
-      <c r="H518" s="4"/>
       <c r="I518" s="4"/>
       <c r="J518" s="4"/>
       <c r="K518" s="4"/>
@@ -12506,7 +12262,6 @@
       <c r="E519" s="4"/>
       <c r="F519" s="4"/>
       <c r="G519" s="4"/>
-      <c r="H519" s="4"/>
       <c r="I519" s="4"/>
       <c r="J519" s="4"/>
       <c r="K519" s="4"/>
@@ -12528,7 +12283,6 @@
       <c r="E520" s="4"/>
       <c r="F520" s="4"/>
       <c r="G520" s="4"/>
-      <c r="H520" s="4"/>
       <c r="I520" s="4"/>
       <c r="J520" s="4"/>
       <c r="K520" s="4"/>
@@ -12550,7 +12304,6 @@
       <c r="E521" s="4"/>
       <c r="F521" s="4"/>
       <c r="G521" s="4"/>
-      <c r="H521" s="4"/>
       <c r="I521" s="4"/>
       <c r="J521" s="4"/>
       <c r="K521" s="4"/>
@@ -12572,7 +12325,6 @@
       <c r="E522" s="4"/>
       <c r="F522" s="4"/>
       <c r="G522" s="4"/>
-      <c r="H522" s="4"/>
       <c r="I522" s="4"/>
       <c r="J522" s="4"/>
       <c r="K522" s="4"/>
@@ -12594,7 +12346,6 @@
       <c r="E523" s="4"/>
       <c r="F523" s="4"/>
       <c r="G523" s="4"/>
-      <c r="H523" s="4"/>
       <c r="I523" s="4"/>
       <c r="J523" s="4"/>
       <c r="K523" s="4"/>
@@ -12616,7 +12367,6 @@
       <c r="E524" s="4"/>
       <c r="F524" s="4"/>
       <c r="G524" s="4"/>
-      <c r="H524" s="4"/>
       <c r="I524" s="4"/>
       <c r="J524" s="4"/>
       <c r="K524" s="4"/>
@@ -12638,7 +12388,6 @@
       <c r="E525" s="4"/>
       <c r="F525" s="4"/>
       <c r="G525" s="4"/>
-      <c r="H525" s="4"/>
       <c r="I525" s="4"/>
       <c r="J525" s="4"/>
       <c r="K525" s="4"/>
@@ -12660,7 +12409,6 @@
       <c r="E526" s="4"/>
       <c r="F526" s="4"/>
       <c r="G526" s="4"/>
-      <c r="H526" s="4"/>
       <c r="I526" s="4"/>
       <c r="J526" s="4"/>
       <c r="K526" s="4"/>
@@ -12682,7 +12430,6 @@
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
       <c r="G527" s="4"/>
-      <c r="H527" s="4"/>
       <c r="I527" s="4"/>
       <c r="J527" s="4"/>
       <c r="K527" s="4"/>
@@ -12704,7 +12451,6 @@
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
       <c r="G528" s="4"/>
-      <c r="H528" s="4"/>
       <c r="I528" s="4"/>
       <c r="J528" s="4"/>
       <c r="K528" s="4"/>
@@ -12726,7 +12472,6 @@
       <c r="E529" s="4"/>
       <c r="F529" s="4"/>
       <c r="G529" s="4"/>
-      <c r="H529" s="4"/>
       <c r="I529" s="4"/>
       <c r="J529" s="4"/>
       <c r="K529" s="4"/>
@@ -12748,7 +12493,6 @@
       <c r="E530" s="4"/>
       <c r="F530" s="4"/>
       <c r="G530" s="4"/>
-      <c r="H530" s="4"/>
       <c r="I530" s="4"/>
       <c r="J530" s="4"/>
       <c r="K530" s="4"/>
@@ -12770,7 +12514,6 @@
       <c r="E531" s="4"/>
       <c r="F531" s="4"/>
       <c r="G531" s="4"/>
-      <c r="H531" s="4"/>
       <c r="I531" s="4"/>
       <c r="J531" s="4"/>
       <c r="K531" s="4"/>
@@ -12792,7 +12535,6 @@
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
       <c r="G532" s="4"/>
-      <c r="H532" s="4"/>
       <c r="I532" s="4"/>
       <c r="J532" s="4"/>
       <c r="K532" s="4"/>
@@ -12814,7 +12556,6 @@
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
       <c r="G533" s="4"/>
-      <c r="H533" s="4"/>
       <c r="I533" s="4"/>
       <c r="J533" s="4"/>
       <c r="K533" s="4"/>
@@ -12836,7 +12577,6 @@
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
       <c r="G534" s="4"/>
-      <c r="H534" s="4"/>
       <c r="I534" s="4"/>
       <c r="J534" s="4"/>
       <c r="K534" s="4"/>
@@ -12858,7 +12598,6 @@
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
       <c r="G535" s="4"/>
-      <c r="H535" s="4"/>
       <c r="I535" s="4"/>
       <c r="J535" s="4"/>
       <c r="K535" s="4"/>
@@ -12880,7 +12619,6 @@
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
       <c r="G536" s="4"/>
-      <c r="H536" s="4"/>
       <c r="I536" s="4"/>
       <c r="J536" s="4"/>
       <c r="K536" s="4"/>
@@ -12902,7 +12640,6 @@
       <c r="E537" s="4"/>
       <c r="F537" s="4"/>
       <c r="G537" s="4"/>
-      <c r="H537" s="4"/>
       <c r="I537" s="4"/>
       <c r="J537" s="4"/>
       <c r="K537" s="4"/>
@@ -12924,7 +12661,6 @@
       <c r="E538" s="4"/>
       <c r="F538" s="4"/>
       <c r="G538" s="4"/>
-      <c r="H538" s="4"/>
       <c r="I538" s="4"/>
       <c r="J538" s="4"/>
       <c r="K538" s="4"/>
@@ -12946,7 +12682,6 @@
       <c r="E539" s="4"/>
       <c r="F539" s="4"/>
       <c r="G539" s="4"/>
-      <c r="H539" s="4"/>
       <c r="I539" s="4"/>
       <c r="J539" s="4"/>
       <c r="K539" s="4"/>
@@ -12968,7 +12703,6 @@
       <c r="E540" s="4"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
-      <c r="H540" s="4"/>
       <c r="I540" s="4"/>
       <c r="J540" s="4"/>
       <c r="K540" s="4"/>
@@ -12990,7 +12724,6 @@
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
       <c r="G541" s="4"/>
-      <c r="H541" s="4"/>
       <c r="I541" s="4"/>
       <c r="J541" s="4"/>
       <c r="K541" s="4"/>
@@ -13012,7 +12745,6 @@
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
       <c r="G542" s="4"/>
-      <c r="H542" s="4"/>
       <c r="I542" s="4"/>
       <c r="J542" s="4"/>
       <c r="K542" s="4"/>
@@ -13034,7 +12766,6 @@
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
       <c r="G543" s="4"/>
-      <c r="H543" s="4"/>
       <c r="I543" s="4"/>
       <c r="J543" s="4"/>
       <c r="K543" s="4"/>
@@ -13056,7 +12787,6 @@
       <c r="E544" s="4"/>
       <c r="F544" s="4"/>
       <c r="G544" s="4"/>
-      <c r="H544" s="4"/>
       <c r="I544" s="4"/>
       <c r="J544" s="4"/>
       <c r="K544" s="4"/>
@@ -13078,7 +12808,6 @@
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
       <c r="G545" s="4"/>
-      <c r="H545" s="4"/>
       <c r="I545" s="4"/>
       <c r="J545" s="4"/>
       <c r="K545" s="4"/>
@@ -13100,7 +12829,6 @@
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
       <c r="G546" s="4"/>
-      <c r="H546" s="4"/>
       <c r="I546" s="4"/>
       <c r="J546" s="4"/>
       <c r="K546" s="4"/>
@@ -13122,7 +12850,6 @@
       <c r="E547" s="4"/>
       <c r="F547" s="4"/>
       <c r="G547" s="4"/>
-      <c r="H547" s="4"/>
       <c r="I547" s="4"/>
       <c r="J547" s="4"/>
       <c r="K547" s="4"/>
@@ -13144,7 +12871,6 @@
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
       <c r="G548" s="4"/>
-      <c r="H548" s="4"/>
       <c r="I548" s="4"/>
       <c r="J548" s="4"/>
       <c r="K548" s="4"/>
@@ -13166,7 +12892,6 @@
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
       <c r="G549" s="4"/>
-      <c r="H549" s="4"/>
       <c r="I549" s="4"/>
       <c r="J549" s="4"/>
       <c r="K549" s="4"/>
@@ -13188,7 +12913,6 @@
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
       <c r="G550" s="4"/>
-      <c r="H550" s="4"/>
       <c r="I550" s="4"/>
       <c r="J550" s="4"/>
       <c r="K550" s="4"/>
@@ -13210,7 +12934,6 @@
       <c r="E551" s="4"/>
       <c r="F551" s="4"/>
       <c r="G551" s="4"/>
-      <c r="H551" s="4"/>
       <c r="I551" s="4"/>
       <c r="J551" s="4"/>
       <c r="K551" s="4"/>
@@ -13232,7 +12955,6 @@
       <c r="E552" s="4"/>
       <c r="F552" s="4"/>
       <c r="G552" s="4"/>
-      <c r="H552" s="4"/>
       <c r="I552" s="4"/>
       <c r="J552" s="4"/>
       <c r="K552" s="4"/>
@@ -13254,7 +12976,6 @@
       <c r="E553" s="4"/>
       <c r="F553" s="4"/>
       <c r="G553" s="4"/>
-      <c r="H553" s="4"/>
       <c r="I553" s="4"/>
       <c r="J553" s="4"/>
       <c r="K553" s="4"/>
@@ -13276,7 +12997,6 @@
       <c r="E554" s="4"/>
       <c r="F554" s="4"/>
       <c r="G554" s="4"/>
-      <c r="H554" s="4"/>
       <c r="I554" s="4"/>
       <c r="J554" s="4"/>
       <c r="K554" s="4"/>
@@ -13298,7 +13018,6 @@
       <c r="E555" s="4"/>
       <c r="F555" s="4"/>
       <c r="G555" s="4"/>
-      <c r="H555" s="4"/>
       <c r="I555" s="4"/>
       <c r="J555" s="4"/>
       <c r="K555" s="4"/>
@@ -13320,7 +13039,6 @@
       <c r="E556" s="4"/>
       <c r="F556" s="4"/>
       <c r="G556" s="4"/>
-      <c r="H556" s="4"/>
       <c r="I556" s="4"/>
       <c r="J556" s="4"/>
       <c r="K556" s="4"/>
@@ -13342,7 +13060,6 @@
       <c r="E557" s="4"/>
       <c r="F557" s="4"/>
       <c r="G557" s="4"/>
-      <c r="H557" s="4"/>
       <c r="I557" s="4"/>
       <c r="J557" s="4"/>
       <c r="K557" s="4"/>
@@ -13364,7 +13081,6 @@
       <c r="E558" s="4"/>
       <c r="F558" s="4"/>
       <c r="G558" s="4"/>
-      <c r="H558" s="4"/>
       <c r="I558" s="4"/>
       <c r="J558" s="4"/>
       <c r="K558" s="4"/>
@@ -13386,7 +13102,6 @@
       <c r="E559" s="4"/>
       <c r="F559" s="4"/>
       <c r="G559" s="4"/>
-      <c r="H559" s="4"/>
       <c r="I559" s="4"/>
       <c r="J559" s="4"/>
       <c r="K559" s="4"/>
@@ -13408,7 +13123,6 @@
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
       <c r="G560" s="4"/>
-      <c r="H560" s="4"/>
       <c r="I560" s="4"/>
       <c r="J560" s="4"/>
       <c r="K560" s="4"/>
@@ -13430,7 +13144,6 @@
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
       <c r="G561" s="4"/>
-      <c r="H561" s="4"/>
       <c r="I561" s="4"/>
       <c r="J561" s="4"/>
       <c r="K561" s="4"/>
@@ -13452,7 +13165,6 @@
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
       <c r="G562" s="4"/>
-      <c r="H562" s="4"/>
       <c r="I562" s="4"/>
       <c r="J562" s="4"/>
       <c r="K562" s="4"/>
@@ -13474,7 +13186,6 @@
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
       <c r="G563" s="4"/>
-      <c r="H563" s="4"/>
       <c r="I563" s="4"/>
       <c r="J563" s="4"/>
       <c r="K563" s="4"/>
@@ -13496,7 +13207,6 @@
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
       <c r="G564" s="4"/>
-      <c r="H564" s="4"/>
       <c r="I564" s="4"/>
       <c r="J564" s="4"/>
       <c r="K564" s="4"/>
@@ -13518,7 +13228,6 @@
       <c r="E565" s="4"/>
       <c r="F565" s="4"/>
       <c r="G565" s="4"/>
-      <c r="H565" s="4"/>
       <c r="I565" s="4"/>
       <c r="J565" s="4"/>
       <c r="K565" s="4"/>
@@ -13540,7 +13249,6 @@
       <c r="E566" s="4"/>
       <c r="F566" s="4"/>
       <c r="G566" s="4"/>
-      <c r="H566" s="4"/>
       <c r="I566" s="4"/>
       <c r="J566" s="4"/>
       <c r="K566" s="4"/>
@@ -13562,7 +13270,6 @@
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
       <c r="G567" s="4"/>
-      <c r="H567" s="4"/>
       <c r="I567" s="4"/>
       <c r="J567" s="4"/>
       <c r="K567" s="4"/>
@@ -13584,7 +13291,6 @@
       <c r="E568" s="4"/>
       <c r="F568" s="4"/>
       <c r="G568" s="4"/>
-      <c r="H568" s="4"/>
       <c r="I568" s="4"/>
       <c r="J568" s="4"/>
       <c r="K568" s="4"/>
@@ -13606,7 +13312,6 @@
       <c r="E569" s="4"/>
       <c r="F569" s="4"/>
       <c r="G569" s="4"/>
-      <c r="H569" s="4"/>
       <c r="I569" s="4"/>
       <c r="J569" s="4"/>
       <c r="K569" s="4"/>
@@ -13628,7 +13333,6 @@
       <c r="E570" s="4"/>
       <c r="F570" s="4"/>
       <c r="G570" s="4"/>
-      <c r="H570" s="4"/>
       <c r="I570" s="4"/>
       <c r="J570" s="4"/>
       <c r="K570" s="4"/>
@@ -13650,7 +13354,6 @@
       <c r="E571" s="4"/>
       <c r="F571" s="4"/>
       <c r="G571" s="4"/>
-      <c r="H571" s="4"/>
       <c r="I571" s="4"/>
       <c r="J571" s="4"/>
       <c r="K571" s="4"/>
@@ -13672,7 +13375,6 @@
       <c r="E572" s="4"/>
       <c r="F572" s="4"/>
       <c r="G572" s="4"/>
-      <c r="H572" s="4"/>
       <c r="I572" s="4"/>
       <c r="J572" s="4"/>
       <c r="K572" s="4"/>
@@ -13694,7 +13396,6 @@
       <c r="E573" s="4"/>
       <c r="F573" s="4"/>
       <c r="G573" s="4"/>
-      <c r="H573" s="4"/>
       <c r="I573" s="4"/>
       <c r="J573" s="4"/>
       <c r="K573" s="4"/>
@@ -13716,7 +13417,6 @@
       <c r="E574" s="4"/>
       <c r="F574" s="4"/>
       <c r="G574" s="4"/>
-      <c r="H574" s="4"/>
       <c r="I574" s="4"/>
       <c r="J574" s="4"/>
       <c r="K574" s="4"/>
@@ -13738,7 +13438,6 @@
       <c r="E575" s="4"/>
       <c r="F575" s="4"/>
       <c r="G575" s="4"/>
-      <c r="H575" s="4"/>
       <c r="I575" s="4"/>
       <c r="J575" s="4"/>
       <c r="K575" s="4"/>
@@ -13760,7 +13459,6 @@
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
       <c r="G576" s="4"/>
-      <c r="H576" s="4"/>
       <c r="I576" s="4"/>
       <c r="J576" s="4"/>
       <c r="K576" s="4"/>
@@ -13782,7 +13480,6 @@
       <c r="E577" s="4"/>
       <c r="F577" s="4"/>
       <c r="G577" s="4"/>
-      <c r="H577" s="4"/>
       <c r="I577" s="4"/>
       <c r="J577" s="4"/>
       <c r="K577" s="4"/>
@@ -13804,7 +13501,6 @@
       <c r="E578" s="4"/>
       <c r="F578" s="4"/>
       <c r="G578" s="4"/>
-      <c r="H578" s="4"/>
       <c r="I578" s="4"/>
       <c r="J578" s="4"/>
       <c r="K578" s="4"/>
@@ -13826,7 +13522,6 @@
       <c r="E579" s="4"/>
       <c r="F579" s="4"/>
       <c r="G579" s="4"/>
-      <c r="H579" s="4"/>
       <c r="I579" s="4"/>
       <c r="J579" s="4"/>
       <c r="K579" s="4"/>
@@ -13848,7 +13543,6 @@
       <c r="E580" s="4"/>
       <c r="F580" s="4"/>
       <c r="G580" s="4"/>
-      <c r="H580" s="4"/>
       <c r="I580" s="4"/>
       <c r="J580" s="4"/>
       <c r="K580" s="4"/>
@@ -13870,7 +13564,6 @@
       <c r="E581" s="4"/>
       <c r="F581" s="4"/>
       <c r="G581" s="4"/>
-      <c r="H581" s="4"/>
       <c r="I581" s="4"/>
       <c r="J581" s="4"/>
       <c r="K581" s="4"/>
@@ -13892,7 +13585,6 @@
       <c r="E582" s="4"/>
       <c r="F582" s="4"/>
       <c r="G582" s="4"/>
-      <c r="H582" s="4"/>
       <c r="I582" s="4"/>
       <c r="J582" s="4"/>
       <c r="K582" s="4"/>
@@ -13914,7 +13606,6 @@
       <c r="E583" s="4"/>
       <c r="F583" s="4"/>
       <c r="G583" s="4"/>
-      <c r="H583" s="4"/>
       <c r="I583" s="4"/>
       <c r="J583" s="4"/>
       <c r="K583" s="4"/>
@@ -13936,7 +13627,6 @@
       <c r="E584" s="4"/>
       <c r="F584" s="4"/>
       <c r="G584" s="4"/>
-      <c r="H584" s="4"/>
       <c r="I584" s="4"/>
       <c r="J584" s="4"/>
       <c r="K584" s="4"/>
@@ -13958,7 +13648,6 @@
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
       <c r="G585" s="4"/>
-      <c r="H585" s="4"/>
       <c r="I585" s="4"/>
       <c r="J585" s="4"/>
       <c r="K585" s="4"/>
@@ -13980,7 +13669,6 @@
       <c r="E586" s="4"/>
       <c r="F586" s="4"/>
       <c r="G586" s="4"/>
-      <c r="H586" s="4"/>
       <c r="I586" s="4"/>
       <c r="J586" s="4"/>
       <c r="K586" s="4"/>
@@ -14002,7 +13690,6 @@
       <c r="E587" s="4"/>
       <c r="F587" s="4"/>
       <c r="G587" s="4"/>
-      <c r="H587" s="4"/>
       <c r="I587" s="4"/>
       <c r="J587" s="4"/>
       <c r="K587" s="4"/>
@@ -14024,7 +13711,6 @@
       <c r="E588" s="4"/>
       <c r="F588" s="4"/>
       <c r="G588" s="4"/>
-      <c r="H588" s="4"/>
       <c r="I588" s="4"/>
       <c r="J588" s="4"/>
       <c r="K588" s="4"/>
@@ -14046,7 +13732,6 @@
       <c r="E589" s="4"/>
       <c r="F589" s="4"/>
       <c r="G589" s="4"/>
-      <c r="H589" s="4"/>
       <c r="I589" s="4"/>
       <c r="J589" s="4"/>
       <c r="K589" s="4"/>
@@ -14068,7 +13753,6 @@
       <c r="E590" s="4"/>
       <c r="F590" s="4"/>
       <c r="G590" s="4"/>
-      <c r="H590" s="4"/>
       <c r="I590" s="4"/>
       <c r="J590" s="4"/>
       <c r="K590" s="4"/>
@@ -14090,7 +13774,6 @@
       <c r="E591" s="4"/>
       <c r="F591" s="4"/>
       <c r="G591" s="4"/>
-      <c r="H591" s="4"/>
       <c r="I591" s="4"/>
       <c r="J591" s="4"/>
       <c r="K591" s="4"/>
@@ -14112,7 +13795,6 @@
       <c r="E592" s="4"/>
       <c r="F592" s="4"/>
       <c r="G592" s="4"/>
-      <c r="H592" s="4"/>
       <c r="I592" s="4"/>
       <c r="J592" s="4"/>
       <c r="K592" s="4"/>
@@ -14134,7 +13816,6 @@
       <c r="E593" s="4"/>
       <c r="F593" s="4"/>
       <c r="G593" s="4"/>
-      <c r="H593" s="4"/>
       <c r="I593" s="4"/>
       <c r="J593" s="4"/>
       <c r="K593" s="4"/>
@@ -14156,7 +13837,6 @@
       <c r="E594" s="4"/>
       <c r="F594" s="4"/>
       <c r="G594" s="4"/>
-      <c r="H594" s="4"/>
       <c r="I594" s="4"/>
       <c r="J594" s="4"/>
       <c r="K594" s="4"/>
@@ -14178,7 +13858,6 @@
       <c r="E595" s="4"/>
       <c r="F595" s="4"/>
       <c r="G595" s="4"/>
-      <c r="H595" s="4"/>
       <c r="I595" s="4"/>
       <c r="J595" s="4"/>
       <c r="K595" s="4"/>
@@ -14200,7 +13879,6 @@
       <c r="E596" s="4"/>
       <c r="F596" s="4"/>
       <c r="G596" s="4"/>
-      <c r="H596" s="4"/>
       <c r="I596" s="4"/>
       <c r="J596" s="4"/>
       <c r="K596" s="4"/>
@@ -14222,7 +13900,6 @@
       <c r="E597" s="4"/>
       <c r="F597" s="4"/>
       <c r="G597" s="4"/>
-      <c r="H597" s="4"/>
       <c r="I597" s="4"/>
       <c r="J597" s="4"/>
       <c r="K597" s="4"/>
@@ -14244,7 +13921,6 @@
       <c r="E598" s="4"/>
       <c r="F598" s="4"/>
       <c r="G598" s="4"/>
-      <c r="H598" s="4"/>
       <c r="I598" s="4"/>
       <c r="J598" s="4"/>
       <c r="K598" s="4"/>
@@ -14266,7 +13942,6 @@
       <c r="E599" s="4"/>
       <c r="F599" s="4"/>
       <c r="G599" s="4"/>
-      <c r="H599" s="4"/>
       <c r="I599" s="4"/>
       <c r="J599" s="4"/>
       <c r="K599" s="4"/>
@@ -14288,7 +13963,6 @@
       <c r="E600" s="4"/>
       <c r="F600" s="4"/>
       <c r="G600" s="4"/>
-      <c r="H600" s="4"/>
       <c r="I600" s="4"/>
       <c r="J600" s="4"/>
       <c r="K600" s="4"/>
@@ -14310,7 +13984,6 @@
       <c r="E601" s="4"/>
       <c r="F601" s="4"/>
       <c r="G601" s="4"/>
-      <c r="H601" s="4"/>
       <c r="I601" s="4"/>
       <c r="J601" s="4"/>
       <c r="K601" s="4"/>
@@ -14332,7 +14005,6 @@
       <c r="E602" s="4"/>
       <c r="F602" s="4"/>
       <c r="G602" s="4"/>
-      <c r="H602" s="4"/>
       <c r="I602" s="4"/>
       <c r="J602" s="4"/>
       <c r="K602" s="4"/>
@@ -14354,7 +14026,6 @@
       <c r="E603" s="4"/>
       <c r="F603" s="4"/>
       <c r="G603" s="4"/>
-      <c r="H603" s="4"/>
       <c r="I603" s="4"/>
       <c r="J603" s="4"/>
       <c r="K603" s="4"/>
@@ -14376,7 +14047,6 @@
       <c r="E604" s="4"/>
       <c r="F604" s="4"/>
       <c r="G604" s="4"/>
-      <c r="H604" s="4"/>
       <c r="I604" s="4"/>
       <c r="J604" s="4"/>
       <c r="K604" s="4"/>
@@ -14398,7 +14068,6 @@
       <c r="E605" s="4"/>
       <c r="F605" s="4"/>
       <c r="G605" s="4"/>
-      <c r="H605" s="4"/>
       <c r="I605" s="4"/>
       <c r="J605" s="4"/>
       <c r="K605" s="4"/>
@@ -14420,7 +14089,6 @@
       <c r="E606" s="4"/>
       <c r="F606" s="4"/>
       <c r="G606" s="4"/>
-      <c r="H606" s="4"/>
       <c r="I606" s="4"/>
       <c r="J606" s="4"/>
       <c r="K606" s="4"/>
@@ -14442,7 +14110,6 @@
       <c r="E607" s="4"/>
       <c r="F607" s="4"/>
       <c r="G607" s="4"/>
-      <c r="H607" s="4"/>
       <c r="I607" s="4"/>
       <c r="J607" s="4"/>
       <c r="K607" s="4"/>
@@ -14464,7 +14131,6 @@
       <c r="E608" s="4"/>
       <c r="F608" s="4"/>
       <c r="G608" s="4"/>
-      <c r="H608" s="4"/>
       <c r="I608" s="4"/>
       <c r="J608" s="4"/>
       <c r="K608" s="4"/>
@@ -14486,7 +14152,6 @@
       <c r="E609" s="4"/>
       <c r="F609" s="4"/>
       <c r="G609" s="4"/>
-      <c r="H609" s="4"/>
       <c r="I609" s="4"/>
       <c r="J609" s="4"/>
       <c r="K609" s="4"/>
@@ -14508,7 +14173,6 @@
       <c r="E610" s="4"/>
       <c r="F610" s="4"/>
       <c r="G610" s="4"/>
-      <c r="H610" s="4"/>
       <c r="I610" s="4"/>
       <c r="J610" s="4"/>
       <c r="K610" s="4"/>
@@ -14530,7 +14194,6 @@
       <c r="E611" s="4"/>
       <c r="F611" s="4"/>
       <c r="G611" s="4"/>
-      <c r="H611" s="4"/>
       <c r="I611" s="4"/>
       <c r="J611" s="4"/>
       <c r="K611" s="4"/>
@@ -14552,7 +14215,6 @@
       <c r="E612" s="4"/>
       <c r="F612" s="4"/>
       <c r="G612" s="4"/>
-      <c r="H612" s="4"/>
       <c r="I612" s="4"/>
       <c r="J612" s="4"/>
       <c r="K612" s="4"/>
@@ -14574,7 +14236,6 @@
       <c r="E613" s="4"/>
       <c r="F613" s="4"/>
       <c r="G613" s="4"/>
-      <c r="H613" s="4"/>
       <c r="I613" s="4"/>
       <c r="J613" s="4"/>
       <c r="K613" s="4"/>
@@ -14596,7 +14257,6 @@
       <c r="E614" s="4"/>
       <c r="F614" s="4"/>
       <c r="G614" s="4"/>
-      <c r="H614" s="4"/>
       <c r="I614" s="4"/>
       <c r="J614" s="4"/>
       <c r="K614" s="4"/>
@@ -14618,7 +14278,6 @@
       <c r="E615" s="4"/>
       <c r="F615" s="4"/>
       <c r="G615" s="4"/>
-      <c r="H615" s="4"/>
       <c r="I615" s="4"/>
       <c r="J615" s="4"/>
       <c r="K615" s="4"/>
@@ -14640,7 +14299,6 @@
       <c r="E616" s="4"/>
       <c r="F616" s="4"/>
       <c r="G616" s="4"/>
-      <c r="H616" s="4"/>
       <c r="I616" s="4"/>
       <c r="J616" s="4"/>
       <c r="K616" s="4"/>
@@ -14662,7 +14320,6 @@
       <c r="E617" s="4"/>
       <c r="F617" s="4"/>
       <c r="G617" s="4"/>
-      <c r="H617" s="4"/>
       <c r="I617" s="4"/>
       <c r="J617" s="4"/>
       <c r="K617" s="4"/>
@@ -14684,7 +14341,6 @@
       <c r="E618" s="4"/>
       <c r="F618" s="4"/>
       <c r="G618" s="4"/>
-      <c r="H618" s="4"/>
       <c r="I618" s="4"/>
       <c r="J618" s="4"/>
       <c r="K618" s="4"/>
@@ -14706,7 +14362,6 @@
       <c r="E619" s="4"/>
       <c r="F619" s="4"/>
       <c r="G619" s="4"/>
-      <c r="H619" s="4"/>
       <c r="I619" s="4"/>
       <c r="J619" s="4"/>
       <c r="K619" s="4"/>
@@ -14728,7 +14383,6 @@
       <c r="E620" s="4"/>
       <c r="F620" s="4"/>
       <c r="G620" s="4"/>
-      <c r="H620" s="4"/>
       <c r="I620" s="4"/>
       <c r="J620" s="4"/>
       <c r="K620" s="4"/>
@@ -14750,7 +14404,6 @@
       <c r="E621" s="4"/>
       <c r="F621" s="4"/>
       <c r="G621" s="4"/>
-      <c r="H621" s="4"/>
       <c r="I621" s="4"/>
       <c r="J621" s="4"/>
       <c r="K621" s="4"/>
@@ -14772,7 +14425,6 @@
       <c r="E622" s="4"/>
       <c r="F622" s="4"/>
       <c r="G622" s="4"/>
-      <c r="H622" s="4"/>
       <c r="I622" s="4"/>
       <c r="J622" s="4"/>
       <c r="K622" s="4"/>
@@ -14794,7 +14446,6 @@
       <c r="E623" s="4"/>
       <c r="F623" s="4"/>
       <c r="G623" s="4"/>
-      <c r="H623" s="4"/>
       <c r="I623" s="4"/>
       <c r="J623" s="4"/>
       <c r="K623" s="4"/>
@@ -14816,7 +14467,6 @@
       <c r="E624" s="4"/>
       <c r="F624" s="4"/>
       <c r="G624" s="4"/>
-      <c r="H624" s="4"/>
       <c r="I624" s="4"/>
       <c r="J624" s="4"/>
       <c r="K624" s="4"/>
@@ -14838,7 +14488,6 @@
       <c r="E625" s="4"/>
       <c r="F625" s="4"/>
       <c r="G625" s="4"/>
-      <c r="H625" s="4"/>
       <c r="I625" s="4"/>
       <c r="J625" s="4"/>
       <c r="K625" s="4"/>
@@ -14860,7 +14509,6 @@
       <c r="E626" s="4"/>
       <c r="F626" s="4"/>
       <c r="G626" s="4"/>
-      <c r="H626" s="4"/>
       <c r="I626" s="4"/>
       <c r="J626" s="4"/>
       <c r="K626" s="4"/>
@@ -14882,7 +14530,6 @@
       <c r="E627" s="4"/>
       <c r="F627" s="4"/>
       <c r="G627" s="4"/>
-      <c r="H627" s="4"/>
       <c r="I627" s="4"/>
       <c r="J627" s="4"/>
       <c r="K627" s="4"/>
@@ -14904,7 +14551,6 @@
       <c r="E628" s="4"/>
       <c r="F628" s="4"/>
       <c r="G628" s="4"/>
-      <c r="H628" s="4"/>
       <c r="I628" s="4"/>
       <c r="J628" s="4"/>
       <c r="K628" s="4"/>
@@ -14926,7 +14572,6 @@
       <c r="E629" s="4"/>
       <c r="F629" s="4"/>
       <c r="G629" s="4"/>
-      <c r="H629" s="4"/>
       <c r="I629" s="4"/>
       <c r="J629" s="4"/>
       <c r="K629" s="4"/>
@@ -14948,7 +14593,6 @@
       <c r="E630" s="4"/>
       <c r="F630" s="4"/>
       <c r="G630" s="4"/>
-      <c r="H630" s="4"/>
       <c r="I630" s="4"/>
       <c r="J630" s="4"/>
       <c r="K630" s="4"/>
@@ -14970,7 +14614,6 @@
       <c r="E631" s="4"/>
       <c r="F631" s="4"/>
       <c r="G631" s="4"/>
-      <c r="H631" s="4"/>
       <c r="I631" s="4"/>
       <c r="J631" s="4"/>
       <c r="K631" s="4"/>
@@ -14992,7 +14635,6 @@
       <c r="E632" s="4"/>
       <c r="F632" s="4"/>
       <c r="G632" s="4"/>
-      <c r="H632" s="4"/>
       <c r="I632" s="4"/>
       <c r="J632" s="4"/>
       <c r="K632" s="4"/>
@@ -15014,7 +14656,6 @@
       <c r="E633" s="4"/>
       <c r="F633" s="4"/>
       <c r="G633" s="4"/>
-      <c r="H633" s="4"/>
       <c r="I633" s="4"/>
       <c r="J633" s="4"/>
       <c r="K633" s="4"/>
@@ -15036,7 +14677,6 @@
       <c r="E634" s="4"/>
       <c r="F634" s="4"/>
       <c r="G634" s="4"/>
-      <c r="H634" s="4"/>
       <c r="I634" s="4"/>
       <c r="J634" s="4"/>
       <c r="K634" s="4"/>
@@ -15058,7 +14698,6 @@
       <c r="E635" s="4"/>
       <c r="F635" s="4"/>
       <c r="G635" s="4"/>
-      <c r="H635" s="4"/>
       <c r="I635" s="4"/>
       <c r="J635" s="4"/>
       <c r="K635" s="4"/>
@@ -15080,7 +14719,6 @@
       <c r="E636" s="4"/>
       <c r="F636" s="4"/>
       <c r="G636" s="4"/>
-      <c r="H636" s="4"/>
       <c r="I636" s="4"/>
       <c r="J636" s="4"/>
       <c r="K636" s="4"/>
@@ -15102,7 +14740,6 @@
       <c r="E637" s="4"/>
       <c r="F637" s="4"/>
       <c r="G637" s="4"/>
-      <c r="H637" s="4"/>
       <c r="I637" s="4"/>
       <c r="J637" s="4"/>
       <c r="K637" s="4"/>
@@ -15124,7 +14761,6 @@
       <c r="E638" s="4"/>
       <c r="F638" s="4"/>
       <c r="G638" s="4"/>
-      <c r="H638" s="4"/>
       <c r="I638" s="4"/>
       <c r="J638" s="4"/>
       <c r="K638" s="4"/>
@@ -15146,7 +14782,6 @@
       <c r="E639" s="4"/>
       <c r="F639" s="4"/>
       <c r="G639" s="4"/>
-      <c r="H639" s="4"/>
       <c r="I639" s="4"/>
       <c r="J639" s="4"/>
       <c r="K639" s="4"/>
@@ -15168,7 +14803,6 @@
       <c r="E640" s="4"/>
       <c r="F640" s="4"/>
       <c r="G640" s="4"/>
-      <c r="H640" s="4"/>
       <c r="I640" s="4"/>
       <c r="J640" s="4"/>
       <c r="K640" s="4"/>
@@ -15190,7 +14824,6 @@
       <c r="E641" s="4"/>
       <c r="F641" s="4"/>
       <c r="G641" s="4"/>
-      <c r="H641" s="4"/>
       <c r="I641" s="4"/>
       <c r="J641" s="4"/>
       <c r="K641" s="4"/>
@@ -15212,7 +14845,6 @@
       <c r="E642" s="4"/>
       <c r="F642" s="4"/>
       <c r="G642" s="4"/>
-      <c r="H642" s="4"/>
       <c r="I642" s="4"/>
       <c r="J642" s="4"/>
       <c r="K642" s="4"/>
@@ -15234,7 +14866,6 @@
       <c r="E643" s="4"/>
       <c r="F643" s="4"/>
       <c r="G643" s="4"/>
-      <c r="H643" s="4"/>
       <c r="I643" s="4"/>
       <c r="J643" s="4"/>
       <c r="K643" s="4"/>
@@ -15256,7 +14887,6 @@
       <c r="E644" s="4"/>
       <c r="F644" s="4"/>
       <c r="G644" s="4"/>
-      <c r="H644" s="4"/>
       <c r="I644" s="4"/>
       <c r="J644" s="4"/>
       <c r="K644" s="4"/>
@@ -15278,7 +14908,6 @@
       <c r="E645" s="4"/>
       <c r="F645" s="4"/>
       <c r="G645" s="4"/>
-      <c r="H645" s="4"/>
       <c r="I645" s="4"/>
       <c r="J645" s="4"/>
       <c r="K645" s="4"/>
@@ -15300,7 +14929,6 @@
       <c r="E646" s="4"/>
       <c r="F646" s="4"/>
       <c r="G646" s="4"/>
-      <c r="H646" s="4"/>
       <c r="I646" s="4"/>
       <c r="J646" s="4"/>
       <c r="K646" s="4"/>
@@ -15322,7 +14950,6 @@
       <c r="E647" s="4"/>
       <c r="F647" s="4"/>
       <c r="G647" s="4"/>
-      <c r="H647" s="4"/>
       <c r="I647" s="4"/>
       <c r="J647" s="4"/>
       <c r="K647" s="4"/>
@@ -15344,7 +14971,6 @@
       <c r="E648" s="4"/>
       <c r="F648" s="4"/>
       <c r="G648" s="4"/>
-      <c r="H648" s="4"/>
       <c r="I648" s="4"/>
       <c r="J648" s="4"/>
       <c r="K648" s="4"/>
@@ -15366,7 +14992,6 @@
       <c r="E649" s="4"/>
       <c r="F649" s="4"/>
       <c r="G649" s="4"/>
-      <c r="H649" s="4"/>
       <c r="I649" s="4"/>
       <c r="J649" s="4"/>
       <c r="K649" s="4"/>
@@ -15388,7 +15013,6 @@
       <c r="E650" s="4"/>
       <c r="F650" s="4"/>
       <c r="G650" s="4"/>
-      <c r="H650" s="4"/>
       <c r="I650" s="4"/>
       <c r="J650" s="4"/>
       <c r="K650" s="4"/>
@@ -15410,7 +15034,6 @@
       <c r="E651" s="4"/>
       <c r="F651" s="4"/>
       <c r="G651" s="4"/>
-      <c r="H651" s="4"/>
       <c r="I651" s="4"/>
       <c r="J651" s="4"/>
       <c r="K651" s="4"/>
@@ -15432,7 +15055,6 @@
       <c r="E652" s="4"/>
       <c r="F652" s="4"/>
       <c r="G652" s="4"/>
-      <c r="H652" s="4"/>
       <c r="I652" s="4"/>
       <c r="J652" s="4"/>
       <c r="K652" s="4"/>
@@ -15454,7 +15076,6 @@
       <c r="E653" s="4"/>
       <c r="F653" s="4"/>
       <c r="G653" s="4"/>
-      <c r="H653" s="4"/>
       <c r="I653" s="4"/>
       <c r="J653" s="4"/>
       <c r="K653" s="4"/>
@@ -15476,7 +15097,6 @@
       <c r="E654" s="4"/>
       <c r="F654" s="4"/>
       <c r="G654" s="4"/>
-      <c r="H654" s="4"/>
       <c r="I654" s="4"/>
       <c r="J654" s="4"/>
       <c r="K654" s="4"/>
@@ -15498,7 +15118,6 @@
       <c r="E655" s="4"/>
       <c r="F655" s="4"/>
       <c r="G655" s="4"/>
-      <c r="H655" s="4"/>
       <c r="I655" s="4"/>
       <c r="J655" s="4"/>
       <c r="K655" s="4"/>
@@ -15520,7 +15139,6 @@
       <c r="E656" s="4"/>
       <c r="F656" s="4"/>
       <c r="G656" s="4"/>
-      <c r="H656" s="4"/>
       <c r="I656" s="4"/>
       <c r="J656" s="4"/>
       <c r="K656" s="4"/>
@@ -15542,7 +15160,6 @@
       <c r="E657" s="4"/>
       <c r="F657" s="4"/>
       <c r="G657" s="4"/>
-      <c r="H657" s="4"/>
       <c r="I657" s="4"/>
       <c r="J657" s="4"/>
       <c r="K657" s="4"/>
@@ -15564,7 +15181,6 @@
       <c r="E658" s="4"/>
       <c r="F658" s="4"/>
       <c r="G658" s="4"/>
-      <c r="H658" s="4"/>
       <c r="I658" s="4"/>
       <c r="J658" s="4"/>
       <c r="K658" s="4"/>
@@ -15586,7 +15202,6 @@
       <c r="E659" s="4"/>
       <c r="F659" s="4"/>
       <c r="G659" s="4"/>
-      <c r="H659" s="4"/>
       <c r="I659" s="4"/>
       <c r="J659" s="4"/>
       <c r="K659" s="4"/>
@@ -15608,7 +15223,6 @@
       <c r="E660" s="4"/>
       <c r="F660" s="4"/>
       <c r="G660" s="4"/>
-      <c r="H660" s="4"/>
       <c r="I660" s="4"/>
       <c r="J660" s="4"/>
       <c r="K660" s="4"/>
@@ -15630,7 +15244,6 @@
       <c r="E661" s="4"/>
       <c r="F661" s="4"/>
       <c r="G661" s="4"/>
-      <c r="H661" s="4"/>
       <c r="I661" s="4"/>
       <c r="J661" s="4"/>
       <c r="K661" s="4"/>
@@ -15652,7 +15265,6 @@
       <c r="E662" s="4"/>
       <c r="F662" s="4"/>
       <c r="G662" s="4"/>
-      <c r="H662" s="4"/>
       <c r="I662" s="4"/>
       <c r="J662" s="4"/>
       <c r="K662" s="4"/>
@@ -15674,7 +15286,6 @@
       <c r="E663" s="4"/>
       <c r="F663" s="4"/>
       <c r="G663" s="4"/>
-      <c r="H663" s="4"/>
       <c r="I663" s="4"/>
       <c r="J663" s="4"/>
       <c r="K663" s="4"/>
@@ -15696,7 +15307,6 @@
       <c r="E664" s="4"/>
       <c r="F664" s="4"/>
       <c r="G664" s="4"/>
-      <c r="H664" s="4"/>
       <c r="I664" s="4"/>
       <c r="J664" s="4"/>
       <c r="K664" s="4"/>
@@ -15718,7 +15328,6 @@
       <c r="E665" s="4"/>
       <c r="F665" s="4"/>
       <c r="G665" s="4"/>
-      <c r="H665" s="4"/>
       <c r="I665" s="4"/>
       <c r="J665" s="4"/>
       <c r="K665" s="4"/>
@@ -15740,7 +15349,6 @@
       <c r="E666" s="4"/>
       <c r="F666" s="4"/>
       <c r="G666" s="4"/>
-      <c r="H666" s="4"/>
       <c r="I666" s="4"/>
       <c r="J666" s="4"/>
       <c r="K666" s="4"/>
@@ -15762,7 +15370,6 @@
       <c r="E667" s="4"/>
       <c r="F667" s="4"/>
       <c r="G667" s="4"/>
-      <c r="H667" s="4"/>
       <c r="I667" s="4"/>
       <c r="J667" s="4"/>
       <c r="K667" s="4"/>
@@ -15784,7 +15391,6 @@
       <c r="E668" s="4"/>
       <c r="F668" s="4"/>
       <c r="G668" s="4"/>
-      <c r="H668" s="4"/>
       <c r="I668" s="4"/>
       <c r="J668" s="4"/>
       <c r="K668" s="4"/>
@@ -15806,7 +15412,6 @@
       <c r="E669" s="4"/>
       <c r="F669" s="4"/>
       <c r="G669" s="4"/>
-      <c r="H669" s="4"/>
       <c r="I669" s="4"/>
       <c r="J669" s="4"/>
       <c r="K669" s="4"/>
@@ -15828,7 +15433,6 @@
       <c r="E670" s="4"/>
       <c r="F670" s="4"/>
       <c r="G670" s="4"/>
-      <c r="H670" s="4"/>
       <c r="I670" s="4"/>
       <c r="J670" s="4"/>
       <c r="K670" s="4"/>
@@ -15850,7 +15454,6 @@
       <c r="E671" s="4"/>
       <c r="F671" s="4"/>
       <c r="G671" s="4"/>
-      <c r="H671" s="4"/>
       <c r="I671" s="4"/>
       <c r="J671" s="4"/>
       <c r="K671" s="4"/>
@@ -15872,7 +15475,6 @@
       <c r="E672" s="4"/>
       <c r="F672" s="4"/>
       <c r="G672" s="4"/>
-      <c r="H672" s="4"/>
       <c r="I672" s="4"/>
       <c r="J672" s="4"/>
       <c r="K672" s="4"/>
@@ -15894,7 +15496,6 @@
       <c r="E673" s="4"/>
       <c r="F673" s="4"/>
       <c r="G673" s="4"/>
-      <c r="H673" s="4"/>
       <c r="I673" s="4"/>
       <c r="J673" s="4"/>
       <c r="K673" s="4"/>
@@ -15916,7 +15517,6 @@
       <c r="E674" s="4"/>
       <c r="F674" s="4"/>
       <c r="G674" s="4"/>
-      <c r="H674" s="4"/>
       <c r="I674" s="4"/>
       <c r="J674" s="4"/>
       <c r="K674" s="4"/>
@@ -15938,7 +15538,6 @@
       <c r="E675" s="4"/>
       <c r="F675" s="4"/>
       <c r="G675" s="4"/>
-      <c r="H675" s="4"/>
       <c r="I675" s="4"/>
       <c r="J675" s="4"/>
       <c r="K675" s="4"/>
@@ -15960,7 +15559,6 @@
       <c r="E676" s="4"/>
       <c r="F676" s="4"/>
       <c r="G676" s="4"/>
-      <c r="H676" s="4"/>
       <c r="I676" s="4"/>
       <c r="J676" s="4"/>
       <c r="K676" s="4"/>
@@ -15982,7 +15580,6 @@
       <c r="E677" s="4"/>
       <c r="F677" s="4"/>
       <c r="G677" s="4"/>
-      <c r="H677" s="4"/>
       <c r="I677" s="4"/>
       <c r="J677" s="4"/>
       <c r="K677" s="4"/>
@@ -16004,7 +15601,6 @@
       <c r="E678" s="4"/>
       <c r="F678" s="4"/>
       <c r="G678" s="4"/>
-      <c r="H678" s="4"/>
       <c r="I678" s="4"/>
       <c r="J678" s="4"/>
       <c r="K678" s="4"/>
@@ -16026,7 +15622,6 @@
       <c r="E679" s="4"/>
       <c r="F679" s="4"/>
       <c r="G679" s="4"/>
-      <c r="H679" s="4"/>
       <c r="I679" s="4"/>
       <c r="J679" s="4"/>
       <c r="K679" s="4"/>
@@ -16048,7 +15643,6 @@
       <c r="E680" s="4"/>
       <c r="F680" s="4"/>
       <c r="G680" s="4"/>
-      <c r="H680" s="4"/>
       <c r="I680" s="4"/>
       <c r="J680" s="4"/>
       <c r="K680" s="4"/>
@@ -16070,7 +15664,6 @@
       <c r="E681" s="4"/>
       <c r="F681" s="4"/>
       <c r="G681" s="4"/>
-      <c r="H681" s="4"/>
       <c r="I681" s="4"/>
       <c r="J681" s="4"/>
       <c r="K681" s="4"/>
@@ -16092,7 +15685,6 @@
       <c r="E682" s="4"/>
       <c r="F682" s="4"/>
       <c r="G682" s="4"/>
-      <c r="H682" s="4"/>
       <c r="I682" s="4"/>
       <c r="J682" s="4"/>
       <c r="K682" s="4"/>
@@ -16114,7 +15706,6 @@
       <c r="E683" s="4"/>
       <c r="F683" s="4"/>
       <c r="G683" s="4"/>
-      <c r="H683" s="4"/>
       <c r="I683" s="4"/>
       <c r="J683" s="4"/>
       <c r="K683" s="4"/>
@@ -16136,7 +15727,6 @@
       <c r="E684" s="4"/>
       <c r="F684" s="4"/>
       <c r="G684" s="4"/>
-      <c r="H684" s="4"/>
       <c r="I684" s="4"/>
       <c r="J684" s="4"/>
       <c r="K684" s="4"/>
@@ -16158,7 +15748,6 @@
       <c r="E685" s="4"/>
       <c r="F685" s="4"/>
       <c r="G685" s="4"/>
-      <c r="H685" s="4"/>
       <c r="I685" s="4"/>
       <c r="J685" s="4"/>
       <c r="K685" s="4"/>
@@ -16180,7 +15769,6 @@
       <c r="E686" s="4"/>
       <c r="F686" s="4"/>
       <c r="G686" s="4"/>
-      <c r="H686" s="4"/>
       <c r="I686" s="4"/>
       <c r="J686" s="4"/>
       <c r="K686" s="4"/>
@@ -16202,7 +15790,6 @@
       <c r="E687" s="4"/>
       <c r="F687" s="4"/>
       <c r="G687" s="4"/>
-      <c r="H687" s="4"/>
       <c r="I687" s="4"/>
       <c r="J687" s="4"/>
       <c r="K687" s="4"/>
@@ -16224,7 +15811,6 @@
       <c r="E688" s="4"/>
       <c r="F688" s="4"/>
       <c r="G688" s="4"/>
-      <c r="H688" s="4"/>
       <c r="I688" s="4"/>
       <c r="J688" s="4"/>
       <c r="K688" s="4"/>
@@ -16246,7 +15832,6 @@
       <c r="E689" s="4"/>
       <c r="F689" s="4"/>
       <c r="G689" s="4"/>
-      <c r="H689" s="4"/>
       <c r="I689" s="4"/>
       <c r="J689" s="4"/>
       <c r="K689" s="4"/>
@@ -16268,7 +15853,6 @@
       <c r="E690" s="4"/>
       <c r="F690" s="4"/>
       <c r="G690" s="4"/>
-      <c r="H690" s="4"/>
       <c r="I690" s="4"/>
       <c r="J690" s="4"/>
       <c r="K690" s="4"/>
@@ -16290,7 +15874,6 @@
       <c r="E691" s="4"/>
       <c r="F691" s="4"/>
       <c r="G691" s="4"/>
-      <c r="H691" s="4"/>
       <c r="I691" s="4"/>
       <c r="J691" s="4"/>
       <c r="K691" s="4"/>
@@ -16312,7 +15895,6 @@
       <c r="E692" s="4"/>
       <c r="F692" s="4"/>
       <c r="G692" s="4"/>
-      <c r="H692" s="4"/>
       <c r="I692" s="4"/>
       <c r="J692" s="4"/>
       <c r="K692" s="4"/>
@@ -16334,7 +15916,6 @@
       <c r="E693" s="4"/>
       <c r="F693" s="4"/>
       <c r="G693" s="4"/>
-      <c r="H693" s="4"/>
       <c r="I693" s="4"/>
       <c r="J693" s="4"/>
       <c r="K693" s="4"/>
@@ -16356,7 +15937,6 @@
       <c r="E694" s="4"/>
       <c r="F694" s="4"/>
       <c r="G694" s="4"/>
-      <c r="H694" s="4"/>
       <c r="I694" s="4"/>
       <c r="J694" s="4"/>
       <c r="K694" s="4"/>
@@ -16378,7 +15958,6 @@
       <c r="E695" s="4"/>
       <c r="F695" s="4"/>
       <c r="G695" s="4"/>
-      <c r="H695" s="4"/>
       <c r="I695" s="4"/>
       <c r="J695" s="4"/>
       <c r="K695" s="4"/>
@@ -16400,7 +15979,6 @@
       <c r="E696" s="4"/>
       <c r="F696" s="4"/>
       <c r="G696" s="4"/>
-      <c r="H696" s="4"/>
       <c r="I696" s="4"/>
       <c r="J696" s="4"/>
       <c r="K696" s="4"/>
@@ -16422,7 +16000,6 @@
       <c r="E697" s="4"/>
       <c r="F697" s="4"/>
       <c r="G697" s="4"/>
-      <c r="H697" s="4"/>
       <c r="I697" s="4"/>
       <c r="J697" s="4"/>
       <c r="K697" s="4"/>
@@ -16444,7 +16021,6 @@
       <c r="E698" s="4"/>
       <c r="F698" s="4"/>
       <c r="G698" s="4"/>
-      <c r="H698" s="4"/>
       <c r="I698" s="4"/>
       <c r="J698" s="4"/>
       <c r="K698" s="4"/>
@@ -16466,7 +16042,6 @@
       <c r="E699" s="4"/>
       <c r="F699" s="4"/>
       <c r="G699" s="4"/>
-      <c r="H699" s="4"/>
       <c r="I699" s="4"/>
       <c r="J699" s="4"/>
       <c r="K699" s="4"/>
@@ -16488,7 +16063,6 @@
       <c r="E700" s="4"/>
       <c r="F700" s="4"/>
       <c r="G700" s="4"/>
-      <c r="H700" s="4"/>
       <c r="I700" s="4"/>
       <c r="J700" s="4"/>
       <c r="K700" s="4"/>
@@ -16510,7 +16084,6 @@
       <c r="E701" s="4"/>
       <c r="F701" s="4"/>
       <c r="G701" s="4"/>
-      <c r="H701" s="4"/>
       <c r="I701" s="4"/>
       <c r="J701" s="4"/>
       <c r="K701" s="4"/>
@@ -16532,7 +16105,6 @@
       <c r="E702" s="4"/>
       <c r="F702" s="4"/>
       <c r="G702" s="4"/>
-      <c r="H702" s="4"/>
       <c r="I702" s="4"/>
       <c r="J702" s="4"/>
       <c r="K702" s="4"/>
@@ -16554,7 +16126,6 @@
       <c r="E703" s="4"/>
       <c r="F703" s="4"/>
       <c r="G703" s="4"/>
-      <c r="H703" s="4"/>
       <c r="I703" s="4"/>
       <c r="J703" s="4"/>
       <c r="K703" s="4"/>
@@ -16576,7 +16147,6 @@
       <c r="E704" s="4"/>
       <c r="F704" s="4"/>
       <c r="G704" s="4"/>
-      <c r="H704" s="4"/>
       <c r="I704" s="4"/>
       <c r="J704" s="4"/>
       <c r="K704" s="4"/>
@@ -16598,7 +16168,6 @@
       <c r="E705" s="4"/>
       <c r="F705" s="4"/>
       <c r="G705" s="4"/>
-      <c r="H705" s="4"/>
       <c r="I705" s="4"/>
       <c r="J705" s="4"/>
       <c r="K705" s="4"/>
@@ -16620,7 +16189,6 @@
       <c r="E706" s="4"/>
       <c r="F706" s="4"/>
       <c r="G706" s="4"/>
-      <c r="H706" s="4"/>
       <c r="I706" s="4"/>
       <c r="J706" s="4"/>
       <c r="K706" s="4"/>
@@ -16642,7 +16210,6 @@
       <c r="E707" s="4"/>
       <c r="F707" s="4"/>
       <c r="G707" s="4"/>
-      <c r="H707" s="4"/>
       <c r="I707" s="4"/>
       <c r="J707" s="4"/>
       <c r="K707" s="4"/>
@@ -16664,7 +16231,6 @@
       <c r="E708" s="4"/>
       <c r="F708" s="4"/>
       <c r="G708" s="4"/>
-      <c r="H708" s="4"/>
       <c r="I708" s="4"/>
       <c r="J708" s="4"/>
       <c r="K708" s="4"/>
@@ -16686,7 +16252,6 @@
       <c r="E709" s="4"/>
       <c r="F709" s="4"/>
       <c r="G709" s="4"/>
-      <c r="H709" s="4"/>
       <c r="I709" s="4"/>
       <c r="J709" s="4"/>
       <c r="K709" s="4"/>
@@ -16708,7 +16273,6 @@
       <c r="E710" s="4"/>
       <c r="F710" s="4"/>
       <c r="G710" s="4"/>
-      <c r="H710" s="4"/>
       <c r="I710" s="4"/>
       <c r="J710" s="4"/>
       <c r="K710" s="4"/>
@@ -16730,7 +16294,6 @@
       <c r="E711" s="4"/>
       <c r="F711" s="4"/>
       <c r="G711" s="4"/>
-      <c r="H711" s="4"/>
       <c r="I711" s="4"/>
       <c r="J711" s="4"/>
       <c r="K711" s="4"/>
@@ -16752,7 +16315,6 @@
       <c r="E712" s="4"/>
       <c r="F712" s="4"/>
       <c r="G712" s="4"/>
-      <c r="H712" s="4"/>
       <c r="I712" s="4"/>
       <c r="J712" s="4"/>
       <c r="K712" s="4"/>
@@ -16774,7 +16336,6 @@
       <c r="E713" s="4"/>
       <c r="F713" s="4"/>
       <c r="G713" s="4"/>
-      <c r="H713" s="4"/>
       <c r="I713" s="4"/>
       <c r="J713" s="4"/>
       <c r="K713" s="4"/>
@@ -16796,7 +16357,6 @@
       <c r="E714" s="4"/>
       <c r="F714" s="4"/>
       <c r="G714" s="4"/>
-      <c r="H714" s="4"/>
       <c r="I714" s="4"/>
       <c r="J714" s="4"/>
       <c r="K714" s="4"/>
@@ -16818,7 +16378,6 @@
       <c r="E715" s="4"/>
       <c r="F715" s="4"/>
       <c r="G715" s="4"/>
-      <c r="H715" s="4"/>
       <c r="I715" s="4"/>
       <c r="J715" s="4"/>
       <c r="K715" s="4"/>
@@ -16840,7 +16399,6 @@
       <c r="E716" s="4"/>
       <c r="F716" s="4"/>
       <c r="G716" s="4"/>
-      <c r="H716" s="4"/>
       <c r="I716" s="4"/>
       <c r="J716" s="4"/>
       <c r="K716" s="4"/>
@@ -16862,7 +16420,6 @@
       <c r="E717" s="4"/>
       <c r="F717" s="4"/>
       <c r="G717" s="4"/>
-      <c r="H717" s="4"/>
       <c r="I717" s="4"/>
       <c r="J717" s="4"/>
       <c r="K717" s="4"/>
@@ -16884,7 +16441,6 @@
       <c r="E718" s="4"/>
       <c r="F718" s="4"/>
       <c r="G718" s="4"/>
-      <c r="H718" s="4"/>
       <c r="I718" s="4"/>
       <c r="J718" s="4"/>
       <c r="K718" s="4"/>
@@ -16906,7 +16462,6 @@
       <c r="E719" s="4"/>
       <c r="F719" s="4"/>
       <c r="G719" s="4"/>
-      <c r="H719" s="4"/>
       <c r="I719" s="4"/>
       <c r="J719" s="4"/>
       <c r="K719" s="4"/>
@@ -16928,7 +16483,6 @@
       <c r="E720" s="4"/>
       <c r="F720" s="4"/>
       <c r="G720" s="4"/>
-      <c r="H720" s="4"/>
       <c r="I720" s="4"/>
       <c r="J720" s="4"/>
       <c r="K720" s="4"/>
@@ -16950,7 +16504,6 @@
       <c r="E721" s="4"/>
       <c r="F721" s="4"/>
       <c r="G721" s="4"/>
-      <c r="H721" s="4"/>
       <c r="I721" s="4"/>
       <c r="J721" s="4"/>
       <c r="K721" s="4"/>
@@ -16972,7 +16525,6 @@
       <c r="E722" s="4"/>
       <c r="F722" s="4"/>
       <c r="G722" s="4"/>
-      <c r="H722" s="4"/>
       <c r="I722" s="4"/>
       <c r="J722" s="4"/>
       <c r="K722" s="4"/>
@@ -16994,7 +16546,6 @@
       <c r="E723" s="4"/>
       <c r="F723" s="4"/>
       <c r="G723" s="4"/>
-      <c r="H723" s="4"/>
       <c r="I723" s="4"/>
       <c r="J723" s="4"/>
       <c r="K723" s="4"/>
@@ -17016,7 +16567,6 @@
       <c r="E724" s="4"/>
       <c r="F724" s="4"/>
       <c r="G724" s="4"/>
-      <c r="H724" s="4"/>
       <c r="I724" s="4"/>
       <c r="J724" s="4"/>
       <c r="K724" s="4"/>
@@ -17038,7 +16588,6 @@
       <c r="E725" s="4"/>
       <c r="F725" s="4"/>
       <c r="G725" s="4"/>
-      <c r="H725" s="4"/>
       <c r="I725" s="4"/>
       <c r="J725" s="4"/>
       <c r="K725" s="4"/>
@@ -17060,7 +16609,6 @@
       <c r="E726" s="4"/>
       <c r="F726" s="4"/>
       <c r="G726" s="4"/>
-      <c r="H726" s="4"/>
       <c r="I726" s="4"/>
       <c r="J726" s="4"/>
       <c r="K726" s="4"/>
@@ -17082,7 +16630,6 @@
       <c r="E727" s="4"/>
       <c r="F727" s="4"/>
       <c r="G727" s="4"/>
-      <c r="H727" s="4"/>
       <c r="I727" s="4"/>
       <c r="J727" s="4"/>
       <c r="K727" s="4"/>
@@ -17104,7 +16651,6 @@
       <c r="E728" s="4"/>
       <c r="F728" s="4"/>
       <c r="G728" s="4"/>
-      <c r="H728" s="4"/>
       <c r="I728" s="4"/>
       <c r="J728" s="4"/>
       <c r="K728" s="4"/>
@@ -17126,7 +16672,6 @@
       <c r="E729" s="4"/>
       <c r="F729" s="4"/>
       <c r="G729" s="4"/>
-      <c r="H729" s="4"/>
       <c r="I729" s="4"/>
       <c r="J729" s="4"/>
       <c r="K729" s="4"/>
@@ -17148,7 +16693,6 @@
       <c r="E730" s="4"/>
       <c r="F730" s="4"/>
       <c r="G730" s="4"/>
-      <c r="H730" s="4"/>
       <c r="I730" s="4"/>
       <c r="J730" s="4"/>
       <c r="K730" s="4"/>
@@ -17170,7 +16714,6 @@
       <c r="E731" s="4"/>
       <c r="F731" s="4"/>
       <c r="G731" s="4"/>
-      <c r="H731" s="4"/>
       <c r="I731" s="4"/>
       <c r="J731" s="4"/>
       <c r="K731" s="4"/>
@@ -17192,7 +16735,6 @@
       <c r="E732" s="4"/>
       <c r="F732" s="4"/>
       <c r="G732" s="4"/>
-      <c r="H732" s="4"/>
       <c r="I732" s="4"/>
       <c r="J732" s="4"/>
       <c r="K732" s="4"/>
@@ -17214,7 +16756,6 @@
       <c r="E733" s="4"/>
       <c r="F733" s="4"/>
       <c r="G733" s="4"/>
-      <c r="H733" s="4"/>
       <c r="I733" s="4"/>
       <c r="J733" s="4"/>
       <c r="K733" s="4"/>
@@ -17236,7 +16777,6 @@
       <c r="E734" s="4"/>
       <c r="F734" s="4"/>
       <c r="G734" s="4"/>
-      <c r="H734" s="4"/>
       <c r="I734" s="4"/>
       <c r="J734" s="4"/>
       <c r="K734" s="4"/>
@@ -17258,7 +16798,6 @@
       <c r="E735" s="4"/>
       <c r="F735" s="4"/>
       <c r="G735" s="4"/>
-      <c r="H735" s="4"/>
       <c r="I735" s="4"/>
       <c r="J735" s="4"/>
       <c r="K735" s="4"/>
@@ -17280,7 +16819,6 @@
       <c r="E736" s="4"/>
       <c r="F736" s="4"/>
       <c r="G736" s="4"/>
-      <c r="H736" s="4"/>
       <c r="I736" s="4"/>
       <c r="J736" s="4"/>
       <c r="K736" s="4"/>
@@ -17302,7 +16840,6 @@
       <c r="E737" s="4"/>
       <c r="F737" s="4"/>
       <c r="G737" s="4"/>
-      <c r="H737" s="4"/>
       <c r="I737" s="4"/>
       <c r="J737" s="4"/>
       <c r="K737" s="4"/>
@@ -17324,7 +16861,6 @@
       <c r="E738" s="4"/>
       <c r="F738" s="4"/>
       <c r="G738" s="4"/>
-      <c r="H738" s="4"/>
       <c r="I738" s="4"/>
       <c r="J738" s="4"/>
       <c r="K738" s="4"/>
@@ -17346,7 +16882,6 @@
       <c r="E739" s="4"/>
       <c r="F739" s="4"/>
       <c r="G739" s="4"/>
-      <c r="H739" s="4"/>
       <c r="I739" s="4"/>
       <c r="J739" s="4"/>
       <c r="K739" s="4"/>
@@ -17368,7 +16903,6 @@
       <c r="E740" s="4"/>
       <c r="F740" s="4"/>
       <c r="G740" s="4"/>
-      <c r="H740" s="4"/>
       <c r="I740" s="4"/>
       <c r="J740" s="4"/>
       <c r="K740" s="4"/>
@@ -17390,7 +16924,6 @@
       <c r="E741" s="4"/>
       <c r="F741" s="4"/>
       <c r="G741" s="4"/>
-      <c r="H741" s="4"/>
       <c r="I741" s="4"/>
       <c r="J741" s="4"/>
       <c r="K741" s="4"/>
@@ -17412,7 +16945,6 @@
       <c r="E742" s="4"/>
       <c r="F742" s="4"/>
       <c r="G742" s="4"/>
-      <c r="H742" s="4"/>
       <c r="I742" s="4"/>
       <c r="J742" s="4"/>
       <c r="K742" s="4"/>
@@ -17430,10 +16962,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124:K1048576 B11:B25 J7:P15 D11:H15 B7:H10 D18:P21 D23:P25 B26:P123 F22:P22 H3 B5:P6 B3:G4 I3:P4 B2:P2" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G15 B11:B25 J7:P15 B7:G10 I18:P21 I23:P25 I26:P123 I22:P22 B5:G6 I5:P6 I2:P2 B3:G4 I3:P4 B2:G2 F22:G22 B26:G123 D23:G25 D18:G21 B124:G1048576 I124:K1048576" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q123" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q123 H1:H1048576" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56134118-23FE-4ED9-A546-5E1812536E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C585E80D-98C3-4DBA-86C3-EE8F682036F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -418,12 +418,156 @@
         </r>
       </text>
     </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{516FBAEA-5B7F-49DE-9483-E7E7CFA482D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No responded to the message</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{075F8D3F-9C54-4500-8110-BFC1DF93BF2F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work not joined</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{33AF5560-A1FE-44C0-AA7A-39382C7C9D93}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No responded to the message</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{0D306C19-2282-4271-AD49-8D53C7AD564A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No responded to the message</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{38E036A5-98CF-49B1-96AA-33E59FCBA37D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No responded to the message</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{13D8C531-74BA-462D-A289-27B439042FE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No responded to the message</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -1003,9 +1147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1274,21 +1418,63 @@
       <c r="A5" s="5">
         <v>45142</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="10">
+        <v>16</v>
+      </c>
+      <c r="S5" s="12">
+        <v>10</v>
+      </c>
+      <c r="T5" s="11">
+        <v>6</v>
+      </c>
       <c r="U5" s="4" t="s">
         <v>2</v>
       </c>
@@ -16962,10 +17148,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G15 B11:B25 J7:P15 B7:G10 I18:P21 I23:P25 I26:P123 I22:P22 B5:G6 I5:P6 I2:P2 B3:G4 I3:P4 B2:G2 F22:G22 B26:G123 D23:G25 D18:G21 B124:G1048576 I124:K1048576" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G15 B11:B25 J7:P15 I18:P123 I6:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B6:G10 B5:P5" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q123 H1:H1048576" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H1048576 H1:H4 Q2:Q123" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C585E80D-98C3-4DBA-86C3-EE8F682036F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564A2BDE-3F83-4CB0-974B-9B1D5E673901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -562,12 +562,108 @@
         </r>
       </text>
     </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{FE5C403D-1F1C-419C-965C-F75B9FD9ED17}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work not joined</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{7CC49406-EA62-4210-BB9A-CEA2F6BB624F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{751B9A87-2171-4639-9A24-D0AFB61FAF3D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{8B681E50-CA6A-475B-8204-5DF75448D308}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -1147,9 +1243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1483,23 +1579,63 @@
       <c r="A6" s="5">
         <v>45143</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="10">
+        <v>16</v>
+      </c>
+      <c r="S6" s="12">
+        <v>12</v>
+      </c>
+      <c r="T6" s="11">
+        <v>4</v>
+      </c>
       <c r="U6" s="4" t="s">
         <v>1</v>
       </c>
@@ -17148,10 +17284,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G15 B11:B25 J7:P15 I18:P123 I6:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B6:G10 B5:P5" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G15 B11:B25 J7:P15 I18:P123 B7:G10 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B5:P6" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H1048576 H1:H4 Q2:Q123" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q123 H7:H1048576" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564A2BDE-3F83-4CB0-974B-9B1D5E673901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DF41D5-9FE0-40D5-9AF2-E40CFFA0F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -658,12 +658,109 @@
         </r>
       </text>
     </comment>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{69F34AD5-5514-4C4B-9DF2-22896C5F7C5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work not joined</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{3580CCD7-C20A-4E1D-B437-715E2194C18A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{C84791F4-1A07-4D89-8498-2F52ACA564A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{FBCFE2AC-FF3E-4A1F-B8AA-159337B6AEBC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -736,12 +833,15 @@
   <si>
     <t>10 for first &amp; 10 for last (Check Note)</t>
   </si>
+  <si>
+    <t>SUNDAY OFF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -785,8 +885,34 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,6 +946,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF75FF93"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -919,6 +1051,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1243,9 +1381,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1293,19 +1431,19 @@
       <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="7" t="s">
@@ -1644,45 +1782,125 @@
       <c r="A7" s="5">
         <v>45144</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
+      <c r="B7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>45145</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+      <c r="B8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="10">
+        <v>16</v>
+      </c>
+      <c r="S8" s="12">
+        <v>12</v>
+      </c>
+      <c r="T8" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -17284,10 +17502,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G15 B11:B25 J7:P15 I18:P123 B7:G10 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B5:P6" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G15 B11:B25 B9:G10 I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 J8:P15 B8:H8" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q123 H7:H1048576" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 H9:H1048576 Q8:Q123 I7:I8 Q2:Q6" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DF41D5-9FE0-40D5-9AF2-E40CFFA0F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC02943-5FF2-4C92-8C80-E4ACC22092AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -755,12 +755,156 @@
         </r>
       </text>
     </comment>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{12500958-BE73-4C09-9C43-2BE134E67B56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work not joined</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{DCD4AECE-FC64-45F7-B9EE-D1D79AADF879}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{A08DF63C-23D1-4A20-B022-1AE996F307DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{7D41F2FF-3E4E-41E2-864A-BCFE00C1E27A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P9" authorId="0" shapeId="0" xr:uid="{DC144066-BFDE-4BE8-8AF6-B0ACD8DED5EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q9" authorId="0" shapeId="0" xr:uid="{0C31D979-C381-4592-A9DE-0F2CDBE1F73F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -1381,9 +1525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1906,23 +2050,63 @@
       <c r="A9" s="5">
         <v>45146</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="10">
+        <v>16</v>
+      </c>
+      <c r="S9" s="12">
+        <v>10</v>
+      </c>
+      <c r="T9" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -17502,10 +17686,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G15 B11:B25 B9:G10 I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 J8:P15 B8:H8" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G15 B11:B25 I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B8:H9 B10:G10 J8:P15" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 H9:H1048576 Q8:Q123 I7:I8 Q2:Q6" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 I7:I9 Q8:Q123 H10:H1048576" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC02943-5FF2-4C92-8C80-E4ACC22092AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A5C139-CD67-450D-B161-859DFC6F7DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -899,12 +899,228 @@
         </r>
       </text>
     </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{A0A2E32A-AA60-4293-9CEA-5838BD046123}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{A7A613D4-B353-4A4A-9273-D5F9917054B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{903C417E-0D7C-4C8B-904D-1F6B3074573A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No response</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{CC3F059B-E9C1-4297-ACE3-9D62BBF8324E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Personal work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{7C5639A1-6098-44F3-B2FB-FA83A6122545}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{69CB369A-93E7-4CAF-B78D-24154C2EBD71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{98BA57F8-8ECB-4CC0-B8F9-585571AAEE97}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Medical appointmnent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{9D9607AB-CCFF-437F-983C-7065E102D486}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q10" authorId="0" shapeId="0" xr:uid="{EB33B29F-2DD2-401A-ABF5-D6BC85F86524}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Device Not available</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -1527,7 +1743,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2112,23 +2328,63 @@
       <c r="A10" s="5">
         <v>45147</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="10">
+        <v>16</v>
+      </c>
+      <c r="S10" s="12">
+        <v>7</v>
+      </c>
+      <c r="T10" s="11">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -17686,10 +17942,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G15 B11:B25 I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B8:H9 B10:G10 J8:P15" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G15 B11:B25 I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B8:H10 J11:P15 J8:P9 J10:K10 M10:P10" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 I7:I9 Q8:Q123 H10:H1048576" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 I7:I10 H11:H1048576 Q8:Q123 L10" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A5C139-CD67-450D-B161-859DFC6F7DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC51E4-E449-49E5-8396-682ACADC12E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -1115,12 +1115,132 @@
         </r>
       </text>
     </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{13FE914F-79F5-4DBA-8FB7-54FAEBDFF9AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{D1025057-79CD-4A4D-A366-D3C746A93C36}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Note Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{1E770157-4FA4-4664-8A79-C7CE90268FA4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Note Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{75CDE8A6-0385-4898-815F-451D11ED4EC8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Note Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q11" authorId="0" shapeId="0" xr:uid="{DDDEE947-57E3-4A13-8B70-1562EAD182BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Note Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -1743,7 +1863,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2390,22 +2510,63 @@
       <c r="A11" s="5">
         <v>45148</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" s="10">
+        <v>16</v>
+      </c>
+      <c r="S11" s="12">
+        <v>11</v>
+      </c>
+      <c r="T11" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -17942,10 +18103,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G15 B11:B25 I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B8:H10 J11:P15 J8:P9 J10:K10 M10:P10" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B25 J11:P15 I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D12:G15 D11:H11" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 I7:I10 H11:H1048576 Q8:Q123 L10" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 I7:I11 L10 Q8:Q123 H12:H1048576 C11" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC51E4-E449-49E5-8396-682ACADC12E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDD4B0E-7ED1-4633-8A01-618297FB799F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -1235,12 +1235,180 @@
         </r>
       </text>
     </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{812C5C9A-D145-4438-8440-D1CE4D55937B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{1489EE8A-0DBE-4C4C-9AE2-87E854EED309}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Personal Work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{564D26D7-B478-469E-8E6F-7DD9ABB03A34}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{3907863D-D750-4598-834D-97E03A362262}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mrdical Reason</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{3BEE4DB7-42E8-4E8F-B5FC-ABA6BD13C9E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{E8DBEB2D-5652-4997-9DC5-2B3E3706E0B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{21BC5094-8254-4013-87C4-62F44F3D87A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -1863,7 +2031,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11:T11"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2572,22 +2740,63 @@
       <c r="A12" s="5">
         <v>45149</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="10">
+        <v>16</v>
+      </c>
+      <c r="S12" s="12">
+        <v>9</v>
+      </c>
+      <c r="T12" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -18103,10 +18312,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B25 J11:P15 I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D12:G15 D11:H11" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:G15 I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H12 J11:P15 B11:B25" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 I7:I11 L10 Q8:Q123 H12:H1048576 C11" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 I7:I12 L10 H13:H1048576 C11:C12 Q8:Q123" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDD4B0E-7ED1-4633-8A01-618297FB799F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAB369B-7DC3-4EE4-ADF1-31D4683675DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -47,7 +47,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office time is upto 7:30 so cant join meeting
@@ -63,7 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -72,7 +72,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Medical Issue</t>
@@ -87,7 +87,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -96,7 +96,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No any Response</t>
@@ -111,7 +111,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -120,7 +120,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Joined late after 40 min for the session</t>
@@ -135,7 +135,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -144,7 +144,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No any Response</t>
@@ -159,7 +159,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -168,7 +168,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Present for 40 min session only after that he wasn’t in the meeting
@@ -184,7 +184,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -193,7 +193,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No any Response</t>
@@ -208,7 +208,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -217,7 +217,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 In first meeting: Ronak was absent
@@ -233,7 +233,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -242,7 +242,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Medical Condition</t>
@@ -257,7 +257,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -266,7 +266,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Due to office work not joined</t>
@@ -281,7 +281,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -290,7 +290,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mobile and internet Issue
@@ -306,7 +306,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -315,7 +315,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No any response for message</t>
@@ -330,7 +330,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -339,7 +339,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No any response for message</t>
@@ -354,7 +354,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -363,7 +363,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -378,7 +378,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -387,7 +387,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No any response for message</t>
@@ -402,7 +402,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -411,7 +411,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Personal work</t>
@@ -426,7 +426,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -435,7 +435,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No responded to the message</t>
@@ -450,7 +450,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -459,7 +459,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Due to office work not joined</t>
@@ -474,7 +474,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -483,7 +483,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No responded to the message</t>
@@ -498,7 +498,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -507,7 +507,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No responded to the message</t>
@@ -522,7 +522,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -531,7 +531,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No responded to the message</t>
@@ -546,7 +546,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -555,7 +555,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No responded to the message</t>
@@ -570,7 +570,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -579,7 +579,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Due to office work not joined</t>
@@ -594,7 +594,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -603,7 +603,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -618,7 +618,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -627,7 +627,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -642,7 +642,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -651,7 +651,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -690,7 +690,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -699,7 +699,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -714,7 +714,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -723,7 +723,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work
@@ -739,7 +739,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -748,7 +748,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not responded</t>
@@ -763,7 +763,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -772,7 +772,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Due to office work not joined</t>
@@ -787,7 +787,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -796,7 +796,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -811,7 +811,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -820,7 +820,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -835,7 +835,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -844,7 +844,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -859,7 +859,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -868,7 +868,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -883,7 +883,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -892,7 +892,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -907,7 +907,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -916,7 +916,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -931,7 +931,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -940,7 +940,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -955,7 +955,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -964,7 +964,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No response</t>
@@ -979,7 +979,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -988,7 +988,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Personal work</t>
@@ -1003,7 +1003,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1012,7 +1012,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1027,7 +1027,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1036,7 +1036,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -1051,7 +1051,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1060,7 +1060,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Medical appointmnent</t>
@@ -1075,7 +1075,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1084,7 +1084,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1099,7 +1099,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1108,7 +1108,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Device Not available</t>
@@ -1123,7 +1123,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1132,7 +1132,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -1147,7 +1147,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1156,7 +1156,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Note Responded</t>
@@ -1171,7 +1171,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1180,7 +1180,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Note Responded</t>
@@ -1195,7 +1195,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1204,7 +1204,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Note Responded</t>
@@ -1219,7 +1219,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1228,7 +1228,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Note Responded</t>
@@ -1243,7 +1243,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1252,7 +1252,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -1267,7 +1267,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1276,7 +1276,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Personal Work</t>
@@ -1291,7 +1291,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1300,7 +1300,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1315,7 +1315,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1324,7 +1324,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mrdical Reason</t>
@@ -1339,7 +1339,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1348,7 +1348,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1363,7 +1363,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1372,7 +1372,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -1387,7 +1387,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1396,10 +1396,236 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{D1ED563A-E284-4BB4-8CC1-F693276E1D2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{10B01543-3E20-4A65-94CD-07504A08CAE9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{7AC106F0-3A70-4D52-9927-716023895678}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{A2694927-19A2-441C-A384-4636D744B7DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{FFEBC6F7-1F59-4455-B39C-96FDB1364035}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{E8BE4C30-E8F6-4079-8FC3-1875FBEFCAB7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{A3D7A244-CDF4-4BEC-8D1D-DF0F2DF87578}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{302EC7A5-C05A-4697-ABF6-1C1C7A71F002}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="0" shapeId="0" xr:uid="{43399D1A-E704-4C58-B20C-F876C76634E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Not Responded</t>
         </r>
       </text>
     </comment>
@@ -1408,7 +1634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -1489,7 +1715,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1524,20 +1750,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1547,10 +1760,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1704,7 +1917,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2029,9 +2242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2802,22 +3015,63 @@
       <c r="A13" s="5">
         <v>45150</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="10">
+        <v>16</v>
+      </c>
+      <c r="S13" s="12">
+        <v>7</v>
+      </c>
+      <c r="T13" s="11">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -18312,10 +18566,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:G15 I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H12 J11:P15 B11:B25" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 B11:B25 J11:P15 D14:G15" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 I7:I12 L10 H13:H1048576 C11:C12 Q8:Q123" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 I7:I13 L10 C11:C13 Q8:Q123 H14:H1048576" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAB369B-7DC3-4EE4-ADF1-31D4683675DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E465ED-B403-4A28-AFEF-5BA247AF1EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -1634,7 +1634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -2242,7 +2242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
@@ -3077,43 +3077,125 @@
       <c r="A14" s="5">
         <v>45151</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="B14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>45152</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="10">
+        <v>16</v>
+      </c>
+      <c r="S15" s="12">
+        <v>10</v>
+      </c>
+      <c r="T15" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
@@ -18566,10 +18648,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 B11:B25 J11:P15 D14:G15" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 J11:P13 B11:B13 B15:B25 J15:P15 D15:H15" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 I7:I13 L10 C11:C13 Q8:Q123 H14:H1048576" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 I7:I15 L10 C11:C15 H16:H1048576 Q8:Q13 Q15:Q123" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E465ED-B403-4A28-AFEF-5BA247AF1EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CE0D8D-E0D9-4B84-85BF-D0FB02D279EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -1629,12 +1629,204 @@
         </r>
       </text>
     </comment>
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{C0679D75-90ED-4722-A7DA-A459233B3459}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office Work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{BDC8C466-EFEF-44B9-BD37-0D4E32734E24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L15" authorId="0" shapeId="0" xr:uid="{6D3CC462-CAE4-4119-9E16-D65653EA17E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="0" shapeId="0" xr:uid="{B3978F14-4CAE-4466-9901-FF262B81DE7C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{891C72E0-6AB9-4BE5-B8B5-11141EB99994}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office Work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{0144B96B-0889-40EF-BD1A-88E26CBC5288}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L16" authorId="0" shapeId="0" xr:uid="{A5784533-0670-4099-8851-85DBECB4CF3E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P16" authorId="0" shapeId="0" xr:uid="{A67D6FD5-C2A6-4438-BBAC-5DDA9BA5C236}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -1715,7 +1907,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1771,6 +1963,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2244,7 +2449,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3201,11 +3406,63 @@
       <c r="A16" s="5">
         <v>45153</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="10">
+        <v>16</v>
+      </c>
+      <c r="S16" s="12">
+        <v>12</v>
+      </c>
+      <c r="T16" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
@@ -18648,10 +18905,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 J11:P13 B11:B13 B15:B25 J15:P15 D15:H15" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 J11:P13 B11:B13 B17:B25" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 I7:I15 L10 C11:C15 H16:H1048576 Q8:Q13 Q15:Q123" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 H17:H1048576 Q17:Q123 Q8:Q13 I7:I14 B15:Q16" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CE0D8D-E0D9-4B84-85BF-D0FB02D279EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CB5C69-A0CB-4641-8F13-C9DFCCBF03D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -1821,12 +1821,156 @@
         </r>
       </text>
     </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{9B2F5334-A8B9-49BE-9651-3114F74A1F4C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{8FE53746-D8A5-45E3-98F8-10C754863B0C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Present in only first meeting not in second meeting due to office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{5272D86D-0436-4E5F-8208-4B1B024C842E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{F4EF6BC8-55CB-413D-908B-5A89C9FADA76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Medical Reason</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L17" authorId="0" shapeId="0" xr:uid="{E26F7F9D-74C8-45F7-8439-2DE6D5F3CBDD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P17" authorId="0" shapeId="0" xr:uid="{493B914E-C6CE-4236-B52A-302B15A84235}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -2449,7 +2593,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S23" sqref="S23"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3468,11 +3612,63 @@
       <c r="A17" s="5">
         <v>45154</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="10">
+        <v>16</v>
+      </c>
+      <c r="S17" s="12">
+        <v>11</v>
+      </c>
+      <c r="T17" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
@@ -18905,10 +19101,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 J11:P13 B11:B13 B17:B25" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 J11:P13 B11:B13 B18:B25" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 H17:H1048576 Q17:Q123 Q8:Q13 I7:I14 B15:Q16" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 Q18:Q123 B15:Q17 Q8:Q13 I7:I14 H18:H1048576" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CB5C69-A0CB-4641-8F13-C9DFCCBF03D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B64DF0-B375-4086-887E-8FCB9A50BC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -1965,12 +1965,108 @@
         </r>
       </text>
     </comment>
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{22F6DD0C-7E31-4CB6-AE3B-B89B217F6B95}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{AF4DA111-FF05-4564-AB21-91A0D22E8434}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L18" authorId="0" shapeId="0" xr:uid="{E9BF35E8-9545-48FA-8D75-5AA230B402AB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P18" authorId="0" shapeId="0" xr:uid="{B996CA6E-BAD2-47D1-91EA-5CE4CB7A45C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -2593,7 +2689,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3674,23 +3770,63 @@
       <c r="A18" s="5">
         <v>45155</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="10">
+        <v>16</v>
+      </c>
+      <c r="S18" s="12">
+        <v>12</v>
+      </c>
+      <c r="T18" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
@@ -19101,10 +19237,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D18:G21 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 J11:P13 B11:B13 B18:B25" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:G21 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 B19:B25 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 J11:P13 B11:B13 I19:P123" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 Q18:Q123 B15:Q17 Q8:Q13 I7:I14 H18:H1048576" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 H19:H1048576 B15:Q18 Q8:Q13 I7:I14 Q19:Q123" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B64DF0-B375-4086-887E-8FCB9A50BC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28090064-7A5B-4905-B9D9-2ECEE7557CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -2061,12 +2061,156 @@
         </r>
       </text>
     </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{4E4E690E-C4C1-47ED-8B03-19E93553FC92}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{989DB9F6-9361-413C-8BC9-550C20F02E6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L19" authorId="0" shapeId="0" xr:uid="{48FF51A2-0D76-49AF-BCD4-62186BBED583}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="0" shapeId="0" xr:uid="{FF283774-C183-481E-B7BC-4AB68F06099E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Outside Travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O19" authorId="0" shapeId="0" xr:uid="{0E2D0602-1CA0-419B-9AA4-14BABD58C3B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Present in only first session absent in second session due to power failure</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P19" authorId="0" shapeId="0" xr:uid="{1CBA5D2E-2F02-4488-882C-B74BEC445B51}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -2687,9 +2831,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3832,23 +3976,63 @@
       <c r="A19" s="5">
         <v>45156</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" s="10">
+        <v>16</v>
+      </c>
+      <c r="S19" s="12">
+        <v>6</v>
+      </c>
+      <c r="T19" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
@@ -19237,10 +19421,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:G21 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 B19:B25 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 J11:P13 B11:B13 I19:P123" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B25 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 I20:P123 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 J11:P13 B11:B13 D20:G21" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 H19:H1048576 B15:Q18 Q8:Q13 I7:I14 Q19:Q123" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 Q20:Q123 H20:H1048576 Q8:Q13 I7:I14 B15:Q19" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28090064-7A5B-4905-B9D9-2ECEE7557CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA553CFB-9EE1-49AC-922D-D5941BC29BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -2205,12 +2205,156 @@
         </r>
       </text>
     </comment>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{B1011B92-62F7-4295-B5BD-48E2F7A50016}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{B6703230-B5D5-41FC-A168-AC3280CD7DB8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{AC79DAD7-4776-45B3-B618-7D9609EA5820}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{A8ECAEE6-A34A-48B9-A664-CD923F73D613}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{94559DF2-40E9-4CD4-BBC6-93CBA9875B47}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P20" authorId="0" shapeId="0" xr:uid="{87066FD7-C822-492A-B80E-4E6D8B3F8E45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -2831,9 +2975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4038,23 +4182,63 @@
       <c r="A20" s="5">
         <v>45157</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="10">
+        <v>16</v>
+      </c>
+      <c r="S20" s="12">
+        <v>10</v>
+      </c>
+      <c r="T20" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
@@ -19421,10 +19605,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B25 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 I20:P123 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 J11:P13 B11:B13 D20:G21" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D21:G21 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 J11:P13 B11:B13 B21:B25" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 Q20:Q123 H20:H1048576 Q8:Q13 I7:I14 B15:Q19" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 H21:H1048576 B15:Q20 Q8:Q13 I7:I14 Q21:Q123" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA553CFB-9EE1-49AC-922D-D5941BC29BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7193D8-5D0D-40DB-99E9-031A96AC30ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -1637,7 +1637,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1646,7 +1646,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office Work</t>
@@ -1661,7 +1661,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1670,7 +1670,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not responded</t>
@@ -1685,7 +1685,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1694,7 +1694,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not responded</t>
@@ -1709,7 +1709,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1718,7 +1718,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not responded</t>
@@ -1733,7 +1733,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1742,7 +1742,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office Work</t>
@@ -1757,7 +1757,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1766,7 +1766,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not responded</t>
@@ -1781,7 +1781,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1790,7 +1790,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not responded</t>
@@ -1805,7 +1805,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1814,7 +1814,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not responded</t>
@@ -1829,7 +1829,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1838,7 +1838,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -1853,7 +1853,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1862,7 +1862,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Present in only first meeting not in second meeting due to office work</t>
@@ -1877,7 +1877,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1886,7 +1886,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1901,7 +1901,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1910,7 +1910,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Medical Reason</t>
@@ -1925,7 +1925,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1934,7 +1934,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1949,7 +1949,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1958,7 +1958,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1973,7 +1973,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -1982,7 +1982,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -1997,7 +1997,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -2006,7 +2006,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2021,7 +2021,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -2030,7 +2030,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2045,7 +2045,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -2054,7 +2054,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2069,7 +2069,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -2078,7 +2078,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -2093,7 +2093,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -2102,7 +2102,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2117,7 +2117,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -2126,7 +2126,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2141,7 +2141,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -2150,7 +2150,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Outside Travelling</t>
@@ -2165,7 +2165,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -2174,7 +2174,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Present in only first session absent in second session due to power failure</t>
@@ -2189,7 +2189,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -2198,7 +2198,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2213,7 +2213,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -2222,7 +2222,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -2237,7 +2237,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -2246,7 +2246,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2261,7 +2261,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -2270,7 +2270,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2285,7 +2285,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -2294,7 +2294,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2309,7 +2309,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -2318,7 +2318,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2333,7 +2333,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Parth:</t>
         </r>
@@ -2342,10 +2342,154 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{9C002831-6667-4D3C-AFC7-AC67022251D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{0CB57F21-5F70-4143-B694-004C723B98F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Trevelling Outside of city</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{BD2C2E38-530A-4D4D-AFBB-8207532C43D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{7B703775-BD81-445E-9FBF-1FF07EC5913E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{1EF6C138-1E41-4C78-AB62-3BDF591065B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O22" authorId="0" shapeId="0" xr:uid="{598C6F1D-AF35-4BA5-A2A3-D58A800CCB2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not responded</t>
         </r>
       </text>
     </comment>
@@ -2354,7 +2498,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -2435,7 +2579,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2491,19 +2635,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2977,7 +3108,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4244,42 +4375,120 @@
       <c r="A21" s="5">
         <v>45158</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
+      <c r="B21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>45159</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>15</v>
+      </c>
+      <c r="R22" s="12">
+        <v>9</v>
+      </c>
+      <c r="S22" s="11">
+        <v>6</v>
+      </c>
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -19603,13 +19812,16 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:P123 B5:P6 I124:K1048576 I2:P4 B2:G4 F22:G22 D23:G25 D21:G21 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 J11:P13 B11:B13 B21:B25" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:P13 B5:P6 I124:K1048576 I2:P4 B2:G4 B11:B13 D23:G25 B23:B25 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 I23:P123" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 H21:H1048576 B15:Q20 Q8:Q13 I7:I14 Q21:Q123" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 Q23:Q123 B15:Q20 Q8:Q13 I7:I14 H23:H1048576" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:P22" xr:uid="{2043CD1F-077B-43FF-B8AE-264E9054C4D3}">
+      <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7193D8-5D0D-40DB-99E9-031A96AC30ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1408CA64-B4AC-47B0-83C4-F538EE2D9606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -2493,12 +2493,156 @@
         </r>
       </text>
     </comment>
+    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{59715035-044A-43DE-B043-363ACA65CB02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{D271A92F-C2D1-4227-A87F-9E64D6476F67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+family function</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K23" authorId="0" shapeId="0" xr:uid="{B43AB95A-7D32-451B-90D1-4CF8FA20BB1F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{697F4179-10E3-4CF4-B721-209D9D46F4D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{80508093-DE75-44B4-AD04-044B1299FAF8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P23" authorId="0" shapeId="0" xr:uid="{18C619DB-262A-494F-89D9-C9231C307DAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -2579,7 +2723,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2635,6 +2779,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3108,7 +3265,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4495,22 +4652,60 @@
       <c r="A23" s="5">
         <v>45160</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>15</v>
+      </c>
+      <c r="R23" s="12">
+        <v>9</v>
+      </c>
+      <c r="S23" s="11">
+        <v>6</v>
+      </c>
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -19814,13 +20009,13 @@
   <dataConsolidate/>
   <dataValidations count="4">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:P13 B5:P6 I124:K1048576 I2:P4 B2:G4 B11:B13 D23:G25 B23:B25 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 I23:P123" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:P13 B5:P6 I124:K1048576 I2:P4 B2:G4 B11:B13 B24:B25 I24:P123 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 D24:G25" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 Q23:Q123 B15:Q20 Q8:Q13 I7:I14 H23:H1048576" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 H24:H1048576 B15:Q20 Q8:Q13 I7:I14 Q24:Q123" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:P22" xr:uid="{2043CD1F-077B-43FF-B8AE-264E9054C4D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:P23" xr:uid="{2043CD1F-077B-43FF-B8AE-264E9054C4D3}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1408CA64-B4AC-47B0-83C4-F538EE2D9606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9950A02-23D2-43A5-A491-3EC226917049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -2637,12 +2637,180 @@
         </r>
       </text>
     </comment>
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{1C41A1BE-C5E8-4174-B494-6D4E8778051A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{EEBAF8DE-B528-4405-82D5-16AD86BD7A2E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{C8108548-7702-496C-82F9-5BBC5947E5BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{AD39E9D6-AEB6-49E8-847C-8B1F6DCEDB40}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="0" shapeId="0" xr:uid="{39F1B924-4997-47DC-9BFF-C2DFD3E2A34E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O24" authorId="0" shapeId="0" xr:uid="{991952B3-74C2-42C5-B69C-F9EF7A5D1163}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P24" authorId="0" shapeId="0" xr:uid="{E6FC48B1-B108-4EA0-9067-9E9D8C13A13D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -3265,7 +3433,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4712,22 +4880,60 @@
       <c r="A24" s="5">
         <v>45161</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>15</v>
+      </c>
+      <c r="R24" s="12">
+        <v>8</v>
+      </c>
+      <c r="S24" s="11">
+        <v>7</v>
+      </c>
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -20009,13 +20215,13 @@
   <dataConsolidate/>
   <dataValidations count="4">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:P13 B5:P6 I124:K1048576 I2:P4 B2:G4 B11:B13 B24:B25 I24:P123 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 D24:G25" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:P13 B5:P6 I124:K1048576 I2:P4 B2:G4 B11:B13 I25:P123 D25:G25 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 B25" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 H24:H1048576 B15:Q20 Q8:Q13 I7:I14 Q24:Q123" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 Q25:Q123 B15:Q20 Q8:Q13 I7:I14 H25:H1048576" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:P23" xr:uid="{2043CD1F-077B-43FF-B8AE-264E9054C4D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:P24" xr:uid="{2043CD1F-077B-43FF-B8AE-264E9054C4D3}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9950A02-23D2-43A5-A491-3EC226917049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD021D1E-6461-4EFF-8D8B-775066764DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -2805,12 +2805,132 @@
         </r>
       </text>
     </comment>
+    <comment ref="F25" authorId="0" shapeId="0" xr:uid="{19CDDC9E-5F22-4B32-9209-2B2D47B2CBFF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{72802B0F-FE6A-4483-BD31-ED8EC2934955}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Other classes and exam</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K25" authorId="0" shapeId="0" xr:uid="{34BE08F7-F386-4240-A3E9-E34744C77228}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L25" authorId="0" shapeId="0" xr:uid="{1BBF256A-A039-4A82-8ED6-0A821C7DC1E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O25" authorId="0" shapeId="0" xr:uid="{504B56B1-875E-4A33-A8CF-7C67CF0590C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -3432,8 +3552,8 @@
   <dimension ref="A1:U742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4940,22 +5060,60 @@
       <c r="A25" s="5">
         <v>45162</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>15</v>
+      </c>
+      <c r="R25" s="12">
+        <v>10</v>
+      </c>
+      <c r="S25" s="11">
+        <v>5</v>
+      </c>
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -20215,13 +20373,13 @@
   <dataConsolidate/>
   <dataValidations count="4">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{6155AC06-7F61-4A08-843D-AAA25B377341}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:P13 B5:P6 I124:K1048576 I2:P4 B2:G4 B11:B13 I25:P123 D25:G25 B26:G1048576 B8:H10 M10:P10 J8:P9 J10:K10 D11:H13 B25" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:P13 B5:P6 I124:K1048576 I2:P4 B2:G4 B11:B13 J10:K10 D11:H13 B26:G1048576 B8:H10 M10:P10 J8:P9 I26:P123" xr:uid="{26F8D555-BFDA-E840-969B-30EA98F09544}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 Q25:Q123 B15:Q20 Q8:Q13 I7:I14 H25:H1048576" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4 Q2:Q6 C11:C14 L10 H26:H1048576 B15:Q20 Q8:Q13 I7:I14 Q26:Q123" xr:uid="{56EE3CA7-E1FA-424D-AB7B-EE80C7082F78}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:P24" xr:uid="{2043CD1F-077B-43FF-B8AE-264E9054C4D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:P25" xr:uid="{2043CD1F-077B-43FF-B8AE-264E9054C4D3}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CE6DCB-1108-45D9-9C27-3BFB2C70371F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2593A8C-683F-442E-8D08-087288D355D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -3092,12 +3092,108 @@
         </r>
       </text>
     </comment>
+    <comment ref="H27" authorId="0" shapeId="0" xr:uid="{7DEBF6BB-404B-4A4B-BEBD-E60859D3A2C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K27" authorId="0" shapeId="0" xr:uid="{D38D6FA0-1CF2-4549-9090-B4C17E3B4071}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L27" authorId="0" shapeId="0" xr:uid="{3D48B257-8C0C-4C08-BAEB-39A858316F57}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{FFE51C8C-B40E-4804-B194-AACBA25D9213}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -3684,9 +3780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:V742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5309,17 +5405,119 @@
       <c r="A27" s="5">
         <v>45164</v>
       </c>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>15</v>
+      </c>
+      <c r="R27" s="12">
+        <v>11</v>
+      </c>
+      <c r="S27" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>45165</v>
       </c>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
+      <c r="B28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="5">

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2593A8C-683F-442E-8D08-087288D355D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43325F2C-9FC2-443F-AD49-941778DB8934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -3188,12 +3188,180 @@
         </r>
       </text>
     </comment>
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{F80F7529-0A2C-4648-AADF-70406AEDD105}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{A0C65A9C-3DBD-4398-AF4F-B1279D3AE522}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H29" authorId="0" shapeId="0" xr:uid="{881DB115-65E4-4463-94F6-6E86F641C947}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K29" authorId="0" shapeId="0" xr:uid="{A838E12C-558E-4EF4-A66E-31AD6D33CB2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L29" authorId="0" shapeId="0" xr:uid="{6357B1FC-2D56-4987-931E-F278AD71E465}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M29" authorId="0" shapeId="0" xr:uid="{79D4269F-A447-4A0F-BC6C-B220FE2E5737}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Went to Home</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{93232357-25FB-42BC-A9BA-7D4B23815AA9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -3780,9 +3948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:V742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5523,9 +5691,60 @@
       <c r="A29" s="5">
         <v>45166</v>
       </c>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>15</v>
+      </c>
+      <c r="R29" s="12">
+        <v>8</v>
+      </c>
+      <c r="S29" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="5">

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43325F2C-9FC2-443F-AD49-941778DB8934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0843D4B3-0F8D-4A6E-9845-69D02555BF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -3356,12 +3356,156 @@
         </r>
       </text>
     </comment>
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{612CA480-1F11-49C5-B810-9797305A4682}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Went to Home Town</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H30" authorId="0" shapeId="0" xr:uid="{FDB0FA9A-B362-4BAB-B80B-16CA58509E45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K30" authorId="0" shapeId="0" xr:uid="{59887D1B-6B8F-4D18-80B9-377F6EF966CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L30" authorId="0" shapeId="0" xr:uid="{180882D9-CDAC-4FD6-8B09-0DB8C260B412}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M30" authorId="0" shapeId="0" xr:uid="{C5555704-692B-4D6A-A123-CF260B3E225D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Went to Home Town</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O30" authorId="0" shapeId="0" xr:uid="{14C529C6-862E-43C5-827E-CC75091C40EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -3950,7 +4094,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5750,9 +5894,60 @@
       <c r="A30" s="5">
         <v>45167</v>
       </c>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>15</v>
+      </c>
+      <c r="R30" s="12">
+        <v>9</v>
+      </c>
+      <c r="S30" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="5">

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0843D4B3-0F8D-4A6E-9845-69D02555BF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E920CBC2-0B10-47A6-A521-3C05DA78F5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -3505,7 +3505,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -3580,6 +3580,12 @@
   </si>
   <si>
     <t>Swapnil Barangule</t>
+  </si>
+  <si>
+    <t>Rakshabandhan Grp Holiday</t>
+  </si>
+  <si>
+    <t>Poll Result- Yes-1, No-9</t>
   </si>
 </sst>
 </file>
@@ -4092,9 +4098,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:V742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5953,9 +5959,63 @@
       <c r="A31" s="5">
         <v>45168</v>
       </c>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
+      <c r="B31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T31" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
@@ -10411,7 +10471,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{B8E375FF-3BDB-40B2-BDFB-273F8935B70E}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P1048576" xr:uid="{5E40B3CD-F95D-4E1A-A8E0-075EA01547A7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P1048576" xr:uid="{5E40B3CD-F95D-4E1A-A8E0-075EA01547A7}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E920CBC2-0B10-47A6-A521-3C05DA78F5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37646F0A-0F25-47E0-8A0E-8DA66B7649F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -3500,12 +3500,228 @@
         </r>
       </text>
     </comment>
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{FFEBF545-6DAB-4CC1-883A-248C04380DB9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{1886B343-7B8F-42CD-A942-6AE7A8304CC0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{4FBCAABF-CACD-4296-8E49-21D6B0F47AEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{325A7E74-EBF0-4306-9C36-8631FBE6F562}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+External Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{03BF281A-E54D-4720-94D9-380560C1A5DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K32" authorId="0" shapeId="0" xr:uid="{7D32D4C7-7109-41AA-BFD5-DE3EC383740F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L32" authorId="0" shapeId="0" xr:uid="{1D9A0D75-F6DE-44CD-A0EE-FB46611E4B08}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O32" authorId="0" shapeId="0" xr:uid="{10B66818-7697-4CBD-A85D-BFE39507E546}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P32" authorId="0" shapeId="0" xr:uid="{BC9186D6-86DC-45A8-B746-7959851373D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -4098,9 +4314,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:V742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6021,9 +6237,60 @@
       <c r="A32" s="5">
         <v>45169</v>
       </c>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>15</v>
+      </c>
+      <c r="R32" s="12">
+        <v>6</v>
+      </c>
+      <c r="S32" s="11">
+        <v>9</v>
+      </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="5">

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37646F0A-0F25-47E0-8A0E-8DA66B7649F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86125D40-863B-4100-8D8B-285CE0C8D9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -3500,7 +3500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{FFEBF545-6DAB-4CC1-883A-248C04380DB9}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{BDF367CB-B09A-434C-80BA-F30DBF0B4ED1}">
       <text>
         <r>
           <rPr>
@@ -3524,7 +3524,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{1886B343-7B8F-42CD-A942-6AE7A8304CC0}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{FD73BB9D-C3C6-4577-AD1F-6E024EEDCE3E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Medical Reason</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{49B6BC7B-17A0-4A06-90A1-59527EEE61B8}">
       <text>
         <r>
           <rPr>
@@ -3548,7 +3572,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{4FBCAABF-CACD-4296-8E49-21D6B0F47AEA}">
+    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{B472F473-D491-4A73-BE68-F5ED2AF0331B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+External Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{315F4C64-6A6E-4C65-AE2C-6546DF0BA92D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Atteneded Only 1st session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K32" authorId="0" shapeId="0" xr:uid="{B64C0D3C-8A05-4D8D-80F1-0E85359169B4}">
       <text>
         <r>
           <rPr>
@@ -3572,31 +3644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{325A7E74-EBF0-4306-9C36-8631FBE6F562}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-External Study</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{03BF281A-E54D-4720-94D9-380560C1A5DB}">
+    <comment ref="L32" authorId="0" shapeId="0" xr:uid="{68C956F5-2CE2-4477-AD4C-BB2D2A6DA102}">
       <text>
         <r>
           <rPr>
@@ -3620,7 +3668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K32" authorId="0" shapeId="0" xr:uid="{7D32D4C7-7109-41AA-BFD5-DE3EC383740F}">
+    <comment ref="O32" authorId="0" shapeId="0" xr:uid="{9C61FB81-1925-4638-8D8A-BB49AB076B40}">
       <text>
         <r>
           <rPr>
@@ -3644,75 +3692,27 @@
         </r>
       </text>
     </comment>
-    <comment ref="L32" authorId="0" shapeId="0" xr:uid="{1D9A0D75-F6DE-44CD-A0EE-FB46611E4B08}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Responded</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O32" authorId="0" shapeId="0" xr:uid="{10B66818-7697-4CBD-A85D-BFE39507E546}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Responded</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P32" authorId="0" shapeId="0" xr:uid="{BC9186D6-86DC-45A8-B746-7959851373D6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Responded</t>
+    <comment ref="P32" authorId="0" shapeId="0" xr:uid="{B1948D96-63DA-488C-B3EF-7E09D5517E38}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Travelling Outside</t>
         </r>
       </text>
     </comment>
@@ -4314,9 +4314,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:V742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6262,7 +6262,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>1</v>
@@ -6286,10 +6286,10 @@
         <v>15</v>
       </c>
       <c r="R32" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S32" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86125D40-863B-4100-8D8B-285CE0C8D9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97391CF-12AA-486A-B77C-D0CE307ED324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -3716,12 +3716,156 @@
         </r>
       </text>
     </comment>
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{71BC72B3-8E44-42E9-BACF-5BE18362F79C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{0AB7B93F-84F8-49A5-81AB-90718199CE9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Joined Only 1st session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H33" authorId="0" shapeId="0" xr:uid="{02CA2E4D-4A05-4599-BAD2-07627C4F330D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K33" authorId="0" shapeId="0" xr:uid="{12BF65E7-F4DE-4754-BB9F-CCB21519485E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L33" authorId="0" shapeId="0" xr:uid="{00BA300E-1AAF-4476-8D1D-777BEA2ED01F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O33" authorId="0" shapeId="0" xr:uid="{B9B73890-654C-4AA6-B281-BB6AA51F0B3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -4316,7 +4460,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6296,9 +6440,60 @@
       <c r="A33" s="5">
         <v>45170</v>
       </c>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>15</v>
+      </c>
+      <c r="R33" s="12">
+        <v>10</v>
+      </c>
+      <c r="S33" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="5">

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97391CF-12AA-486A-B77C-D0CE307ED324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB45FE91-B326-49CF-9820-0FFD1B81C228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -3860,12 +3860,228 @@
         </r>
       </text>
     </comment>
+    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{80B7A54C-BB96-410A-8B43-61033C58B461}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{51DF8191-7793-4DC6-B83D-130ACE7ECAA2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F34" authorId="0" shapeId="0" xr:uid="{DC7D455E-48C5-4917-9436-A80ACF92FEFF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Outside travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H34" authorId="0" shapeId="0" xr:uid="{0E4ABC8E-997B-44DE-B0E8-114AE0CC048A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I34" authorId="0" shapeId="0" xr:uid="{D9E0FADA-4FE7-4C4A-909B-31E707173673}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Medical Reason</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K34" authorId="0" shapeId="0" xr:uid="{CD46CC82-5968-4B70-A835-26D91F352B13}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L34" authorId="0" shapeId="0" xr:uid="{AA41D730-09D5-4BB9-A4B5-7FB57E5BE98B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N34" authorId="0" shapeId="0" xr:uid="{F657B685-5EF2-400A-BBFC-4C9710AF3D27}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O34" authorId="0" shapeId="0" xr:uid="{CB8A8FEA-5AD8-4B28-8000-8EDFA36A364B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -4459,8 +4675,8 @@
   <dimension ref="A1:V742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6499,9 +6715,60 @@
       <c r="A34" s="5">
         <v>45171</v>
       </c>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>15</v>
+      </c>
+      <c r="R34" s="12">
+        <v>6</v>
+      </c>
+      <c r="S34" s="11">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="5">

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB45FE91-B326-49CF-9820-0FFD1B81C228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E00735-43BF-401F-BFE2-618BB7AA3858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -4076,12 +4076,156 @@
         </r>
       </text>
     </comment>
+    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{0469CF07-1E5D-4293-81ED-4253BC07514F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{B3516E73-BE92-4407-9242-36DB39E67AAA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H36" authorId="0" shapeId="0" xr:uid="{490F23FB-C028-4C23-9385-F8C3BB80E1FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K36" authorId="0" shapeId="0" xr:uid="{A8D6E9FC-52DA-4F7D-B8DB-55ABC1904118}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L36" authorId="0" shapeId="0" xr:uid="{00E55C75-40F4-4F06-8B1A-A72BF1FB871F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{D76CE2E1-446A-488C-AF38-5E9B22336063}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -4675,8 +4819,8 @@
   <dimension ref="A1:V742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6774,17 +6918,119 @@
       <c r="A35" s="5">
         <v>45172</v>
       </c>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
+      <c r="B35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>45173</v>
       </c>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>15</v>
+      </c>
+      <c r="R36" s="12">
+        <v>9</v>
+      </c>
+      <c r="S36" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="5">

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E00735-43BF-401F-BFE2-618BB7AA3858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E89AE1-2A49-4E4F-A120-A4C3D620AFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -4220,12 +4220,180 @@
         </r>
       </text>
     </comment>
+    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{2AEC0B81-7923-4FBE-9756-9548FC0FADEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office Work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{6EC448CE-624C-49BB-A8AC-4041696EB6DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H37" authorId="0" shapeId="0" xr:uid="{5C1BD717-C18B-4A5A-8D09-0F27CDCBDFF3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J37" authorId="0" shapeId="0" xr:uid="{66C5FBE0-CFD4-4761-B0AC-13887BD35F0C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K37" authorId="0" shapeId="0" xr:uid="{596922ED-5FC4-4C41-9A80-8170325AB05F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L37" authorId="0" shapeId="0" xr:uid="{CF9187EC-17D3-4E54-845A-E3444CF35E56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O37" authorId="0" shapeId="0" xr:uid="{F9A39893-5408-4134-B0AE-26B512F53CED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -4820,7 +4988,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7036,9 +7204,60 @@
       <c r="A37" s="5">
         <v>45174</v>
       </c>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>15</v>
+      </c>
+      <c r="R37" s="12">
+        <v>8</v>
+      </c>
+      <c r="S37" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="5">

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E89AE1-2A49-4E4F-A120-A4C3D620AFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137F3E7B-E004-4D21-B63F-2AC018CA0D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -4388,12 +4388,204 @@
         </r>
       </text>
     </comment>
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{D700B330-9DB6-4176-BBB8-B608E2B98A53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office Work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{B8D1C937-71D8-496E-B704-A68EC8DC289C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Medical Reason</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H38" authorId="0" shapeId="0" xr:uid="{594CEFDB-DC10-4BF2-944F-3BC8E0443384}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I38" authorId="0" shapeId="0" xr:uid="{9F583F47-05D0-42B9-93F9-F89926A507CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J38" authorId="0" shapeId="0" xr:uid="{B35A9704-1B13-477D-98BB-99F2A5371EB9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K38" authorId="0" shapeId="0" xr:uid="{2011F310-864B-43FE-95D7-407ABE0A6969}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L38" authorId="0" shapeId="0" xr:uid="{45CC0925-327D-4EB8-B5D6-66F972DE7761}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O38" authorId="0" shapeId="0" xr:uid="{BDC21893-BDF4-4B61-B233-5FC48A00D454}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -4988,7 +5180,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7263,9 +7455,60 @@
       <c r="A38" s="5">
         <v>45175</v>
       </c>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>15</v>
+      </c>
+      <c r="R38" s="12">
+        <v>7</v>
+      </c>
+      <c r="S38" s="11">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="5">

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137F3E7B-E004-4D21-B63F-2AC018CA0D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693F856B-8EB3-46C0-B8CE-0A76F6BD5740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -4580,12 +4580,180 @@
         </r>
       </text>
     </comment>
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{5CD674A5-8F50-4E8A-AD0A-8CEFE0A6BA8A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{25D4CD1F-A0A4-4929-9C05-1D8A008E550C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H39" authorId="0" shapeId="0" xr:uid="{4981AE35-5009-4109-AC97-585530A8FB2B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J39" authorId="0" shapeId="0" xr:uid="{8F8E71D0-B5CF-4570-961B-10B091F167D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K39" authorId="0" shapeId="0" xr:uid="{B58F5D3F-51A9-4BB1-B5A1-7D3C69399B44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L39" authorId="0" shapeId="0" xr:uid="{DDAABEE8-8CA1-4063-9D81-D47071521B33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O39" authorId="0" shapeId="0" xr:uid="{34C6F584-B554-4DFD-B775-41F7905AA217}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -5180,7 +5348,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7514,9 +7682,60 @@
       <c r="A39" s="5">
         <v>45176</v>
       </c>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>15</v>
+      </c>
+      <c r="R39" s="12">
+        <v>8</v>
+      </c>
+      <c r="S39" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="5">

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693F856B-8EB3-46C0-B8CE-0A76F6BD5740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85722527-A497-46DB-ACC9-521AE7585568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -4748,12 +4748,180 @@
         </r>
       </text>
     </comment>
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{400F517B-22E3-4346-A17D-A8321AF0F5E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{4D0619B9-70FF-430F-9118-BF05A156A791}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H40" authorId="0" shapeId="0" xr:uid="{C7AE2937-8A50-4CE8-BB9A-738D424690BB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office Work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J40" authorId="0" shapeId="0" xr:uid="{A6BC8693-E2DB-49C0-A60A-3AEA32D12B12}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office Work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K40" authorId="0" shapeId="0" xr:uid="{74A860DF-BA8A-4D72-976B-A36F4927BC05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O40" authorId="0" shapeId="0" xr:uid="{4D563DFA-8284-4FB6-B84F-700F1169053A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P40" authorId="0" shapeId="0" xr:uid="{A41FC761-EACE-410C-B083-858E9A6C9A73}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -5348,7 +5516,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7741,9 +7909,60 @@
       <c r="A40" s="5">
         <v>45177</v>
       </c>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>15</v>
+      </c>
+      <c r="R40" s="12">
+        <v>8</v>
+      </c>
+      <c r="S40" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="5">

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF2298A-248F-4805-8FCE-3EAD5AB7ABF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A19A907-C50C-4D55-816C-125747C60522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -5324,7 +5324,175 @@
         </r>
       </text>
     </comment>
-    <comment ref="O44" authorId="0" shapeId="0" xr:uid="{0E64744F-11D2-4D65-9368-56D09D276BB1}">
+    <comment ref="O44" authorId="0" shapeId="0" xr:uid="{34AE5182-9224-4FCB-8BE9-F61F6D38A626}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Interview</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0" xr:uid="{E456F728-74FF-4ED9-888E-F0791A25C1B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{9E31C518-B6FF-479D-9D7C-002E4688306E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H45" authorId="0" shapeId="0" xr:uid="{253BCE10-A28F-488D-A437-D8656BC450DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J45" authorId="0" shapeId="0" xr:uid="{2E17F06B-2351-42FA-AE1E-6AE0B1A759E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K45" authorId="0" shapeId="0" xr:uid="{045C2470-D62B-4D8C-8A62-72F5D63D973A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O45" authorId="0" shapeId="0" xr:uid="{82398F5D-2F3F-4083-B815-109F8C9A59D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P45" authorId="0" shapeId="0" xr:uid="{A7F1F711-50D9-4B57-8D88-A35251B8077F}">
       <text>
         <r>
           <rPr>
@@ -5353,7 +5521,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -5982,7 +6150,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8650,7 +8818,7 @@
       <c r="N44" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O44" s="15" t="s">
+      <c r="O44" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P44" s="2" t="s">
@@ -8670,9 +8838,60 @@
       <c r="A45" s="14">
         <v>45182</v>
       </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>15</v>
+      </c>
+      <c r="R45" s="6">
+        <v>8</v>
+      </c>
+      <c r="S45" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
@@ -13032,7 +13251,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D55F7CCC-DCFB-43CD-A950-8980DAF5EE1A}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 B42:B1048576 C42:S42 C43:P43 O44 C46:P1048576 C44:N45 P44:P45" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 B42:B1048576 C43:P1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A19A907-C50C-4D55-816C-125747C60522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A1CFCB-BD20-420D-B52A-E83E621C2A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -5516,12 +5516,204 @@
         </r>
       </text>
     </comment>
+    <comment ref="C46" authorId="0" shapeId="0" xr:uid="{2BB9ADBD-E8F3-4E3B-8B89-029885A777EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E46" authorId="0" shapeId="0" xr:uid="{E2F9DFC5-0D2A-447F-BBFB-1E8EED67B656}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H46" authorId="0" shapeId="0" xr:uid="{511F7ED4-069B-441D-AE3D-2053FC8DD035}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J46" authorId="0" shapeId="0" xr:uid="{D77CCC0C-9207-4C1E-A0E0-AF5998E9D01F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K46" authorId="0" shapeId="0" xr:uid="{6DC8E910-FF4C-4538-8375-BA7D4867A02F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M46" authorId="0" shapeId="0" xr:uid="{D4131FDD-042F-42B0-A58A-735FCCAA6ACD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Outside Travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N46" authorId="0" shapeId="0" xr:uid="{3D5ADA27-1C82-4CDE-A9FC-3B1C7F0E75AB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O46" authorId="0" shapeId="0" xr:uid="{C1363AB1-7E93-4CFD-968A-D61E8E53C68D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -6150,7 +6342,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8897,9 +9089,60 @@
       <c r="A46" s="14">
         <v>45183</v>
       </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>15</v>
+      </c>
+      <c r="R46" s="6">
+        <v>7</v>
+      </c>
+      <c r="S46" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
@@ -13251,7 +13494,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D55F7CCC-DCFB-43CD-A950-8980DAF5EE1A}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 B42:B1048576 C43:P1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C43:P1048576 B42:B1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A1CFCB-BD20-420D-B52A-E83E621C2A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F88EA05-C598-4494-A500-2E49CC6A4371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -5708,12 +5708,276 @@
         </r>
       </text>
     </comment>
+    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{4BC0A035-EFA0-46F8-9F27-95304F541678}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D47" authorId="0" shapeId="0" xr:uid="{701EB3ED-2916-496A-A4DF-F7257A242EA4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Joined Only 1st session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{1E6BC0B2-3D59-411F-8AE4-5659C4F17B8A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H47" authorId="0" shapeId="0" xr:uid="{221F1C49-1A55-46D7-B38A-F9B03A135E80}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I47" authorId="0" shapeId="0" xr:uid="{A6C54D45-429B-43A4-8A9A-621ACE7CB330}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Joined Only 1st session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J47" authorId="0" shapeId="0" xr:uid="{FDF78BB7-02D7-43E7-82EF-82F529B7F73D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K47" authorId="0" shapeId="0" xr:uid="{CCBE589F-F2FF-407F-84ED-FF90FC441839}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L47" authorId="0" shapeId="0" xr:uid="{BA093ED8-EF64-4824-A46B-7FD9BE964D25}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M47" authorId="0" shapeId="0" xr:uid="{8FA263C8-75C1-4EE7-9705-9232AA0A6BEE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Outside Travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N47" authorId="0" shapeId="0" xr:uid="{9E2A5DD5-45C4-42F8-AD57-523E7BF3E1E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Joined Only 1st session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O47" authorId="0" shapeId="0" xr:uid="{1A9AEA17-0754-4E13-8083-97DEF712BD5B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -6342,7 +6606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47:S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9148,9 +9412,60 @@
       <c r="A47" s="14">
         <v>45184</v>
       </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N47" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O47" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>15</v>
+      </c>
+      <c r="R47" s="6">
+        <v>7</v>
+      </c>
+      <c r="S47" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
@@ -13494,7 +13809,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D55F7CCC-DCFB-43CD-A950-8980DAF5EE1A}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C43:P1048576 B42:B1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 B42:B1048576 C43:P1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F88EA05-C598-4494-A500-2E49CC6A4371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C78BF3-6CAF-4492-8BC1-334D698DA16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -5972,12 +5972,204 @@
         </r>
       </text>
     </comment>
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{ED9D1190-566A-4B8B-873C-D421D57B055F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{22FEC687-545E-466E-9F81-7BD5C027006D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Joined Only 1st session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{97DF994E-20DA-461A-8CA2-AB3FEB3907D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H48" authorId="0" shapeId="0" xr:uid="{B6B913CC-CD74-47C0-9B57-537EFF110CAC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I48" authorId="0" shapeId="0" xr:uid="{C2223D42-4C11-4C03-ADA7-891C3F30752D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Joined Only 1st session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J48" authorId="0" shapeId="0" xr:uid="{F8D91788-85AF-4DA0-BEFC-740BD48A920A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K48" authorId="0" shapeId="0" xr:uid="{C91F41EA-C164-469D-B75B-99E053CA8EDB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L48" authorId="0" shapeId="0" xr:uid="{48D9BC16-9A7F-4FE4-BA73-B005A9A791A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -6606,7 +6798,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47:S47"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9471,9 +9663,60 @@
       <c r="A48" s="14">
         <v>45185</v>
       </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>15</v>
+      </c>
+      <c r="R48" s="6">
+        <v>6</v>
+      </c>
+      <c r="S48" s="5">
+        <v>9</v>
+      </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
@@ -13809,7 +14052,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D55F7CCC-DCFB-43CD-A950-8980DAF5EE1A}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 B42:B1048576 C43:P1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C43:P1048576 B42:B1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C78BF3-6CAF-4492-8BC1-334D698DA16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B693A8E-0A5E-4E33-B87A-0FB01CF64996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -38,16 +38,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Medical Issue</t>
@@ -62,16 +62,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No Response</t>
@@ -86,16 +86,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Joined late after 40 min for the session</t>
@@ -110,16 +110,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 seen message but no response</t>
@@ -134,16 +134,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Present for 40 min session only after that he wasn’t in the meeting
@@ -159,16 +159,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No response</t>
@@ -183,16 +183,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 In first meeting: Ronak was absent
@@ -208,16 +208,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office time is upto 7:30 so cant join meeting
@@ -233,16 +233,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Medical Condition</t>
@@ -257,16 +257,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mobile and internet Issue
@@ -282,16 +282,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No any response for message</t>
@@ -306,16 +306,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No any response for message</t>
@@ -330,16 +330,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -354,16 +354,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No any response for message</t>
@@ -378,16 +378,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Personal work</t>
@@ -402,16 +402,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Due to office work not joined</t>
@@ -426,16 +426,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No responded to the message</t>
@@ -450,16 +450,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No responded to the message</t>
@@ -474,16 +474,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No responded to the message</t>
@@ -498,16 +498,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No responded to the message</t>
@@ -522,16 +522,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No responded to the message</t>
@@ -546,16 +546,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Due to office work not joined</t>
@@ -570,16 +570,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -594,16 +594,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -618,16 +618,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -642,16 +642,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Due to office work not joined</t>
@@ -666,16 +666,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -690,16 +690,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -714,16 +714,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -762,16 +762,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -786,16 +786,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -810,16 +810,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -834,16 +834,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -858,16 +858,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -882,16 +882,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Due to office work not joined</t>
@@ -906,16 +906,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -930,16 +930,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No response</t>
@@ -954,16 +954,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Personal work</t>
@@ -978,16 +978,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1002,16 +1002,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -1026,16 +1026,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Medical appointmnent</t>
@@ -1050,16 +1050,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1074,16 +1074,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Device Not available</t>
@@ -1098,16 +1098,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -1122,16 +1122,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Note Responded</t>
@@ -1146,16 +1146,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Note Responded</t>
@@ -1170,16 +1170,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Note Responded</t>
@@ -1194,16 +1194,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Note Responded</t>
@@ -1218,16 +1218,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -1242,16 +1242,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Personal Work</t>
@@ -1266,16 +1266,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1290,16 +1290,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mrdical Reason</t>
@@ -1314,16 +1314,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1338,16 +1338,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -1362,16 +1362,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1386,16 +1386,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -1410,16 +1410,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1434,16 +1434,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1458,16 +1458,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Travelling</t>
@@ -1482,16 +1482,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1506,16 +1506,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1530,16 +1530,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1554,16 +1554,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1578,16 +1578,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1612,16 +1612,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -1636,16 +1636,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1660,16 +1660,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1684,16 +1684,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not responded</t>
@@ -1708,16 +1708,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not responded</t>
@@ -1732,16 +1732,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not responded</t>
@@ -1756,16 +1756,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office Work</t>
@@ -1780,16 +1780,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not responded</t>
@@ -1804,16 +1804,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not responded</t>
@@ -1828,16 +1828,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not responded</t>
@@ -1852,16 +1852,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office Work</t>
@@ -1876,16 +1876,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Present in only first meeting not in second meeting due to office work</t>
@@ -1900,16 +1900,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1924,16 +1924,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Medical Reason</t>
@@ -1948,16 +1948,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1972,16 +1972,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -1996,16 +1996,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -2020,16 +2020,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2044,16 +2044,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2068,16 +2068,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2092,16 +2092,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -2116,16 +2116,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2140,16 +2140,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2164,16 +2164,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2188,16 +2188,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Outside Travelling</t>
@@ -2212,16 +2212,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Present in only first session absent in second session due to power failure</t>
@@ -2236,16 +2236,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2260,16 +2260,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -2284,16 +2284,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2308,16 +2308,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2332,16 +2332,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2356,16 +2356,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2380,16 +2380,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2404,16 +2404,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -2548,16 +2548,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2572,16 +2572,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 family function</t>
@@ -2596,16 +2596,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2620,16 +2620,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2644,16 +2644,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2668,16 +2668,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2692,16 +2692,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2716,16 +2716,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2740,16 +2740,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Travelling</t>
@@ -2764,16 +2764,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2788,16 +2788,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2812,16 +2812,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2836,16 +2836,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2860,16 +2860,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Travelling</t>
@@ -2884,16 +2884,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Other classes and exam</t>
@@ -2908,16 +2908,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2932,16 +2932,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2956,16 +2956,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -2980,16 +2980,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Out for travel</t>
@@ -3004,16 +3004,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Other classes and exam</t>
@@ -3028,16 +3028,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Note Responded</t>
@@ -3052,16 +3052,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Note Responded</t>
@@ -3076,16 +3076,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -3100,16 +3100,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Study</t>
@@ -3124,16 +3124,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded </t>
@@ -3148,16 +3148,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3172,16 +3172,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3196,16 +3196,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3220,16 +3220,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3244,16 +3244,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Study</t>
@@ -3268,16 +3268,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3292,16 +3292,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3316,16 +3316,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Went to Home</t>
@@ -3340,16 +3340,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3364,16 +3364,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Went to Home Town</t>
@@ -3388,16 +3388,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Study</t>
@@ -3412,16 +3412,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3436,16 +3436,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3460,16 +3460,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Went to Home Town</t>
@@ -3484,16 +3484,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3508,16 +3508,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3532,16 +3532,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Medical Reason</t>
@@ -3556,16 +3556,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3580,16 +3580,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 External Study</t>
@@ -3604,16 +3604,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Atteneded Only 1st session</t>
@@ -3628,16 +3628,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3652,16 +3652,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3676,16 +3676,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3700,16 +3700,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Travelling Outside</t>
@@ -3724,16 +3724,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3748,16 +3748,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Joined Only 1st session</t>
@@ -3772,16 +3772,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Study</t>
@@ -3796,16 +3796,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3820,16 +3820,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3844,16 +3844,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3868,16 +3868,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office work</t>
@@ -3892,16 +3892,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -3916,16 +3916,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Outside travelling</t>
@@ -3940,16 +3940,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -3964,16 +3964,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Medical Reason</t>
@@ -3988,16 +3988,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4012,16 +4012,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4036,16 +4036,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Travelling</t>
@@ -4060,16 +4060,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4084,16 +4084,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office Work</t>
@@ -4108,16 +4108,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4132,16 +4132,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Study</t>
@@ -4156,16 +4156,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4180,16 +4180,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4204,16 +4204,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4228,16 +4228,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office Work</t>
@@ -4252,16 +4252,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Medical Reason</t>
@@ -4276,16 +4276,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Study</t>
@@ -4300,16 +4300,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Study</t>
@@ -4324,16 +4324,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4348,16 +4348,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4372,16 +4372,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4396,16 +4396,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office Work</t>
@@ -4420,16 +4420,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Medical Reason</t>
@@ -4444,16 +4444,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Study</t>
@@ -4468,16 +4468,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4492,16 +4492,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Study</t>
@@ -4516,16 +4516,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4540,16 +4540,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4564,16 +4564,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4588,16 +4588,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4612,16 +4612,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4636,16 +4636,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Study</t>
@@ -4660,16 +4660,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Study</t>
@@ -4684,16 +4684,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4708,16 +4708,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4732,16 +4732,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4756,16 +4756,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4780,16 +4780,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4804,16 +4804,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office Work</t>
@@ -4828,16 +4828,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Office Work</t>
@@ -4852,16 +4852,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4876,16 +4876,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -4900,16 +4900,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5164,16 +5164,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5188,16 +5188,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5212,16 +5212,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -5236,16 +5236,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -5260,16 +5260,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5284,16 +5284,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5308,16 +5308,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5332,16 +5332,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Interview</t>
@@ -5356,16 +5356,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5380,16 +5380,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5404,16 +5404,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -5428,16 +5428,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -5452,16 +5452,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5476,16 +5476,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5500,16 +5500,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5524,16 +5524,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5548,16 +5548,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5572,16 +5572,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -5596,16 +5596,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -5620,16 +5620,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5644,16 +5644,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Outside Travelling</t>
@@ -5668,16 +5668,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5692,16 +5692,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5716,16 +5716,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5740,16 +5740,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Joined Only 1st session</t>
@@ -5764,16 +5764,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5788,16 +5788,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -5812,16 +5812,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Joined Only 1st session</t>
@@ -5836,16 +5836,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -5860,16 +5860,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5884,16 +5884,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Network issue occurred joined the metting only foe 10 min</t>
@@ -5908,16 +5908,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Outside Travelling</t>
@@ -5932,16 +5932,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Joined Only 1st session</t>
@@ -5956,16 +5956,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -5980,16 +5980,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6004,16 +6004,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Joined Only 1st session</t>
@@ -6028,16 +6028,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6052,16 +6052,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -6076,16 +6076,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Joined Only 1st session</t>
@@ -6100,16 +6100,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -6124,16 +6124,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6148,19 +6148,259 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{1DF89862-DC59-4110-933A-3D490705D719}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{190E01B1-3259-42EE-92BD-F25702C78643}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H50" authorId="0" shapeId="0" xr:uid="{AEBE9692-FF60-45E1-9D3C-052D2045804F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I50" authorId="0" shapeId="0" xr:uid="{B33D4D2B-C3B5-440A-BA57-D045FEACCACA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J50" authorId="0" shapeId="0" xr:uid="{B0D027ED-10B7-421E-88DB-0713357BC98F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K50" authorId="0" shapeId="0" xr:uid="{AD8BC990-E268-4AEF-B2C1-53CBF6768DF5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L50" authorId="0" shapeId="0" xr:uid="{DB56AEA3-DC05-4EEA-A0C1-F1ECA0668883}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N50" authorId="0" shapeId="0" xr:uid="{7511DE9C-8CD8-4842-9C4C-1EA8B0F66529}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O50" authorId="0" shapeId="0" xr:uid="{8FC7DB0E-1FB1-4E38-A645-CF5A5C868B7F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P50" authorId="0" shapeId="0" xr:uid="{1E731E17-FCC3-4F1C-A0F7-510E8E319AF6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
         </r>
       </text>
     </comment>
@@ -6169,7 +6409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -6254,12 +6494,15 @@
   <si>
     <t>Common-Off</t>
   </si>
+  <si>
+    <t>Ganesh Chaturthi Holiday</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6315,19 +6558,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -6798,7 +7028,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9722,25 +9952,178 @@
       <c r="A49" s="14">
         <v>45186</v>
       </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
+      <c r="B49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S49" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>45187</v>
       </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>15</v>
+      </c>
+      <c r="R50" s="6">
+        <v>5</v>
+      </c>
+      <c r="S50" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>45188</v>
       </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
+      <c r="B51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
@@ -14052,7 +14435,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D55F7CCC-DCFB-43CD-A950-8980DAF5EE1A}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C43:P1048576 B42:B1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 B42:B1048576 C43:P48 C52:P1048576 C49:S49 C50:P50 C51:S51" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B693A8E-0A5E-4E33-B87A-0FB01CF64996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1751462-C229-463D-8891-4752C9395CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -6404,12 +6404,444 @@
         </r>
       </text>
     </comment>
+    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{4CEB572F-9195-4062-B233-6E8A02D4AD14}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E52" authorId="0" shapeId="0" xr:uid="{8DBAF3EF-2AA5-438E-AF06-A129A480FEA3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H52" authorId="0" shapeId="0" xr:uid="{ABC47761-C640-455F-8D2C-9A6CE6B890D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J52" authorId="0" shapeId="0" xr:uid="{D5657B93-68B8-48A7-84CC-9E8FEFB56FD4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K52" authorId="0" shapeId="0" xr:uid="{A1831536-B750-4D12-BF14-C4493BEAC55A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L52" authorId="0" shapeId="0" xr:uid="{CAF00D78-697E-4DC0-BB78-F75A1674A451}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O52" authorId="0" shapeId="0" xr:uid="{B6CBF736-A17F-4985-8735-8B236B2FA5D1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P52" authorId="0" shapeId="0" xr:uid="{46FB324D-F474-4C82-B2D8-C16C5F0D3F0A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{61357F6F-7605-407B-B233-B74F52C35E85}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E53" authorId="0" shapeId="0" xr:uid="{F81FC583-BC65-4FD1-97D0-5E712AAA5F2A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F53" authorId="0" shapeId="0" xr:uid="{10CDEAEC-BF25-43E9-AD4E-486F831CEF15}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Home Festival</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H53" authorId="0" shapeId="0" xr:uid="{981231E4-A734-4EBE-A233-9FBAED7F4B9F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I53" authorId="0" shapeId="0" xr:uid="{C897B6FF-1B9C-4B35-A89A-A76F1B70EF79}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J53" authorId="0" shapeId="0" xr:uid="{28FD2976-3AD5-4C89-8516-D3D35F042F07}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K53" authorId="0" shapeId="0" xr:uid="{CF920062-DC4A-43B6-A79E-6F5027AF575C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L53" authorId="0" shapeId="0" xr:uid="{86FE3EFE-88D2-4956-A615-063505B7E694}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O53" authorId="0" shapeId="0" xr:uid="{0A9C3C9F-09F7-478F-9866-D8F1137C4454}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P53" authorId="0" shapeId="0" xr:uid="{B7FE4731-D2D6-4DD1-994F-94072BB27CE9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -6502,7 +6934,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6558,6 +6990,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -7028,7 +7473,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10129,17 +10574,119 @@
       <c r="A52" s="14">
         <v>45189</v>
       </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O52" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>15</v>
+      </c>
+      <c r="R52" s="6">
+        <v>7</v>
+      </c>
+      <c r="S52" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>45190</v>
       </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>15</v>
+      </c>
+      <c r="R53" s="6">
+        <v>5</v>
+      </c>
+      <c r="S53" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
@@ -14435,7 +14982,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D55F7CCC-DCFB-43CD-A950-8980DAF5EE1A}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 B42:B1048576 C43:P48 C52:P1048576 C49:S49 C50:P50 C51:S51" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C52:P1048576 C43:P48 C51:S51 C49:S49 C50:P50 B42:B1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1751462-C229-463D-8891-4752C9395CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F63CCD-7AA7-4AA9-86D3-4193675F247F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -6836,12 +6836,252 @@
         </r>
       </text>
     </comment>
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{9A6134A3-9F2B-40CE-886A-993008549DE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{D7A423B5-CF8E-4753-9452-B7C20136137A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F54" authorId="0" shapeId="0" xr:uid="{123EDC3F-E455-4D2C-BA44-C81929D719CA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Home Festival</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H54" authorId="0" shapeId="0" xr:uid="{74F708C4-7C41-4EA2-8C6B-C7C9D15A4391}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I54" authorId="0" shapeId="0" xr:uid="{7EE032E4-ABC9-4E26-A5E0-B6BC1FA3C09C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J54" authorId="0" shapeId="0" xr:uid="{3978757B-8FA9-4885-BBD5-1AFD2DCB749C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K54" authorId="0" shapeId="0" xr:uid="{68AF0E20-AED9-4D84-9DD6-3F5C4EEDF983}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L54" authorId="0" shapeId="0" xr:uid="{744C36AF-850D-4DAE-9D17-CA36593C31F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O54" authorId="0" shapeId="0" xr:uid="{C9721B21-90DA-4A6F-BF75-10456A329F4B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P54" authorId="0" shapeId="0" xr:uid="{CEB1138F-B6A3-4669-9F8E-68760B09E6C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -7473,7 +7713,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10692,9 +10932,60 @@
       <c r="A54" s="14">
         <v>45191</v>
       </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O54" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>15</v>
+      </c>
+      <c r="R54" s="6">
+        <v>5</v>
+      </c>
+      <c r="S54" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
@@ -14982,7 +15273,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D55F7CCC-DCFB-43CD-A950-8980DAF5EE1A}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C52:P1048576 C43:P48 C51:S51 C49:S49 C50:P50 B42:B1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C43:P48 C51:S51 C49:S49 C50:P50 B42:B1048576 C52:P1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F63CCD-7AA7-4AA9-86D3-4193675F247F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0E6A65-A734-4246-9C0A-2476D61EB827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -6412,16 +6412,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6436,16 +6436,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6460,16 +6460,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -6484,16 +6484,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -6508,16 +6508,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6532,16 +6532,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Network issue occurred joined the metting only foe 10 min</t>
@@ -6556,16 +6556,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6580,16 +6580,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6604,16 +6604,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6628,16 +6628,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6652,16 +6652,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Home Festival</t>
@@ -6676,16 +6676,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -6700,16 +6700,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6724,16 +6724,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -6748,16 +6748,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6772,16 +6772,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Network issue occurred joined the metting only foe 10 min</t>
@@ -6796,16 +6796,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6820,16 +6820,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6844,16 +6844,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6868,16 +6868,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6892,16 +6892,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Home Festival</t>
@@ -6916,16 +6916,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -6940,16 +6940,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -6964,16 +6964,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -6988,16 +6988,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -7012,16 +7012,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Network issue occurred joined the metting only foe 10 min</t>
@@ -7036,16 +7036,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -7060,16 +7060,280 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{616C1112-DE9C-409F-A894-8AC4D74C8FBF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E57" authorId="0" shapeId="0" xr:uid="{F562A60C-A35F-4500-AEF9-94C2419B9C6C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H57" authorId="0" shapeId="0" xr:uid="{135C8ACE-2323-4C54-9370-2BDB73486981}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I57" authorId="0" shapeId="0" xr:uid="{4846A88E-4CCC-4C34-91E6-01D2E0582471}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J57" authorId="0" shapeId="0" xr:uid="{4CB6F102-CB0B-4D56-96ED-7E7621EE2D05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K57" authorId="0" shapeId="0" xr:uid="{E7CD5B47-2361-48F5-9689-25EE6F289DDE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L57" authorId="0" shapeId="0" xr:uid="{ACD76E8F-40F8-42F0-98C2-261FDCE74F1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M57" authorId="0" shapeId="0" xr:uid="{4DF53603-0F71-4038-89E7-EE50D6C5F02F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Went to home town</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N57" authorId="0" shapeId="0" xr:uid="{5EC46409-4089-465D-B878-2075826AF003}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O57" authorId="0" shapeId="0" xr:uid="{0A2F1429-C02A-405A-87B3-BF14B546F456}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P57" authorId="0" shapeId="0" xr:uid="{01772E01-BBBC-4C81-8B8D-659A3A77449A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -7081,7 +7345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -7169,12 +7433,15 @@
   <si>
     <t>Ganesh Chaturthi Holiday</t>
   </si>
+  <si>
+    <t>Ganesh Visarjan Holiday</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7230,19 +7497,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -7713,7 +7967,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10991,25 +11245,178 @@
       <c r="A55" s="14">
         <v>45192</v>
       </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
+      <c r="B55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>45193</v>
       </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
+      <c r="B56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S56" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>45194</v>
       </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N57" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O57" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>15</v>
+      </c>
+      <c r="R57" s="6">
+        <v>4</v>
+      </c>
+      <c r="S57" s="5">
+        <v>11</v>
+      </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
@@ -15273,7 +15680,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D55F7CCC-DCFB-43CD-A950-8980DAF5EE1A}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C43:P48 C51:S51 C49:S49 C50:P50 B42:B1048576 C52:P1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C43:P48 C51:S51 C49:S49 C50:P50 C52:P54 B42:B54 B57:P1048576 B56:S56" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0E6A65-A734-4246-9C0A-2476D61EB827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1811FF-4E44-4CF1-AA9E-E8D8031D3F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -7340,12 +7340,276 @@
         </r>
       </text>
     </comment>
+    <comment ref="C58" authorId="0" shapeId="0" xr:uid="{8DA384D9-442A-4D4F-B036-1471AE2101D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E58" authorId="0" shapeId="0" xr:uid="{A93AF0F3-1255-410F-A6C5-6AA6E9D7C20A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H58" authorId="0" shapeId="0" xr:uid="{08CFD8BB-7872-4CCD-8F55-D1CFF7FB7893}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I58" authorId="0" shapeId="0" xr:uid="{FC68C13B-CD43-498C-8AF0-065389E04928}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J58" authorId="0" shapeId="0" xr:uid="{E8861B7C-D25F-4403-88E5-5DCE5790100B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K58" authorId="0" shapeId="0" xr:uid="{F6AA0D0D-84A2-48D4-B855-BEC551E835EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L58" authorId="0" shapeId="0" xr:uid="{8A939123-E04F-4D60-BC06-FBC0375C1E0C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M58" authorId="0" shapeId="0" xr:uid="{781220D0-6708-4FB0-B935-EBBF381C861F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Went to home town</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N58" authorId="0" shapeId="0" xr:uid="{43C6F909-F98A-4DAF-BB1F-2326C4AFE761}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O58" authorId="0" shapeId="0" xr:uid="{AD05E3C2-DE33-492A-9A3F-650494EB0076}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P58" authorId="0" shapeId="0" xr:uid="{38B2775D-6AFC-4CE5-8D6F-9BA09C70016B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -7441,7 +7705,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7497,6 +7761,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -7967,7 +8244,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11422,9 +11699,60 @@
       <c r="A58" s="14">
         <v>45195</v>
       </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N58" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O58" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P58" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>15</v>
+      </c>
+      <c r="R58" s="6">
+        <v>4</v>
+      </c>
+      <c r="S58" s="5">
+        <v>11</v>
+      </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
@@ -15680,7 +16008,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D55F7CCC-DCFB-43CD-A950-8980DAF5EE1A}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C43:P48 C51:S51 C49:S49 C50:P50 C52:P54 B42:B54 B57:P1048576 B56:S56" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C43:P48 C51:S51 C49:S49 C50:P50 C52:P54 B42:B54 B56:S56 B57:P1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1811FF-4E44-4CF1-AA9E-E8D8031D3F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685FE568-5DF2-41C5-B7FE-3833ADBC3477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -7348,16 +7348,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -7372,16 +7372,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -7396,16 +7396,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -7420,16 +7420,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -7444,16 +7444,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra Studies</t>
@@ -7468,16 +7468,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -7492,16 +7492,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Network issue occurred joined the metting only foe 10 min</t>
@@ -7540,16 +7540,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -7564,16 +7564,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -7588,16 +7588,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not Responded</t>
@@ -7609,7 +7609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -7705,7 +7705,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7761,19 +7761,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -8244,7 +8231,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11758,9 +11745,60 @@
       <c r="A59" s="14">
         <v>45196</v>
       </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
+      <c r="B59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
@@ -16008,7 +16046,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D55F7CCC-DCFB-43CD-A950-8980DAF5EE1A}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C43:P48 C51:S51 C49:S49 C50:P50 C52:P54 B42:B54 B56:S56 B57:P1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C43:P48 C51:S51 C49:S49 C50:P50 C52:P54 B42:B54 B56:S56 B57:P58 B60:P1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-AttendanceManagement.xlsx
+++ b/React-B1-AttendanceManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\attendanceMentainace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685FE568-5DF2-41C5-B7FE-3833ADBC3477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DFB9B4-CFF6-41B4-BBF3-81748D89A26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -7609,7 +7609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -7700,12 +7700,15 @@
   <si>
     <t>Ganesh Visarjan Holiday</t>
   </si>
+  <si>
+    <t>Ananth Chaturthi Holiday</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7758,6 +7761,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7849,7 +7859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7907,6 +7917,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8230,8 +8243,8 @@
   <dimension ref="A1:V742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11804,17 +11817,119 @@
       <c r="A60" s="14">
         <v>45197</v>
       </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
+      <c r="B60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S60" s="21" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>45198</v>
       </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
+      <c r="B61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="S61" s="21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
@@ -16046,7 +16161,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D55F7CCC-DCFB-43CD-A950-8980DAF5EE1A}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C43:P48 C51:S51 C49:S49 C50:P50 C52:P54 B42:B54 B56:S56 B57:P58 B60:P1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C43:P48 C51:S51 C49:S49 C50:P50 C52:P54 B42:B54 B56:S56 B57:P58 B62:P1048576" xr:uid="{4D500759-9A7E-434E-A00C-DB6093F5EB4E}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>
